--- a/documentation/Scrum.xlsx
+++ b/documentation/Scrum.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gianm\Desktop\UrbanWatch\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F303CDC8-1D53-460E-A1AF-B666B6B91418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE26135F-EE69-4BCD-AA87-66E2F2A6BD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BLANK ONE SPOR Chart &amp; Burndown" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart &amp; Burndown" sheetId="1" r:id="rId1"/>
     <sheet name="Release Backlog" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="118">
   <si>
     <t>SPRINTS</t>
   </si>
@@ -285,9 +285,6 @@
     <t>3.2</t>
   </si>
   <si>
-    <t>In this sprint our objective was to have all the basics structure implemented</t>
-  </si>
-  <si>
     <t>Execution of the final features, comprehensive testing of both the features and the fully deployed system.</t>
   </si>
   <si>
@@ -324,9 +321,6 @@
     <t>We exclusively focused on the microservices' backend</t>
   </si>
   <si>
-    <t>We utilized TODO to create the Frontend pages, and we also added the necessary external API to backend features.</t>
-  </si>
-  <si>
     <t>Notification Microservice</t>
   </si>
   <si>
@@ -339,9 +333,6 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>TO INVENT</t>
-  </si>
-  <si>
     <t>Profile</t>
   </si>
   <si>
@@ -351,9 +342,6 @@
     <t>Map</t>
   </si>
   <si>
-    <t>Dashboard</t>
-  </si>
-  <si>
     <t>Testing of Profile section</t>
   </si>
   <si>
@@ -363,17 +351,50 @@
     <t>Testing of Map view</t>
   </si>
   <si>
-    <t>Testing of Notifications</t>
-  </si>
-  <si>
     <t>Testing of Dashboard</t>
+  </si>
+  <si>
+    <t>Documentation and planning</t>
+  </si>
+  <si>
+    <t>Admin dashboard</t>
+  </si>
+  <si>
+    <t>Zizzo</t>
+  </si>
+  <si>
+    <t>Carrozzo</t>
+  </si>
+  <si>
+    <t>Pascucci</t>
+  </si>
+  <si>
+    <t>Pascucci + Zizzo</t>
+  </si>
+  <si>
+    <t>Follow Microservice</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>Testing of Notifications and Follows</t>
+  </si>
+  <si>
+    <t>In this sprint our objective was to have all the basics structure implemented and documentation ready</t>
+  </si>
+  <si>
+    <t>We utilized React to create the Frontend pages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -494,18 +515,6 @@
       <sz val="9"/>
       <color rgb="FF716767"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -720,7 +729,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="80">
+  <borders count="81">
     <border>
       <left/>
       <right/>
@@ -1747,12 +1756,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="68"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="68"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2062,9 +2082,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2077,69 +2095,109 @@
     <xf numFmtId="14" fontId="9" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2161,49 +2219,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2397,7 +2412,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'BLANK ONE SPOR Chart &amp; Burndown'!$M$40:$BT$40</c:f>
+              <c:f>'Chart &amp; Burndown'!$M$41:$BT$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -2556,7 +2571,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BLANK ONE SPOR Chart &amp; Burndown'!$M$43:$BT$43</c:f>
+              <c:f>'Chart &amp; Burndown'!$M$44:$BT$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -2739,7 +2754,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BLANK ONE SPOR Chart &amp; Burndown'!$M$40:$BT$40</c:f>
+              <c:f>'Chart &amp; Burndown'!$M$41:$BT$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -2898,159 +2913,159 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BLANK ONE SPOR Chart &amp; Burndown'!$M$41:$BT$41</c:f>
+              <c:f>'Chart &amp; Burndown'!$M$42:$BT$42</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>499</c:v>
+                  <c:v>756</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>499</c:v>
+                  <c:v>756</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>499</c:v>
+                  <c:v>756</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>499</c:v>
+                  <c:v>756</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>491.43939393939394</c:v>
+                  <c:v>744.5454545454545</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>483.87878787878788</c:v>
+                  <c:v>733.09090909090901</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>476.31818181818181</c:v>
+                  <c:v>721.63636363636351</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>468.75757575757575</c:v>
+                  <c:v>710.18181818181802</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>461.19696969696969</c:v>
+                  <c:v>698.72727272727252</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>453.63636363636363</c:v>
+                  <c:v>687.27272727272702</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>446.07575757575756</c:v>
+                  <c:v>675.81818181818153</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>438.5151515151515</c:v>
+                  <c:v>664.36363636363603</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>430.95454545454544</c:v>
+                  <c:v>652.90909090909054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>423.39393939393938</c:v>
+                  <c:v>641.45454545454504</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>415.83333333333331</c:v>
+                  <c:v>629.99999999999955</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>408.27272727272725</c:v>
+                  <c:v>618.54545454545405</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>400.71212121212119</c:v>
+                  <c:v>607.09090909090855</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>393.15151515151513</c:v>
+                  <c:v>595.63636363636306</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>385.59090909090907</c:v>
+                  <c:v>584.18181818181756</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>378.030303030303</c:v>
+                  <c:v>572.72727272727207</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>370.46969696969694</c:v>
+                  <c:v>561.27272727272657</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>362.90909090909088</c:v>
+                  <c:v>549.81818181818107</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>355.34848484848482</c:v>
+                  <c:v>538.36363636363558</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>347.78787878787875</c:v>
+                  <c:v>526.90909090909008</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>340.22727272727269</c:v>
+                  <c:v>515.45454545454459</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>332.66666666666663</c:v>
+                  <c:v>503.99999999999915</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>325.10606060606057</c:v>
+                  <c:v>492.54545454545371</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>317.5454545454545</c:v>
+                  <c:v>481.09090909090827</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>309.98484848484844</c:v>
+                  <c:v>469.63636363636283</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>302.42424242424238</c:v>
+                  <c:v>458.18181818181739</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>294.86363636363632</c:v>
+                  <c:v>446.72727272727195</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>287.30303030303025</c:v>
+                  <c:v>435.27272727272651</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>279.74242424242419</c:v>
+                  <c:v>423.81818181818107</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>272.18181818181813</c:v>
+                  <c:v>412.36363636363564</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>264.62121212121207</c:v>
+                  <c:v>400.9090909090902</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>257.06060606060601</c:v>
+                  <c:v>389.45454545454476</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>249.49999999999994</c:v>
+                  <c:v>377.99999999999932</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>241.93939393939388</c:v>
+                  <c:v>366.54545454545388</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>234.37878787878782</c:v>
+                  <c:v>355.09090909090844</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>226.81818181818176</c:v>
+                  <c:v>343.636363636363</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>219.25757575757569</c:v>
+                  <c:v>332.18181818181756</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>211.69696969696963</c:v>
+                  <c:v>320.72727272727212</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>204.13636363636357</c:v>
+                  <c:v>309.27272727272668</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>196.57575757575751</c:v>
+                  <c:v>297.81818181818124</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>189.01515151515144</c:v>
+                  <c:v>286.36363636363581</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>181.45454545454538</c:v>
+                  <c:v>274.90909090909037</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>173.89393939393932</c:v>
+                  <c:v>263.45454545454493</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>166.33333333333326</c:v>
+                  <c:v>251.99999999999946</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>158.7727272727272</c:v>
+                  <c:v>240.54545454545399</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>151.21212121212113</c:v>
+                  <c:v>229.09090909090853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3083,7 +3098,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BLANK ONE SPOR Chart &amp; Burndown'!$M$40:$BT$40</c:f>
+              <c:f>'Chart &amp; Burndown'!$M$41:$BT$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -3242,159 +3257,159 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BLANK ONE SPOR Chart &amp; Burndown'!$M$42:$BT$42</c:f>
+              <c:f>'Chart &amp; Burndown'!$M$43:$BT$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>499</c:v>
+                  <c:v>756</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>496</c:v>
+                  <c:v>753</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>493</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>499</c:v>
+                  <c:v>756</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>494</c:v>
+                  <c:v>751</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>489</c:v>
+                  <c:v>746</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>486</c:v>
+                  <c:v>743</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>483</c:v>
+                  <c:v>740</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>480</c:v>
+                  <c:v>737</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>474</c:v>
+                  <c:v>731</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>471</c:v>
+                  <c:v>728</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>467</c:v>
+                  <c:v>724</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>461</c:v>
+                  <c:v>718</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>454</c:v>
+                  <c:v>711</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>449</c:v>
+                  <c:v>706</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>444</c:v>
+                  <c:v>701</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>439</c:v>
+                  <c:v>696</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>434</c:v>
+                  <c:v>691</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>429</c:v>
+                  <c:v>686</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>426</c:v>
+                  <c:v>683</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>423</c:v>
+                  <c:v>680</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>420</c:v>
+                  <c:v>677</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>416</c:v>
+                  <c:v>673</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>413</c:v>
+                  <c:v>670</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>409</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>405</c:v>
+                  <c:v>662</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>402</c:v>
+                  <c:v>659</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>399</c:v>
+                  <c:v>656</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>396</c:v>
+                  <c:v>653</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>393</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>390</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>386</c:v>
+                  <c:v>643</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>382</c:v>
+                  <c:v>639</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>378</c:v>
+                  <c:v>635</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>374</c:v>
+                  <c:v>631</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>366</c:v>
+                  <c:v>623</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>359</c:v>
+                  <c:v>616</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>355</c:v>
+                  <c:v>612</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>351</c:v>
+                  <c:v>608</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>347</c:v>
+                  <c:v>604</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>344</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>344</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>344</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>344</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>344</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>344</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>344</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>344</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>344</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>344</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3427,7 +3442,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BLANK ONE SPOR Chart &amp; Burndown'!$M$40:$BT$40</c:f>
+              <c:f>'Chart &amp; Burndown'!$M$41:$BT$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -3586,159 +3601,159 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BLANK ONE SPOR Chart &amp; Burndown'!$M$44:$BT$44</c:f>
+              <c:f>'Chart &amp; Burndown'!$M$45:$BT$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>496</c:v>
+                  <c:v>753</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>493</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>490</c:v>
+                  <c:v>747</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>494</c:v>
+                  <c:v>751</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>489</c:v>
+                  <c:v>746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>486</c:v>
+                  <c:v>743</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>483</c:v>
+                  <c:v>740</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>480</c:v>
+                  <c:v>737</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>474</c:v>
+                  <c:v>731</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>471</c:v>
+                  <c:v>728</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>467</c:v>
+                  <c:v>724</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>461</c:v>
+                  <c:v>718</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>454</c:v>
+                  <c:v>711</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>449</c:v>
+                  <c:v>706</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>444</c:v>
+                  <c:v>701</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>439</c:v>
+                  <c:v>696</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>434</c:v>
+                  <c:v>691</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>429</c:v>
+                  <c:v>686</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>426</c:v>
+                  <c:v>683</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>423</c:v>
+                  <c:v>680</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>420</c:v>
+                  <c:v>677</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>416</c:v>
+                  <c:v>673</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>413</c:v>
+                  <c:v>670</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>409</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>405</c:v>
+                  <c:v>662</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>402</c:v>
+                  <c:v>659</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>399</c:v>
+                  <c:v>656</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>396</c:v>
+                  <c:v>653</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>393</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>390</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>386</c:v>
+                  <c:v>643</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>382</c:v>
+                  <c:v>639</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>378</c:v>
+                  <c:v>635</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>374</c:v>
+                  <c:v>631</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>366</c:v>
+                  <c:v>623</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>359</c:v>
+                  <c:v>616</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>355</c:v>
+                  <c:v>612</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>351</c:v>
+                  <c:v>608</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>347</c:v>
+                  <c:v>604</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>344</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>344</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>344</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>344</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>344</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>344</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>344</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>344</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>344</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>344</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>344</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3937,7 +3952,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="27632025" cy="5210175"/>
@@ -4203,10 +4218,10 @@
     <tabColor rgb="FF7B3C16"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CE998"/>
+  <dimension ref="A1:CE999"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AO37" sqref="AO37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4233,7 +4248,7 @@
   <sheetData>
     <row r="1" spans="2:73" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4268,7 +4283,7 @@
     </row>
     <row r="2" spans="2:73" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -4291,7 +4306,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="154" t="s">
+      <c r="K3" s="170" t="s">
         <v>0</v>
       </c>
       <c r="L3" s="6" t="s">
@@ -4328,7 +4343,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="155"/>
+      <c r="K4" s="171"/>
       <c r="L4" s="11" t="s">
         <v>2</v>
       </c>
@@ -4363,7 +4378,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="155"/>
+      <c r="K5" s="171"/>
       <c r="L5" s="15" t="s">
         <v>3</v>
       </c>
@@ -4438,7 +4453,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="156"/>
+      <c r="K6" s="172"/>
       <c r="L6" s="19" t="s">
         <v>4</v>
       </c>
@@ -4569,138 +4584,138 @@
       <c r="BU7" s="2"/>
     </row>
     <row r="8" spans="2:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="157" t="s">
+      <c r="B8" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="159" t="s">
+      <c r="C8" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="161" t="s">
+      <c r="D8" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="163" t="s">
+      <c r="E8" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="164"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="166" t="s">
+      <c r="F8" s="180"/>
+      <c r="G8" s="181"/>
+      <c r="H8" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="168" t="s">
+      <c r="I8" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="178" t="s">
+      <c r="J8" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="180" t="s">
+      <c r="K8" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="181" t="s">
+      <c r="L8" s="162" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="183" t="s">
+      <c r="M8" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="174"/>
-      <c r="O8" s="174"/>
-      <c r="P8" s="174"/>
-      <c r="Q8" s="175"/>
-      <c r="R8" s="184" t="s">
+      <c r="N8" s="155"/>
+      <c r="O8" s="155"/>
+      <c r="P8" s="155"/>
+      <c r="Q8" s="156"/>
+      <c r="R8" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="S8" s="174"/>
-      <c r="T8" s="174"/>
-      <c r="U8" s="174"/>
-      <c r="V8" s="175"/>
-      <c r="W8" s="184" t="s">
+      <c r="S8" s="155"/>
+      <c r="T8" s="155"/>
+      <c r="U8" s="155"/>
+      <c r="V8" s="156"/>
+      <c r="W8" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="X8" s="174"/>
-      <c r="Y8" s="174"/>
-      <c r="Z8" s="174"/>
-      <c r="AA8" s="177"/>
-      <c r="AB8" s="185" t="s">
+      <c r="X8" s="155"/>
+      <c r="Y8" s="155"/>
+      <c r="Z8" s="155"/>
+      <c r="AA8" s="158"/>
+      <c r="AB8" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="AC8" s="174"/>
-      <c r="AD8" s="174"/>
-      <c r="AE8" s="174"/>
-      <c r="AF8" s="175"/>
-      <c r="AG8" s="186" t="s">
+      <c r="AC8" s="155"/>
+      <c r="AD8" s="155"/>
+      <c r="AE8" s="155"/>
+      <c r="AF8" s="156"/>
+      <c r="AG8" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="AH8" s="174"/>
-      <c r="AI8" s="174"/>
-      <c r="AJ8" s="174"/>
-      <c r="AK8" s="175"/>
-      <c r="AL8" s="186" t="s">
+      <c r="AH8" s="155"/>
+      <c r="AI8" s="155"/>
+      <c r="AJ8" s="155"/>
+      <c r="AK8" s="156"/>
+      <c r="AL8" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="AM8" s="174"/>
-      <c r="AN8" s="174"/>
-      <c r="AO8" s="174"/>
-      <c r="AP8" s="177"/>
-      <c r="AQ8" s="187" t="s">
+      <c r="AM8" s="155"/>
+      <c r="AN8" s="155"/>
+      <c r="AO8" s="155"/>
+      <c r="AP8" s="158"/>
+      <c r="AQ8" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="AR8" s="174"/>
-      <c r="AS8" s="174"/>
-      <c r="AT8" s="174"/>
-      <c r="AU8" s="175"/>
-      <c r="AV8" s="188" t="s">
+      <c r="AR8" s="155"/>
+      <c r="AS8" s="155"/>
+      <c r="AT8" s="155"/>
+      <c r="AU8" s="156"/>
+      <c r="AV8" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="AW8" s="174"/>
-      <c r="AX8" s="174"/>
-      <c r="AY8" s="174"/>
-      <c r="AZ8" s="175"/>
-      <c r="BA8" s="188" t="s">
+      <c r="AW8" s="155"/>
+      <c r="AX8" s="155"/>
+      <c r="AY8" s="155"/>
+      <c r="AZ8" s="156"/>
+      <c r="BA8" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="BB8" s="174"/>
-      <c r="BC8" s="174"/>
-      <c r="BD8" s="174"/>
-      <c r="BE8" s="177"/>
-      <c r="BF8" s="173" t="s">
+      <c r="BB8" s="155"/>
+      <c r="BC8" s="155"/>
+      <c r="BD8" s="155"/>
+      <c r="BE8" s="158"/>
+      <c r="BF8" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="BG8" s="174"/>
-      <c r="BH8" s="174"/>
-      <c r="BI8" s="174"/>
-      <c r="BJ8" s="175"/>
-      <c r="BK8" s="176" t="s">
+      <c r="BG8" s="155"/>
+      <c r="BH8" s="155"/>
+      <c r="BI8" s="155"/>
+      <c r="BJ8" s="156"/>
+      <c r="BK8" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="BL8" s="174"/>
-      <c r="BM8" s="174"/>
-      <c r="BN8" s="174"/>
-      <c r="BO8" s="175"/>
-      <c r="BP8" s="176" t="s">
+      <c r="BL8" s="155"/>
+      <c r="BM8" s="155"/>
+      <c r="BN8" s="155"/>
+      <c r="BO8" s="156"/>
+      <c r="BP8" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="BQ8" s="174"/>
-      <c r="BR8" s="174"/>
-      <c r="BS8" s="174"/>
-      <c r="BT8" s="177"/>
+      <c r="BQ8" s="155"/>
+      <c r="BR8" s="155"/>
+      <c r="BS8" s="155"/>
+      <c r="BT8" s="158"/>
     </row>
     <row r="9" spans="2:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="158"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="151" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="153" t="s">
+      <c r="B9" s="174"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="147" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="167"/>
-      <c r="I9" s="169"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="179"/>
-      <c r="L9" s="182"/>
+      <c r="H9" s="183"/>
+      <c r="I9" s="185"/>
+      <c r="J9" s="160"/>
+      <c r="K9" s="160"/>
+      <c r="L9" s="163"/>
       <c r="M9" s="21" t="s">
         <v>29</v>
       </c>
@@ -4892,11 +4907,11 @@
       <c r="D10" s="35"/>
       <c r="E10" s="36">
         <f>SUM(E11:E15)</f>
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F10" s="37">
         <f>SUM(F11:F15)</f>
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="G10" s="38">
         <f>SUM(E10-F10)</f>
@@ -4907,10 +4922,10 @@
       <c r="J10" s="41"/>
       <c r="K10" s="42">
         <f>SUM(K11:K15)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="L10" s="43">
-        <f t="shared" ref="L10:L31" si="0">F10/E10</f>
+        <f t="shared" ref="L10:L32" si="0">F10/E10</f>
         <v>1</v>
       </c>
       <c r="M10" s="44"/>
@@ -4976,17 +4991,19 @@
     </row>
     <row r="11" spans="2:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="49"/>
+        <v>106</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>108</v>
+      </c>
       <c r="E11" s="50">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F11" s="51">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G11" s="52">
         <f t="shared" ref="G11:G12" si="1">E11-F11</f>
@@ -4995,11 +5012,15 @@
       <c r="H11" s="53">
         <v>1</v>
       </c>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
+      <c r="I11" s="130">
+        <v>45530</v>
+      </c>
+      <c r="J11" s="130">
+        <v>45532</v>
+      </c>
       <c r="K11" s="54">
         <f t="shared" ref="K11:K12" si="2">J11-I11+1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11" s="55">
         <f t="shared" si="0"/>
@@ -5007,7 +5028,7 @@
       </c>
       <c r="M11" s="57"/>
       <c r="N11" s="57"/>
-      <c r="O11" s="58"/>
+      <c r="O11" s="57"/>
       <c r="P11" s="58"/>
       <c r="Q11" s="58"/>
       <c r="R11" s="59"/>
@@ -5068,12 +5089,14 @@
     </row>
     <row r="12" spans="2:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="49"/>
+        <v>34</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>109</v>
+      </c>
       <c r="E12" s="50">
         <v>10</v>
       </c>
@@ -5087,20 +5110,23 @@
       <c r="H12" s="53">
         <v>1</v>
       </c>
-      <c r="I12" s="132"/>
-      <c r="J12" s="132"/>
+      <c r="I12" s="130">
+        <v>45531</v>
+      </c>
+      <c r="J12" s="130">
+        <v>45533</v>
+      </c>
       <c r="K12" s="54">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12" s="55">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M12" s="57"/>
       <c r="N12" s="57"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
       <c r="Q12" s="58"/>
       <c r="R12" s="59"/>
       <c r="S12" s="59"/>
@@ -5160,17 +5186,19 @@
     </row>
     <row r="13" spans="2:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="49"/>
+        <v>79</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>109</v>
+      </c>
       <c r="E13" s="50">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F13" s="51">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G13" s="52">
         <f>E13-F13</f>
@@ -5179,11 +5207,15 @@
       <c r="H13" s="53">
         <v>1</v>
       </c>
-      <c r="I13" s="132"/>
-      <c r="J13" s="132"/>
+      <c r="I13" s="130">
+        <v>45533</v>
+      </c>
+      <c r="J13" s="130">
+        <v>45534</v>
+      </c>
       <c r="K13" s="54">
         <f>J13-I13+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" s="55">
         <f>F13/E13</f>
@@ -5191,7 +5223,6 @@
       </c>
       <c r="M13" s="61"/>
       <c r="N13" s="58"/>
-      <c r="O13" s="57"/>
       <c r="P13" s="57"/>
       <c r="Q13" s="57"/>
       <c r="R13" s="59"/>
@@ -5252,17 +5283,19 @@
     </row>
     <row r="14" spans="2:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="49"/>
+        <v>80</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>109</v>
+      </c>
       <c r="E14" s="50">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F14" s="51">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G14" s="52">
         <f>E14-F14</f>
@@ -5271,11 +5304,15 @@
       <c r="H14" s="53">
         <v>1</v>
       </c>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
+      <c r="I14" s="130">
+        <v>45537</v>
+      </c>
+      <c r="J14" s="130">
+        <v>45539</v>
+      </c>
       <c r="K14" s="54">
         <f>J14-I14+1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14" s="55">
         <f>F14/E14</f>
@@ -5343,17 +5380,42 @@
       <c r="BT14" s="60"/>
     </row>
     <row r="15" spans="2:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="132"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="55"/>
+      <c r="B15" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="50">
+        <v>10</v>
+      </c>
+      <c r="F15" s="51">
+        <v>10</v>
+      </c>
+      <c r="G15" s="52">
+        <f>E15-F15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="53">
+        <v>1</v>
+      </c>
+      <c r="I15" s="130">
+        <v>45539</v>
+      </c>
+      <c r="J15" s="130">
+        <v>45541</v>
+      </c>
+      <c r="K15" s="54">
+        <f>J15-I15+1</f>
+        <v>3</v>
+      </c>
+      <c r="L15" s="55">
+        <f>F15/E15</f>
+        <v>1</v>
+      </c>
       <c r="M15" s="61"/>
       <c r="N15" s="58"/>
       <c r="O15" s="58"/>
@@ -5361,7 +5423,7 @@
       <c r="Q15" s="58"/>
       <c r="R15" s="59"/>
       <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
+      <c r="T15" s="57"/>
       <c r="U15" s="57"/>
       <c r="V15" s="57"/>
       <c r="W15" s="58"/>
@@ -5423,26 +5485,26 @@
       </c>
       <c r="D16" s="66"/>
       <c r="E16" s="36">
-        <f>SUM(E17:E21)</f>
-        <v>30</v>
+        <f>SUM(E17:E22)</f>
+        <v>75</v>
       </c>
       <c r="F16" s="37">
-        <f>SUM(F17:F21)</f>
-        <v>25</v>
+        <f>SUM(F17:F22)</f>
+        <v>75</v>
       </c>
       <c r="G16" s="38">
         <f>SUM(E16-F16)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H16" s="67"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="135"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="133"/>
       <c r="K16" s="68">
         <v>9</v>
       </c>
       <c r="L16" s="43">
         <f>F16/E16</f>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="M16" s="44"/>
       <c r="N16" s="45"/>
@@ -5512,12 +5574,14 @@
       <c r="C17" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="49"/>
+      <c r="D17" s="49" t="s">
+        <v>109</v>
+      </c>
       <c r="E17" s="50">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F17" s="51">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G17" s="52">
         <f>E17-F17</f>
@@ -5526,11 +5590,15 @@
       <c r="H17" s="53">
         <v>2</v>
       </c>
-      <c r="I17" s="133"/>
-      <c r="J17" s="133"/>
+      <c r="I17" s="131">
+        <v>45544</v>
+      </c>
+      <c r="J17" s="131">
+        <v>45546</v>
+      </c>
       <c r="K17" s="54">
         <f>J17-I17+1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17" s="55">
         <f>F17/E17</f>
@@ -5546,9 +5614,9 @@
       <c r="T17" s="59"/>
       <c r="U17" s="59"/>
       <c r="V17" s="59"/>
-      <c r="W17" s="130"/>
-      <c r="X17" s="130"/>
-      <c r="Y17" s="58"/>
+      <c r="W17" s="129"/>
+      <c r="X17" s="129"/>
+      <c r="Y17" s="129"/>
       <c r="Z17" s="58"/>
       <c r="AA17" s="60"/>
       <c r="AB17" s="61"/>
@@ -5599,12 +5667,14 @@
     </row>
     <row r="18" spans="1:73" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="49"/>
+        <v>100</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>110</v>
+      </c>
       <c r="E18" s="50">
         <v>10</v>
       </c>
@@ -5612,17 +5682,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="52">
-        <f t="shared" ref="G18:G21" si="3">E18-F18</f>
+        <f t="shared" ref="G18:G22" si="3">E18-F18</f>
         <v>0</v>
       </c>
       <c r="H18" s="53">
         <v>2</v>
       </c>
-      <c r="I18" s="133"/>
-      <c r="J18" s="132"/>
+      <c r="I18" s="131">
+        <v>45544</v>
+      </c>
+      <c r="J18" s="131">
+        <v>45545</v>
+      </c>
       <c r="K18" s="54">
-        <f t="shared" ref="K18:K21" si="4">J18-I18+1</f>
-        <v>1</v>
+        <f t="shared" ref="K18:K22" si="4">J18-I18+1</f>
+        <v>2</v>
       </c>
       <c r="L18" s="55">
         <f t="shared" si="0"/>
@@ -5638,10 +5712,9 @@
       <c r="T18" s="59"/>
       <c r="U18" s="59"/>
       <c r="V18" s="59"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="130"/>
-      <c r="Z18" s="129"/>
+      <c r="W18" s="129"/>
+      <c r="X18" s="129"/>
+      <c r="Z18" s="58"/>
       <c r="AA18" s="60"/>
       <c r="AB18" s="61"/>
       <c r="AC18" s="58"/>
@@ -5691,14 +5764,20 @@
     </row>
     <row r="19" spans="1:73" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="128"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="51"/>
+        <v>95</v>
+      </c>
+      <c r="D19" s="128" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="50">
+        <v>15</v>
+      </c>
+      <c r="F19" s="51">
+        <v>15</v>
+      </c>
       <c r="G19" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5706,14 +5785,18 @@
       <c r="H19" s="53">
         <v>2</v>
       </c>
-      <c r="I19" s="133"/>
-      <c r="J19" s="132"/>
+      <c r="I19" s="131">
+        <v>45547</v>
+      </c>
+      <c r="J19" s="131">
+        <v>45551</v>
+      </c>
       <c r="K19" s="54">
         <v>2</v>
       </c>
-      <c r="L19" s="55" t="e">
+      <c r="L19" s="55">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="M19" s="61"/>
       <c r="N19" s="58"/>
@@ -5727,9 +5810,9 @@
       <c r="V19" s="59"/>
       <c r="W19" s="58"/>
       <c r="Y19" s="58"/>
-      <c r="Z19" s="130"/>
-      <c r="AA19" s="130"/>
-      <c r="AB19" s="61"/>
+      <c r="Z19" s="129"/>
+      <c r="AA19" s="129"/>
+      <c r="AB19" s="69"/>
       <c r="AC19" s="58"/>
       <c r="AD19" s="58"/>
       <c r="AE19" s="58"/>
@@ -5780,14 +5863,16 @@
         <v>36</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="49"/>
+        <v>101</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>109</v>
+      </c>
       <c r="E20" s="50">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F20" s="51">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G20" s="52">
         <f>E20-F20</f>
@@ -5796,11 +5881,15 @@
       <c r="H20" s="53">
         <v>2</v>
       </c>
-      <c r="I20" s="133"/>
-      <c r="J20" s="132"/>
+      <c r="I20" s="131">
+        <v>45551</v>
+      </c>
+      <c r="J20" s="131">
+        <v>45554</v>
+      </c>
       <c r="K20" s="54">
         <f>J20-I20+1</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L20" s="55">
         <f>F20/E20</f>
@@ -5821,10 +5910,10 @@
       <c r="Y20" s="58"/>
       <c r="Z20" s="58"/>
       <c r="AA20" s="60"/>
-      <c r="AB20" s="130"/>
-      <c r="AC20" s="130"/>
-      <c r="AD20" s="131"/>
-      <c r="AE20" s="58"/>
+      <c r="AB20" s="69"/>
+      <c r="AC20" s="69"/>
+      <c r="AD20" s="69"/>
+      <c r="AE20" s="69"/>
       <c r="AF20" s="58"/>
       <c r="AG20" s="62"/>
       <c r="AH20" s="62"/>
@@ -5869,30 +5958,40 @@
     </row>
     <row r="21" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
+        <v>89</v>
+      </c>
+      <c r="C21" s="150" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="128" t="s">
+        <v>109</v>
+      </c>
       <c r="E21" s="50">
-        <v>5</v>
-      </c>
-      <c r="F21" s="51"/>
+        <v>10</v>
+      </c>
+      <c r="F21" s="51">
+        <v>10</v>
+      </c>
       <c r="G21" s="52">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>E21-F21</f>
+        <v>0</v>
       </c>
       <c r="H21" s="53">
         <v>2</v>
       </c>
-      <c r="I21" s="133"/>
-      <c r="J21" s="133"/>
+      <c r="I21" s="131">
+        <v>45554</v>
+      </c>
+      <c r="J21" s="131">
+        <v>45555</v>
+      </c>
       <c r="K21" s="54">
-        <f t="shared" si="4"/>
+        <f>J21-I21+1</f>
+        <v>2</v>
+      </c>
+      <c r="L21" s="55">
+        <f>F21/E21</f>
         <v>1</v>
-      </c>
-      <c r="L21" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="M21" s="61"/>
       <c r="N21" s="58"/>
@@ -5908,11 +6007,11 @@
       <c r="X21" s="58"/>
       <c r="Y21" s="58"/>
       <c r="Z21" s="58"/>
-      <c r="AB21" s="61"/>
-      <c r="AC21" s="58"/>
+      <c r="AA21" s="60"/>
+      <c r="AB21" s="58"/>
       <c r="AD21" s="58"/>
-      <c r="AE21" s="131"/>
-      <c r="AF21" s="131"/>
+      <c r="AE21" s="69"/>
+      <c r="AF21" s="69"/>
       <c r="AG21" s="62"/>
       <c r="AH21" s="62"/>
       <c r="AI21" s="62"/>
@@ -5954,214 +6053,225 @@
       <c r="BS21" s="58"/>
       <c r="BT21" s="60"/>
     </row>
-    <row r="22" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="47">
-        <v>3</v>
-      </c>
-      <c r="C22" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="66"/>
-      <c r="E22" s="36">
-        <f>SUM(E23:E27)</f>
-        <v>55</v>
-      </c>
-      <c r="F22" s="37">
-        <f>SUM(F23:F27)</f>
-        <v>55</v>
-      </c>
-      <c r="G22" s="38">
-        <f>SUM(E22-F22)</f>
+    <row r="22" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="50">
+        <v>5</v>
+      </c>
+      <c r="F22" s="51">
+        <v>5</v>
+      </c>
+      <c r="G22" s="52">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H22" s="67"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="68">
-        <v>17</v>
-      </c>
-      <c r="L22" s="43">
+      <c r="H22" s="53">
+        <v>2</v>
+      </c>
+      <c r="I22" s="131">
+        <v>45555</v>
+      </c>
+      <c r="J22" s="131">
+        <v>45555</v>
+      </c>
+      <c r="K22" s="54">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="55">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M22" s="44"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="46"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="45"/>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="45"/>
-      <c r="AG22" s="45"/>
-      <c r="AH22" s="45"/>
-      <c r="AI22" s="45"/>
-      <c r="AJ22" s="45"/>
-      <c r="AK22" s="45"/>
-      <c r="AL22" s="45"/>
-      <c r="AM22" s="45"/>
-      <c r="AN22" s="45"/>
-      <c r="AO22" s="45"/>
-      <c r="AP22" s="46"/>
-      <c r="AQ22" s="44"/>
-      <c r="AR22" s="45"/>
-      <c r="AS22" s="45"/>
-      <c r="AT22" s="45"/>
-      <c r="AU22" s="45"/>
-      <c r="AV22" s="45"/>
-      <c r="AW22" s="45"/>
-      <c r="AX22" s="45"/>
-      <c r="AY22" s="45"/>
-      <c r="AZ22" s="45"/>
-      <c r="BA22" s="45"/>
-      <c r="BB22" s="45"/>
-      <c r="BC22" s="45"/>
-      <c r="BD22" s="45"/>
-      <c r="BE22" s="46"/>
-      <c r="BF22" s="44"/>
-      <c r="BG22" s="45"/>
-      <c r="BH22" s="45"/>
-      <c r="BI22" s="45"/>
-      <c r="BJ22" s="45"/>
-      <c r="BK22" s="45"/>
-      <c r="BL22" s="45"/>
-      <c r="BM22" s="45"/>
-      <c r="BN22" s="45"/>
-      <c r="BO22" s="45"/>
-      <c r="BP22" s="45"/>
-      <c r="BQ22" s="45"/>
-      <c r="BR22" s="45"/>
-      <c r="BS22" s="45"/>
-      <c r="BT22" s="46"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="58"/>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="58"/>
+      <c r="AD22" s="58"/>
+      <c r="AE22" s="58"/>
+      <c r="AF22" s="69"/>
+      <c r="AG22" s="62"/>
+      <c r="AH22" s="62"/>
+      <c r="AI22" s="62"/>
+      <c r="AJ22" s="62"/>
+      <c r="AK22" s="62"/>
+      <c r="AL22" s="58"/>
+      <c r="AM22" s="58"/>
+      <c r="AN22" s="58"/>
+      <c r="AO22" s="58"/>
+      <c r="AP22" s="60"/>
+      <c r="AQ22" s="61"/>
+      <c r="AR22" s="58"/>
+      <c r="AS22" s="58"/>
+      <c r="AT22" s="58"/>
+      <c r="AU22" s="58"/>
+      <c r="AV22" s="63"/>
+      <c r="AW22" s="63"/>
+      <c r="AX22" s="63"/>
+      <c r="AY22" s="63"/>
+      <c r="AZ22" s="63"/>
+      <c r="BA22" s="58"/>
+      <c r="BB22" s="58"/>
+      <c r="BC22" s="58"/>
+      <c r="BD22" s="58"/>
+      <c r="BE22" s="60"/>
+      <c r="BF22" s="61"/>
+      <c r="BG22" s="58"/>
+      <c r="BH22" s="58"/>
+      <c r="BI22" s="58"/>
+      <c r="BJ22" s="58"/>
+      <c r="BK22" s="64"/>
+      <c r="BL22" s="64"/>
+      <c r="BM22" s="64"/>
+      <c r="BN22" s="64"/>
+      <c r="BO22" s="64"/>
+      <c r="BP22" s="58"/>
+      <c r="BQ22" s="58"/>
+      <c r="BR22" s="58"/>
+      <c r="BS22" s="58"/>
+      <c r="BT22" s="60"/>
     </row>
     <row r="23" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="50">
-        <v>5</v>
-      </c>
-      <c r="F23" s="51">
-        <v>5</v>
-      </c>
-      <c r="G23" s="52">
-        <f t="shared" ref="G23:G27" si="5">E23-F23</f>
+      <c r="B23" s="47">
+        <v>3</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="66"/>
+      <c r="E23" s="36">
+        <f>SUM(E24:E28)</f>
+        <v>55</v>
+      </c>
+      <c r="F23" s="37">
+        <f>SUM(F24:F28)</f>
+        <v>55</v>
+      </c>
+      <c r="G23" s="38">
+        <f>SUM(E23-F23)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="53">
-        <v>3</v>
-      </c>
-      <c r="I23" s="133"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="54">
-        <f t="shared" ref="K23:K27" si="6">J23-I23+1</f>
-        <v>1</v>
-      </c>
-      <c r="L23" s="55">
+      <c r="H23" s="67"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="68">
+        <v>17</v>
+      </c>
+      <c r="L23" s="43">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M23" s="61"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="58"/>
-      <c r="Y23" s="58"/>
-      <c r="Z23" s="58"/>
-      <c r="AA23" s="60"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="58"/>
-      <c r="AD23" s="58"/>
-      <c r="AE23" s="58"/>
-      <c r="AF23" s="58"/>
-      <c r="AG23" s="69"/>
-      <c r="AH23" s="69"/>
-      <c r="AI23" s="69"/>
-      <c r="AJ23" s="62"/>
-      <c r="AK23" s="62"/>
-      <c r="AL23" s="58"/>
-      <c r="AM23" s="58"/>
-      <c r="AN23" s="58"/>
-      <c r="AO23" s="58"/>
-      <c r="AP23" s="60"/>
-      <c r="AQ23" s="61"/>
-      <c r="AR23" s="58"/>
-      <c r="AS23" s="58"/>
-      <c r="AT23" s="58"/>
-      <c r="AU23" s="58"/>
-      <c r="AV23" s="63"/>
-      <c r="AW23" s="63"/>
-      <c r="AX23" s="63"/>
-      <c r="AY23" s="63"/>
-      <c r="AZ23" s="63"/>
-      <c r="BA23" s="58"/>
-      <c r="BB23" s="58"/>
-      <c r="BC23" s="58"/>
-      <c r="BD23" s="58"/>
-      <c r="BE23" s="60"/>
-      <c r="BF23" s="61"/>
-      <c r="BG23" s="58"/>
-      <c r="BH23" s="58"/>
-      <c r="BI23" s="58"/>
-      <c r="BJ23" s="58"/>
-      <c r="BK23" s="64"/>
-      <c r="BL23" s="64"/>
-      <c r="BM23" s="64"/>
-      <c r="BN23" s="64"/>
-      <c r="BO23" s="64"/>
-      <c r="BP23" s="58"/>
-      <c r="BQ23" s="58"/>
-      <c r="BR23" s="58"/>
-      <c r="BS23" s="58"/>
-      <c r="BT23" s="60"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="45"/>
+      <c r="AD23" s="45"/>
+      <c r="AE23" s="45"/>
+      <c r="AF23" s="45"/>
+      <c r="AG23" s="45"/>
+      <c r="AH23" s="45"/>
+      <c r="AI23" s="45"/>
+      <c r="AJ23" s="45"/>
+      <c r="AK23" s="45"/>
+      <c r="AL23" s="45"/>
+      <c r="AM23" s="45"/>
+      <c r="AN23" s="45"/>
+      <c r="AO23" s="45"/>
+      <c r="AP23" s="46"/>
+      <c r="AQ23" s="44"/>
+      <c r="AR23" s="45"/>
+      <c r="AS23" s="45"/>
+      <c r="AT23" s="45"/>
+      <c r="AU23" s="45"/>
+      <c r="AV23" s="45"/>
+      <c r="AW23" s="45"/>
+      <c r="AX23" s="45"/>
+      <c r="AY23" s="45"/>
+      <c r="AZ23" s="45"/>
+      <c r="BA23" s="45"/>
+      <c r="BB23" s="45"/>
+      <c r="BC23" s="45"/>
+      <c r="BD23" s="45"/>
+      <c r="BE23" s="46"/>
+      <c r="BF23" s="44"/>
+      <c r="BG23" s="45"/>
+      <c r="BH23" s="45"/>
+      <c r="BI23" s="45"/>
+      <c r="BJ23" s="45"/>
+      <c r="BK23" s="45"/>
+      <c r="BL23" s="45"/>
+      <c r="BM23" s="45"/>
+      <c r="BN23" s="45"/>
+      <c r="BO23" s="45"/>
+      <c r="BP23" s="45"/>
+      <c r="BQ23" s="45"/>
+      <c r="BR23" s="45"/>
+      <c r="BS23" s="45"/>
+      <c r="BT23" s="46"/>
     </row>
     <row r="24" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="47" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="49"/>
+        <v>99</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>109</v>
+      </c>
       <c r="E24" s="50">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F24" s="51">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G24" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G24:G28" si="5">E24-F24</f>
         <v>0</v>
       </c>
       <c r="H24" s="53">
         <v>3</v>
       </c>
-      <c r="I24" s="132"/>
-      <c r="J24" s="132"/>
+      <c r="I24" s="131">
+        <v>45558</v>
+      </c>
+      <c r="J24" s="131">
+        <v>45558</v>
+      </c>
       <c r="K24" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="K24:K28" si="6">J24-I24+1</f>
         <v>1</v>
       </c>
       <c r="L24" s="55">
@@ -6183,14 +6293,15 @@
       <c r="Y24" s="58"/>
       <c r="Z24" s="58"/>
       <c r="AA24" s="60"/>
-      <c r="AB24" s="61"/>
+      <c r="AB24" s="58"/>
       <c r="AC24" s="58"/>
       <c r="AD24" s="58"/>
+      <c r="AE24" s="58"/>
       <c r="AF24" s="58"/>
-      <c r="AG24" s="62"/>
+      <c r="AG24" s="69"/>
       <c r="AH24" s="62"/>
-      <c r="AI24" s="69"/>
-      <c r="AJ24" s="69"/>
+      <c r="AI24" s="62"/>
+      <c r="AJ24" s="62"/>
       <c r="AK24" s="62"/>
       <c r="AL24" s="58"/>
       <c r="AM24" s="58"/>
@@ -6230,17 +6341,19 @@
     </row>
     <row r="25" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="47" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="49"/>
+        <v>100</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>110</v>
+      </c>
       <c r="E25" s="50">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F25" s="51">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G25" s="52">
         <f t="shared" si="5"/>
@@ -6249,11 +6362,15 @@
       <c r="H25" s="53">
         <v>3</v>
       </c>
-      <c r="I25" s="132"/>
-      <c r="J25" s="132"/>
+      <c r="I25" s="131">
+        <v>45558</v>
+      </c>
+      <c r="J25" s="131">
+        <v>45560</v>
+      </c>
       <c r="K25" s="54">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25" s="55">
         <f t="shared" si="0"/>
@@ -6276,13 +6393,13 @@
       <c r="AA25" s="60"/>
       <c r="AB25" s="61"/>
       <c r="AC25" s="58"/>
-      <c r="AE25" s="58"/>
+      <c r="AD25" s="58"/>
       <c r="AF25" s="58"/>
-      <c r="AG25" s="62"/>
-      <c r="AH25" s="62"/>
-      <c r="AI25" s="62"/>
-      <c r="AJ25" s="69"/>
-      <c r="AK25" s="69"/>
+      <c r="AG25" s="69"/>
+      <c r="AH25" s="69"/>
+      <c r="AI25" s="69"/>
+      <c r="AJ25" s="62"/>
+      <c r="AK25" s="62"/>
       <c r="AL25" s="58"/>
       <c r="AM25" s="58"/>
       <c r="AN25" s="58"/>
@@ -6321,17 +6438,19 @@
     </row>
     <row r="26" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="49"/>
+        <v>101</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>109</v>
+      </c>
       <c r="E26" s="50">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F26" s="51">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G26" s="52">
         <f t="shared" si="5"/>
@@ -6340,11 +6459,15 @@
       <c r="H26" s="53">
         <v>3</v>
       </c>
-      <c r="I26" s="132"/>
-      <c r="J26" s="132"/>
+      <c r="I26" s="131">
+        <v>45559</v>
+      </c>
+      <c r="J26" s="131">
+        <v>45562</v>
+      </c>
       <c r="K26" s="54">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L26" s="55">
         <f t="shared" si="0"/>
@@ -6367,16 +6490,15 @@
       <c r="AA26" s="60"/>
       <c r="AB26" s="61"/>
       <c r="AC26" s="58"/>
-      <c r="AD26" s="58"/>
       <c r="AE26" s="58"/>
       <c r="AF26" s="58"/>
       <c r="AG26" s="62"/>
-      <c r="AH26" s="62"/>
-      <c r="AI26" s="62"/>
-      <c r="AJ26" s="62"/>
-      <c r="AK26" s="62"/>
-      <c r="AL26" s="69"/>
-      <c r="AM26" s="69"/>
+      <c r="AH26" s="69"/>
+      <c r="AI26" s="69"/>
+      <c r="AJ26" s="69"/>
+      <c r="AK26" s="69"/>
+      <c r="AL26" s="58"/>
+      <c r="AM26" s="58"/>
       <c r="AN26" s="58"/>
       <c r="AO26" s="58"/>
       <c r="AP26" s="60"/>
@@ -6413,17 +6535,19 @@
     </row>
     <row r="27" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="49"/>
+        <v>107</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>108</v>
+      </c>
       <c r="E27" s="50">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F27" s="51">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G27" s="52">
         <f t="shared" si="5"/>
@@ -6432,11 +6556,15 @@
       <c r="H27" s="53">
         <v>3</v>
       </c>
-      <c r="I27" s="132"/>
-      <c r="J27" s="132"/>
+      <c r="I27" s="131">
+        <v>45558</v>
+      </c>
+      <c r="J27" s="131">
+        <v>45560</v>
+      </c>
       <c r="K27" s="54">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27" s="55">
         <f t="shared" si="0"/>
@@ -6462,16 +6590,16 @@
       <c r="AD27" s="58"/>
       <c r="AE27" s="58"/>
       <c r="AF27" s="58"/>
-      <c r="AG27" s="62"/>
-      <c r="AH27" s="62"/>
-      <c r="AI27" s="62"/>
+      <c r="AG27" s="69"/>
+      <c r="AH27" s="69"/>
+      <c r="AI27" s="69"/>
       <c r="AJ27" s="62"/>
       <c r="AK27" s="62"/>
       <c r="AL27" s="58"/>
       <c r="AM27" s="58"/>
-      <c r="AN27" s="69"/>
-      <c r="AO27" s="69"/>
-      <c r="AP27" s="69"/>
+      <c r="AN27" s="58"/>
+      <c r="AO27" s="58"/>
+      <c r="AP27" s="60"/>
       <c r="AQ27" s="61"/>
       <c r="AR27" s="58"/>
       <c r="AS27" s="58"/>
@@ -6504,294 +6632,307 @@
       <c r="BT27" s="60"/>
     </row>
     <row r="28" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="47">
-        <v>4</v>
-      </c>
-      <c r="C28" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="66"/>
-      <c r="E28" s="36">
-        <f>SUM(E29:E32)</f>
-        <v>14</v>
-      </c>
-      <c r="F28" s="37">
-        <f>SUM(F29:F32)</f>
-        <v>14</v>
-      </c>
-      <c r="G28" s="38">
-        <f>SUM(E28-F28)</f>
+      <c r="B28" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="50">
+        <v>5</v>
+      </c>
+      <c r="F28" s="51">
+        <v>5</v>
+      </c>
+      <c r="G28" s="52">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H28" s="67"/>
-      <c r="I28" s="134"/>
-      <c r="J28" s="135"/>
-      <c r="K28" s="68">
-        <v>13</v>
-      </c>
-      <c r="L28" s="43">
+      <c r="H28" s="53">
+        <v>3</v>
+      </c>
+      <c r="I28" s="131">
+        <v>45561</v>
+      </c>
+      <c r="J28" s="131">
+        <v>45562</v>
+      </c>
+      <c r="K28" s="54">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L28" s="55">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M28" s="44"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="46"/>
-      <c r="AB28" s="44"/>
-      <c r="AC28" s="45"/>
-      <c r="AD28" s="45"/>
-      <c r="AE28" s="45"/>
-      <c r="AF28" s="45"/>
-      <c r="AG28" s="45"/>
-      <c r="AH28" s="45"/>
-      <c r="AI28" s="45"/>
-      <c r="AJ28" s="45"/>
-      <c r="AK28" s="45"/>
-      <c r="AL28" s="45"/>
-      <c r="AM28" s="45"/>
-      <c r="AN28" s="45"/>
-      <c r="AO28" s="45"/>
-      <c r="AP28" s="46"/>
-      <c r="AQ28" s="44"/>
-      <c r="AR28" s="45"/>
-      <c r="AS28" s="45"/>
-      <c r="AT28" s="45"/>
-      <c r="AU28" s="45"/>
-      <c r="AV28" s="45"/>
-      <c r="AW28" s="45"/>
-      <c r="AX28" s="45"/>
-      <c r="AY28" s="45"/>
-      <c r="AZ28" s="45"/>
-      <c r="BA28" s="45"/>
-      <c r="BB28" s="45"/>
-      <c r="BC28" s="45"/>
-      <c r="BD28" s="45"/>
-      <c r="BE28" s="46"/>
-      <c r="BF28" s="44"/>
-      <c r="BG28" s="45"/>
-      <c r="BH28" s="45"/>
-      <c r="BI28" s="45"/>
-      <c r="BJ28" s="45"/>
-      <c r="BK28" s="45"/>
-      <c r="BL28" s="45"/>
-      <c r="BM28" s="45"/>
-      <c r="BN28" s="45"/>
-      <c r="BO28" s="45"/>
-      <c r="BP28" s="45"/>
-      <c r="BQ28" s="45"/>
-      <c r="BR28" s="45"/>
-      <c r="BS28" s="45"/>
-      <c r="BT28" s="46"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="60"/>
+      <c r="AB28" s="61"/>
+      <c r="AC28" s="58"/>
+      <c r="AD28" s="58"/>
+      <c r="AE28" s="58"/>
+      <c r="AF28" s="58"/>
+      <c r="AG28" s="62"/>
+      <c r="AH28" s="62"/>
+      <c r="AI28" s="62"/>
+      <c r="AJ28" s="69"/>
+      <c r="AK28" s="69"/>
+      <c r="AL28" s="58"/>
+      <c r="AM28" s="58"/>
+      <c r="AN28" s="58"/>
+      <c r="AO28" s="58"/>
+      <c r="AP28" s="58"/>
+      <c r="AQ28" s="61"/>
+      <c r="AR28" s="58"/>
+      <c r="AS28" s="58"/>
+      <c r="AT28" s="58"/>
+      <c r="AU28" s="58"/>
+      <c r="AV28" s="63"/>
+      <c r="AW28" s="63"/>
+      <c r="AX28" s="63"/>
+      <c r="AY28" s="63"/>
+      <c r="AZ28" s="63"/>
+      <c r="BA28" s="58"/>
+      <c r="BB28" s="58"/>
+      <c r="BC28" s="58"/>
+      <c r="BD28" s="58"/>
+      <c r="BE28" s="60"/>
+      <c r="BF28" s="61"/>
+      <c r="BG28" s="58"/>
+      <c r="BH28" s="58"/>
+      <c r="BI28" s="58"/>
+      <c r="BJ28" s="58"/>
+      <c r="BK28" s="64"/>
+      <c r="BL28" s="64"/>
+      <c r="BM28" s="64"/>
+      <c r="BN28" s="64"/>
+      <c r="BO28" s="64"/>
+      <c r="BP28" s="58"/>
+      <c r="BQ28" s="58"/>
+      <c r="BR28" s="58"/>
+      <c r="BS28" s="58"/>
+      <c r="BT28" s="60"/>
     </row>
     <row r="29" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="50">
-        <v>3</v>
-      </c>
-      <c r="F29" s="51">
-        <v>3</v>
-      </c>
-      <c r="G29" s="52">
-        <f t="shared" ref="G29:G31" si="7">E29-F29</f>
+      <c r="B29" s="47">
+        <v>4</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="66"/>
+      <c r="E29" s="36">
+        <f>SUM(E30:E33)</f>
+        <v>13</v>
+      </c>
+      <c r="F29" s="37">
+        <f>SUM(F30:F33)</f>
+        <v>13</v>
+      </c>
+      <c r="G29" s="38">
+        <f>SUM(E29-F29)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="53">
-        <v>4</v>
-      </c>
-      <c r="I29" s="133"/>
-      <c r="J29" s="137"/>
-      <c r="K29" s="54">
-        <f t="shared" ref="K29:K31" si="8">J29-I29+1</f>
-        <v>1</v>
-      </c>
-      <c r="L29" s="55">
+      <c r="H29" s="67"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="68">
+        <v>13</v>
+      </c>
+      <c r="L29" s="43">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M29" s="61"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="58"/>
-      <c r="Y29" s="58"/>
-      <c r="Z29" s="58"/>
-      <c r="AA29" s="60"/>
-      <c r="AB29" s="61"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="58"/>
-      <c r="AF29" s="58"/>
-      <c r="AG29" s="62"/>
-      <c r="AH29" s="62"/>
-      <c r="AI29" s="62"/>
-      <c r="AJ29" s="62"/>
-      <c r="AK29" s="62"/>
-      <c r="AL29" s="58"/>
-      <c r="AM29" s="58"/>
-      <c r="AN29" s="58"/>
-      <c r="AO29" s="58"/>
-      <c r="AP29" s="60"/>
-      <c r="AQ29" s="58"/>
-      <c r="AR29" s="58"/>
-      <c r="AS29" s="70"/>
-      <c r="AT29" s="70"/>
-      <c r="AU29" s="70"/>
-      <c r="AV29" s="63"/>
-      <c r="AW29" s="63"/>
-      <c r="AX29" s="83"/>
-      <c r="AY29" s="83"/>
-      <c r="AZ29" s="83"/>
-      <c r="BA29" s="58"/>
-      <c r="BB29" s="58"/>
-      <c r="BC29" s="58"/>
-      <c r="BD29" s="58"/>
-      <c r="BE29" s="60"/>
-      <c r="BF29" s="58"/>
-      <c r="BH29" s="58"/>
-      <c r="BI29" s="58"/>
-      <c r="BJ29" s="58"/>
-      <c r="BK29" s="71"/>
-      <c r="BL29" s="71"/>
-      <c r="BM29" s="71"/>
-      <c r="BN29" s="64"/>
-      <c r="BO29" s="64"/>
-      <c r="BP29" s="58"/>
-      <c r="BQ29" s="58"/>
-      <c r="BR29" s="58"/>
-      <c r="BS29" s="58"/>
-      <c r="BT29" s="60"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="45"/>
+      <c r="AA29" s="46"/>
+      <c r="AB29" s="44"/>
+      <c r="AC29" s="45"/>
+      <c r="AD29" s="45"/>
+      <c r="AE29" s="45"/>
+      <c r="AF29" s="45"/>
+      <c r="AG29" s="45"/>
+      <c r="AH29" s="45"/>
+      <c r="AI29" s="45"/>
+      <c r="AJ29" s="45"/>
+      <c r="AK29" s="45"/>
+      <c r="AL29" s="45"/>
+      <c r="AM29" s="45"/>
+      <c r="AN29" s="45"/>
+      <c r="AO29" s="45"/>
+      <c r="AP29" s="46"/>
+      <c r="AQ29" s="44"/>
+      <c r="AR29" s="45"/>
+      <c r="AS29" s="45"/>
+      <c r="AT29" s="45"/>
+      <c r="AU29" s="45"/>
+      <c r="AV29" s="45"/>
+      <c r="AW29" s="45"/>
+      <c r="AX29" s="45"/>
+      <c r="AY29" s="45"/>
+      <c r="AZ29" s="45"/>
+      <c r="BA29" s="45"/>
+      <c r="BB29" s="45"/>
+      <c r="BC29" s="45"/>
+      <c r="BD29" s="45"/>
+      <c r="BE29" s="46"/>
+      <c r="BF29" s="44"/>
+      <c r="BG29" s="45"/>
+      <c r="BH29" s="45"/>
+      <c r="BI29" s="45"/>
+      <c r="BJ29" s="45"/>
+      <c r="BK29" s="45"/>
+      <c r="BL29" s="45"/>
+      <c r="BM29" s="45"/>
+      <c r="BN29" s="45"/>
+      <c r="BO29" s="45"/>
+      <c r="BP29" s="45"/>
+      <c r="BQ29" s="45"/>
+      <c r="BR29" s="45"/>
+      <c r="BS29" s="45"/>
+      <c r="BT29" s="46"/>
     </row>
     <row r="30" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="73"/>
-      <c r="B30" s="74" t="s">
-        <v>43</v>
+      <c r="B30" s="47" t="s">
+        <v>42</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="75"/>
-      <c r="E30" s="76">
-        <v>3</v>
-      </c>
-      <c r="F30" s="76">
-        <v>3</v>
-      </c>
-      <c r="G30" s="77">
-        <f t="shared" si="7"/>
+        <v>102</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="50">
+        <v>1</v>
+      </c>
+      <c r="F30" s="51">
+        <v>1</v>
+      </c>
+      <c r="G30" s="52">
+        <f t="shared" ref="G30:G32" si="7">E30-F30</f>
         <v>0</v>
       </c>
       <c r="H30" s="53">
         <v>4</v>
       </c>
-      <c r="I30" s="133"/>
-      <c r="J30" s="136"/>
-      <c r="K30" s="78">
-        <f t="shared" si="8"/>
+      <c r="I30" s="131">
+        <v>45572</v>
+      </c>
+      <c r="J30" s="131">
+        <v>45572</v>
+      </c>
+      <c r="K30" s="54">
+        <f t="shared" ref="K30:K32" si="8">J30-I30+1</f>
         <v>1</v>
       </c>
-      <c r="L30" s="79">
+      <c r="L30" s="55">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="70"/>
-      <c r="R30" s="80"/>
-      <c r="S30" s="80"/>
-      <c r="T30" s="80"/>
-      <c r="U30" s="80"/>
-      <c r="V30" s="80"/>
-      <c r="W30" s="70"/>
-      <c r="X30" s="70"/>
-      <c r="Y30" s="70"/>
-      <c r="Z30" s="70"/>
-      <c r="AA30" s="81"/>
-      <c r="AB30" s="70"/>
-      <c r="AC30" s="70"/>
-      <c r="AD30" s="70"/>
-      <c r="AE30" s="70"/>
-      <c r="AF30" s="70"/>
-      <c r="AG30" s="82"/>
-      <c r="AH30" s="82"/>
-      <c r="AI30" s="82"/>
-      <c r="AJ30" s="82"/>
-      <c r="AK30" s="82"/>
-      <c r="AL30" s="70"/>
-      <c r="AM30" s="70"/>
-      <c r="AN30" s="70"/>
-      <c r="AO30" s="70"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="59"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="58"/>
+      <c r="Y30" s="58"/>
+      <c r="Z30" s="58"/>
+      <c r="AA30" s="60"/>
+      <c r="AB30" s="61"/>
+      <c r="AC30" s="58"/>
+      <c r="AD30" s="58"/>
+      <c r="AE30" s="58"/>
+      <c r="AF30" s="58"/>
+      <c r="AG30" s="62"/>
+      <c r="AH30" s="62"/>
+      <c r="AI30" s="62"/>
+      <c r="AJ30" s="62"/>
+      <c r="AK30" s="62"/>
+      <c r="AL30" s="58"/>
+      <c r="AM30" s="58"/>
+      <c r="AN30" s="58"/>
+      <c r="AO30" s="58"/>
       <c r="AP30" s="60"/>
-      <c r="AQ30" s="70"/>
-      <c r="AR30" s="70"/>
+      <c r="AQ30" s="71"/>
+      <c r="AR30" s="58"/>
       <c r="AS30" s="70"/>
-      <c r="AT30" s="58"/>
+      <c r="AT30" s="70"/>
       <c r="AU30" s="70"/>
-      <c r="AV30" s="83"/>
-      <c r="AW30" s="83"/>
+      <c r="AV30" s="63"/>
+      <c r="AW30" s="63"/>
       <c r="AX30" s="83"/>
       <c r="AY30" s="83"/>
       <c r="AZ30" s="83"/>
-      <c r="BA30" s="70"/>
-      <c r="BB30" s="70"/>
-      <c r="BC30" s="70"/>
-      <c r="BD30" s="70"/>
-      <c r="BE30" s="81"/>
-      <c r="BF30" s="72"/>
-      <c r="BG30" s="70"/>
-      <c r="BH30" s="72"/>
-      <c r="BI30" s="72"/>
-      <c r="BK30" s="84"/>
-      <c r="BL30" s="84"/>
-      <c r="BM30" s="71"/>
-      <c r="BN30" s="71"/>
-      <c r="BO30" s="71"/>
-      <c r="BP30" s="70"/>
-      <c r="BQ30" s="70"/>
-      <c r="BR30" s="70"/>
-      <c r="BS30" s="70"/>
-      <c r="BT30" s="81"/>
-      <c r="BU30" s="85"/>
+      <c r="BA30" s="58"/>
+      <c r="BB30" s="58"/>
+      <c r="BC30" s="58"/>
+      <c r="BD30" s="58"/>
+      <c r="BE30" s="60"/>
+      <c r="BF30" s="58"/>
+      <c r="BH30" s="58"/>
+      <c r="BI30" s="58"/>
+      <c r="BJ30" s="58"/>
+      <c r="BK30" s="64"/>
+      <c r="BL30" s="64"/>
+      <c r="BM30" s="64"/>
+      <c r="BN30" s="64"/>
+      <c r="BO30" s="64"/>
+      <c r="BP30" s="58"/>
+      <c r="BQ30" s="58"/>
+      <c r="BR30" s="58"/>
+      <c r="BS30" s="58"/>
+      <c r="BT30" s="60"/>
     </row>
     <row r="31" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="73"/>
       <c r="B31" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="75"/>
+        <v>43</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="75" t="s">
+        <v>110</v>
+      </c>
       <c r="E31" s="76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F31" s="76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G31" s="77">
         <f t="shared" si="7"/>
@@ -6800,8 +6941,12 @@
       <c r="H31" s="53">
         <v>4</v>
       </c>
-      <c r="I31" s="133"/>
-      <c r="J31" s="136"/>
+      <c r="I31" s="131">
+        <v>45573</v>
+      </c>
+      <c r="J31" s="131">
+        <v>45573</v>
+      </c>
       <c r="K31" s="78">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -6841,9 +6986,9 @@
       <c r="AO31" s="70"/>
       <c r="AP31" s="60"/>
       <c r="AQ31" s="70"/>
-      <c r="AR31" s="70"/>
+      <c r="AR31" s="71"/>
       <c r="AS31" s="70"/>
-      <c r="AT31" s="70"/>
+      <c r="AT31" s="58"/>
       <c r="AU31" s="70"/>
       <c r="AV31" s="83"/>
       <c r="AW31" s="83"/>
@@ -6857,126 +7002,134 @@
       <c r="BE31" s="81"/>
       <c r="BF31" s="72"/>
       <c r="BG31" s="70"/>
-      <c r="BH31" s="70"/>
-      <c r="BI31" s="70"/>
-      <c r="BJ31" s="70"/>
-      <c r="BK31" s="84"/>
-      <c r="BL31" s="84"/>
-      <c r="BM31" s="84"/>
-      <c r="BN31" s="84"/>
-      <c r="BO31" s="84"/>
-      <c r="BP31" s="71"/>
-      <c r="BQ31" s="71"/>
+      <c r="BH31" s="72"/>
+      <c r="BI31" s="72"/>
+      <c r="BK31" s="64"/>
+      <c r="BL31" s="64"/>
+      <c r="BM31" s="64"/>
+      <c r="BN31" s="64"/>
+      <c r="BO31" s="64"/>
+      <c r="BP31" s="70"/>
+      <c r="BQ31" s="70"/>
       <c r="BR31" s="70"/>
       <c r="BS31" s="70"/>
       <c r="BT31" s="81"/>
       <c r="BU31" s="85"/>
     </row>
-    <row r="32" spans="1:73" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="87" t="s">
+    <row r="32" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="73"/>
+      <c r="B32" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="D32" s="88"/>
-      <c r="E32" s="89">
-        <v>3</v>
-      </c>
-      <c r="F32" s="90">
-        <v>3</v>
-      </c>
-      <c r="G32" s="91">
-        <f>E32-F32</f>
+      <c r="E32" s="76">
+        <v>4</v>
+      </c>
+      <c r="F32" s="76">
+        <v>4</v>
+      </c>
+      <c r="G32" s="77">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H32" s="53">
         <v>4</v>
       </c>
-      <c r="I32" s="133"/>
-      <c r="J32" s="133"/>
-      <c r="K32" s="92">
-        <f>J32-I32+1</f>
+      <c r="I32" s="131">
+        <v>45574</v>
+      </c>
+      <c r="J32" s="131">
+        <v>45574</v>
+      </c>
+      <c r="K32" s="78">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="L32" s="93">
-        <f>F32/E32</f>
+      <c r="L32" s="79">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M32" s="94"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="96"/>
-      <c r="S32" s="96"/>
-      <c r="T32" s="96"/>
-      <c r="U32" s="96"/>
-      <c r="V32" s="96"/>
-      <c r="W32" s="95"/>
-      <c r="X32" s="95"/>
-      <c r="Y32" s="95"/>
-      <c r="Z32" s="95"/>
-      <c r="AA32" s="97"/>
-      <c r="AB32" s="94"/>
-      <c r="AC32" s="95"/>
-      <c r="AD32" s="95"/>
-      <c r="AE32" s="95"/>
-      <c r="AF32" s="95"/>
-      <c r="AG32" s="98"/>
-      <c r="AH32" s="98"/>
-      <c r="AI32" s="98"/>
-      <c r="AJ32" s="98"/>
-      <c r="AK32" s="98"/>
-      <c r="AL32" s="95"/>
-      <c r="AM32" s="95"/>
-      <c r="AN32" s="95"/>
-      <c r="AO32" s="95"/>
-      <c r="AP32" s="97"/>
-      <c r="AQ32" s="95"/>
-      <c r="AR32" s="95"/>
-      <c r="AS32" s="95"/>
-      <c r="AT32" s="95"/>
-      <c r="AU32" s="95"/>
-      <c r="AV32" s="99"/>
-      <c r="AW32" s="99"/>
-      <c r="AX32" s="99"/>
-      <c r="AY32" s="99"/>
-      <c r="AZ32" s="99"/>
-      <c r="BA32" s="95"/>
-      <c r="BB32" s="95"/>
-      <c r="BC32" s="95"/>
-      <c r="BD32" s="95"/>
-      <c r="BE32" s="97"/>
-      <c r="BF32" s="94"/>
-      <c r="BG32" s="95"/>
-      <c r="BH32" s="95"/>
-      <c r="BI32" s="95"/>
-      <c r="BJ32" s="95"/>
-      <c r="BK32" s="100"/>
-      <c r="BL32" s="100"/>
-      <c r="BM32" s="100"/>
-      <c r="BN32" s="100"/>
-      <c r="BO32" s="100"/>
-      <c r="BP32" s="95"/>
-      <c r="BQ32" s="95"/>
-      <c r="BR32" s="71"/>
-      <c r="BS32" s="71"/>
-      <c r="BT32" s="71"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="70"/>
+      <c r="Q32" s="70"/>
+      <c r="R32" s="80"/>
+      <c r="S32" s="80"/>
+      <c r="T32" s="80"/>
+      <c r="U32" s="80"/>
+      <c r="V32" s="80"/>
+      <c r="W32" s="70"/>
+      <c r="X32" s="70"/>
+      <c r="Y32" s="70"/>
+      <c r="Z32" s="70"/>
+      <c r="AA32" s="81"/>
+      <c r="AB32" s="70"/>
+      <c r="AC32" s="70"/>
+      <c r="AD32" s="70"/>
+      <c r="AE32" s="70"/>
+      <c r="AF32" s="70"/>
+      <c r="AG32" s="82"/>
+      <c r="AH32" s="82"/>
+      <c r="AI32" s="82"/>
+      <c r="AJ32" s="82"/>
+      <c r="AK32" s="82"/>
+      <c r="AL32" s="70"/>
+      <c r="AM32" s="70"/>
+      <c r="AN32" s="70"/>
+      <c r="AO32" s="70"/>
+      <c r="AP32" s="60"/>
+      <c r="AQ32" s="70"/>
+      <c r="AR32" s="70"/>
+      <c r="AS32" s="71"/>
+      <c r="AT32" s="70"/>
+      <c r="AU32" s="70"/>
+      <c r="AV32" s="83"/>
+      <c r="AW32" s="83"/>
+      <c r="AX32" s="83"/>
+      <c r="AY32" s="83"/>
+      <c r="AZ32" s="83"/>
+      <c r="BA32" s="70"/>
+      <c r="BB32" s="70"/>
+      <c r="BC32" s="70"/>
+      <c r="BD32" s="70"/>
+      <c r="BE32" s="81"/>
+      <c r="BF32" s="72"/>
+      <c r="BG32" s="70"/>
+      <c r="BH32" s="70"/>
+      <c r="BI32" s="70"/>
+      <c r="BJ32" s="70"/>
+      <c r="BK32" s="84"/>
+      <c r="BL32" s="84"/>
+      <c r="BM32" s="84"/>
+      <c r="BN32" s="84"/>
+      <c r="BO32" s="84"/>
+      <c r="BP32" s="58"/>
+      <c r="BR32" s="58"/>
+      <c r="BS32" s="70"/>
+      <c r="BT32" s="81"/>
+      <c r="BU32" s="85"/>
     </row>
     <row r="33" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="86" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="88"/>
+        <v>115</v>
+      </c>
+      <c r="D33" s="88" t="s">
+        <v>109</v>
+      </c>
       <c r="E33" s="89">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F33" s="90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G33" s="91">
         <f>E33-F33</f>
@@ -6985,8 +7138,12 @@
       <c r="H33" s="53">
         <v>4</v>
       </c>
-      <c r="I33" s="133"/>
-      <c r="J33" s="133"/>
+      <c r="I33" s="131">
+        <v>45575</v>
+      </c>
+      <c r="J33" s="131">
+        <v>45575</v>
+      </c>
       <c r="K33" s="92">
         <f>J33-I33+1</f>
         <v>1</v>
@@ -7027,7 +7184,7 @@
       <c r="AP33" s="97"/>
       <c r="AQ33" s="95"/>
       <c r="AR33" s="95"/>
-      <c r="AS33" s="95"/>
+      <c r="AS33" s="71"/>
       <c r="AT33" s="95"/>
       <c r="AU33" s="95"/>
       <c r="AV33" s="99"/>
@@ -7052,23 +7209,107 @@
       <c r="BO33" s="100"/>
       <c r="BP33" s="95"/>
       <c r="BQ33" s="95"/>
-      <c r="BR33" s="71"/>
-      <c r="BS33" s="71"/>
-      <c r="BT33" s="71"/>
+      <c r="BR33" s="95"/>
+      <c r="BS33" s="95"/>
+      <c r="BT33" s="81"/>
     </row>
-    <row r="35" spans="1:83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="73"/>
-      <c r="BU35" s="85"/>
-      <c r="BV35" s="85"/>
-      <c r="BW35" s="85"/>
-      <c r="BX35" s="85"/>
-      <c r="BY35" s="85"/>
-      <c r="BZ35" s="85"/>
-      <c r="CA35" s="85"/>
-      <c r="CB35" s="85"/>
-      <c r="CC35" s="85"/>
-      <c r="CD35" s="85"/>
-      <c r="CE35" s="85"/>
+    <row r="34" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="89">
+        <v>2</v>
+      </c>
+      <c r="F34" s="90">
+        <v>2</v>
+      </c>
+      <c r="G34" s="91">
+        <f>E34-F34</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="53">
+        <v>4</v>
+      </c>
+      <c r="I34" s="131">
+        <v>45575</v>
+      </c>
+      <c r="J34" s="131">
+        <v>45575</v>
+      </c>
+      <c r="K34" s="92">
+        <f>J34-I34+1</f>
+        <v>1</v>
+      </c>
+      <c r="L34" s="93">
+        <f>F34/E34</f>
+        <v>1</v>
+      </c>
+      <c r="M34" s="94"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="96"/>
+      <c r="S34" s="96"/>
+      <c r="T34" s="96"/>
+      <c r="U34" s="96"/>
+      <c r="V34" s="96"/>
+      <c r="W34" s="95"/>
+      <c r="X34" s="95"/>
+      <c r="Y34" s="95"/>
+      <c r="Z34" s="95"/>
+      <c r="AA34" s="97"/>
+      <c r="AB34" s="94"/>
+      <c r="AC34" s="95"/>
+      <c r="AD34" s="95"/>
+      <c r="AE34" s="95"/>
+      <c r="AF34" s="95"/>
+      <c r="AG34" s="98"/>
+      <c r="AH34" s="98"/>
+      <c r="AI34" s="98"/>
+      <c r="AJ34" s="98"/>
+      <c r="AK34" s="98"/>
+      <c r="AL34" s="95"/>
+      <c r="AM34" s="95"/>
+      <c r="AN34" s="95"/>
+      <c r="AO34" s="95"/>
+      <c r="AP34" s="97"/>
+      <c r="AQ34" s="95"/>
+      <c r="AR34" s="95"/>
+      <c r="AS34" s="71"/>
+      <c r="AT34" s="95"/>
+      <c r="AU34" s="95"/>
+      <c r="AV34" s="99"/>
+      <c r="AW34" s="99"/>
+      <c r="AX34" s="99"/>
+      <c r="AY34" s="99"/>
+      <c r="AZ34" s="99"/>
+      <c r="BA34" s="95"/>
+      <c r="BB34" s="95"/>
+      <c r="BC34" s="95"/>
+      <c r="BD34" s="95"/>
+      <c r="BE34" s="97"/>
+      <c r="BF34" s="94"/>
+      <c r="BG34" s="95"/>
+      <c r="BH34" s="95"/>
+      <c r="BI34" s="95"/>
+      <c r="BJ34" s="95"/>
+      <c r="BK34" s="100"/>
+      <c r="BL34" s="100"/>
+      <c r="BM34" s="100"/>
+      <c r="BN34" s="100"/>
+      <c r="BO34" s="100"/>
+      <c r="BP34" s="95"/>
+      <c r="BQ34" s="95"/>
+      <c r="BR34" s="95"/>
+      <c r="BS34" s="95"/>
+      <c r="BT34" s="95"/>
     </row>
     <row r="36" spans="1:83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="73"/>
@@ -7084,1153 +7325,1166 @@
       <c r="CD36" s="85"/>
       <c r="CE36" s="85"/>
     </row>
-    <row r="37" spans="1:83" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="101"/>
-      <c r="D37" s="101"/>
+    <row r="37" spans="1:83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="73"/>
+      <c r="BU37" s="85"/>
+      <c r="BV37" s="85"/>
+      <c r="BW37" s="85"/>
+      <c r="BX37" s="85"/>
+      <c r="BY37" s="85"/>
+      <c r="BZ37" s="85"/>
+      <c r="CA37" s="85"/>
+      <c r="CB37" s="85"/>
+      <c r="CC37" s="85"/>
+      <c r="CD37" s="85"/>
+      <c r="CE37" s="85"/>
     </row>
-    <row r="38" spans="1:83" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="102" t="s">
+    <row r="38" spans="1:83" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="101"/>
+      <c r="D38" s="101"/>
+    </row>
+    <row r="39" spans="1:83" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="102" t="s">
+      <c r="F39" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="G38" s="102" t="s">
+      <c r="G39" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="102" t="s">
+      <c r="H39" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="102" t="s">
+      <c r="I39" s="102" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:83" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="3" t="s">
+    <row r="40" spans="1:83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:83" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="103" t="s">
+      <c r="D41" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="104">
-        <f>SUM(E11:E15,E18:E21,E13:E27,E29:E32,E13:E36)</f>
-        <v>499</v>
-      </c>
-      <c r="F40" s="104">
-        <f>SUM(F11:F15,F18:F21,F13:F27,F29:F32,F13:F36)</f>
-        <v>474</v>
-      </c>
-      <c r="G40" s="104">
-        <f>SUM(G11:G15,G18:G21,G13:G27,G29:G32)</f>
+      <c r="E41" s="104">
+        <f>SUM(E11:E15,E18:E22,E13:E28,E30:E33,E13:E37)</f>
+        <v>756</v>
+      </c>
+      <c r="F41" s="104">
+        <f>SUM(F11:F15,F18:F22,F13:F28,F30:F33,F13:F37)</f>
+        <v>756</v>
+      </c>
+      <c r="G41" s="104">
+        <f>SUM(G11:G15,G18:G22,G13:G28,G30:G33)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="104">
+        <v>66</v>
+      </c>
+      <c r="I41" s="104">
+        <f>E41/H41</f>
+        <v>11.454545454545455</v>
+      </c>
+      <c r="L41" s="105" t="s">
+        <v>50</v>
+      </c>
+      <c r="M41" s="106">
+        <v>1</v>
+      </c>
+      <c r="N41" s="106">
+        <v>2</v>
+      </c>
+      <c r="O41" s="106">
+        <v>3</v>
+      </c>
+      <c r="P41" s="106">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="106">
+        <v>5</v>
+      </c>
+      <c r="R41" s="106">
+        <v>6</v>
+      </c>
+      <c r="S41" s="106">
+        <v>7</v>
+      </c>
+      <c r="T41" s="106">
+        <v>8</v>
+      </c>
+      <c r="U41" s="106">
+        <v>9</v>
+      </c>
+      <c r="V41" s="106">
+        <v>10</v>
+      </c>
+      <c r="W41" s="106">
+        <v>11</v>
+      </c>
+      <c r="X41" s="106">
+        <v>12</v>
+      </c>
+      <c r="Y41" s="106">
+        <v>13</v>
+      </c>
+      <c r="Z41" s="106">
+        <v>14</v>
+      </c>
+      <c r="AA41" s="106">
         <v>15</v>
       </c>
-      <c r="H40" s="104">
-        <v>66</v>
-      </c>
-      <c r="I40" s="104">
-        <f>E40/H40</f>
-        <v>7.5606060606060606</v>
-      </c>
-      <c r="L40" s="105" t="s">
+      <c r="AB41" s="106">
+        <v>16</v>
+      </c>
+      <c r="AC41" s="106">
+        <v>17</v>
+      </c>
+      <c r="AD41" s="106">
+        <v>18</v>
+      </c>
+      <c r="AE41" s="106">
+        <v>19</v>
+      </c>
+      <c r="AF41" s="106">
+        <v>20</v>
+      </c>
+      <c r="AG41" s="106">
+        <v>21</v>
+      </c>
+      <c r="AH41" s="106">
+        <v>22</v>
+      </c>
+      <c r="AI41" s="106">
+        <v>23</v>
+      </c>
+      <c r="AJ41" s="106">
+        <v>24</v>
+      </c>
+      <c r="AK41" s="106">
+        <v>25</v>
+      </c>
+      <c r="AL41" s="106">
+        <v>26</v>
+      </c>
+      <c r="AM41" s="106">
+        <v>27</v>
+      </c>
+      <c r="AN41" s="106">
+        <v>28</v>
+      </c>
+      <c r="AO41" s="106">
+        <v>29</v>
+      </c>
+      <c r="AP41" s="106">
+        <v>30</v>
+      </c>
+      <c r="AQ41" s="106">
+        <v>31</v>
+      </c>
+      <c r="AR41" s="106">
+        <v>32</v>
+      </c>
+      <c r="AS41" s="106">
+        <v>33</v>
+      </c>
+      <c r="AT41" s="106">
+        <v>34</v>
+      </c>
+      <c r="AU41" s="106">
+        <v>35</v>
+      </c>
+      <c r="AV41" s="106">
+        <v>36</v>
+      </c>
+      <c r="AW41" s="106">
+        <v>37</v>
+      </c>
+      <c r="AX41" s="106">
+        <v>38</v>
+      </c>
+      <c r="AY41" s="106">
+        <v>39</v>
+      </c>
+      <c r="AZ41" s="106">
+        <v>40</v>
+      </c>
+      <c r="BA41" s="106">
+        <v>41</v>
+      </c>
+      <c r="BB41" s="106">
+        <v>42</v>
+      </c>
+      <c r="BC41" s="106">
+        <v>43</v>
+      </c>
+      <c r="BD41" s="106">
+        <v>44</v>
+      </c>
+      <c r="BE41" s="106">
+        <v>45</v>
+      </c>
+      <c r="BF41" s="106">
+        <v>46</v>
+      </c>
+      <c r="BG41" s="106">
+        <v>47</v>
+      </c>
+      <c r="BH41" s="106">
+        <v>48</v>
+      </c>
+      <c r="BI41" s="106">
+        <v>49</v>
+      </c>
+      <c r="BJ41" s="106">
         <v>50</v>
       </c>
-      <c r="M40" s="106">
-        <v>1</v>
-      </c>
-      <c r="N40" s="106">
-        <v>2</v>
-      </c>
-      <c r="O40" s="106">
-        <v>3</v>
-      </c>
-      <c r="P40" s="106">
-        <v>4</v>
-      </c>
-      <c r="Q40" s="106">
-        <v>5</v>
-      </c>
-      <c r="R40" s="106">
-        <v>6</v>
-      </c>
-      <c r="S40" s="106">
-        <v>7</v>
-      </c>
-      <c r="T40" s="106">
-        <v>8</v>
-      </c>
-      <c r="U40" s="106">
-        <v>9</v>
-      </c>
-      <c r="V40" s="106">
-        <v>10</v>
-      </c>
-      <c r="W40" s="106">
-        <v>11</v>
-      </c>
-      <c r="X40" s="106">
-        <v>12</v>
-      </c>
-      <c r="Y40" s="106">
-        <v>13</v>
-      </c>
-      <c r="Z40" s="106">
-        <v>14</v>
-      </c>
-      <c r="AA40" s="106">
-        <v>15</v>
-      </c>
-      <c r="AB40" s="106">
-        <v>16</v>
-      </c>
-      <c r="AC40" s="106">
-        <v>17</v>
-      </c>
-      <c r="AD40" s="106">
-        <v>18</v>
-      </c>
-      <c r="AE40" s="106">
-        <v>19</v>
-      </c>
-      <c r="AF40" s="106">
-        <v>20</v>
-      </c>
-      <c r="AG40" s="106">
-        <v>21</v>
-      </c>
-      <c r="AH40" s="106">
-        <v>22</v>
-      </c>
-      <c r="AI40" s="106">
-        <v>23</v>
-      </c>
-      <c r="AJ40" s="106">
-        <v>24</v>
-      </c>
-      <c r="AK40" s="106">
-        <v>25</v>
-      </c>
-      <c r="AL40" s="106">
-        <v>26</v>
-      </c>
-      <c r="AM40" s="106">
-        <v>27</v>
-      </c>
-      <c r="AN40" s="106">
-        <v>28</v>
-      </c>
-      <c r="AO40" s="106">
-        <v>29</v>
-      </c>
-      <c r="AP40" s="106">
-        <v>30</v>
-      </c>
-      <c r="AQ40" s="106">
-        <v>31</v>
-      </c>
-      <c r="AR40" s="106">
-        <v>32</v>
-      </c>
-      <c r="AS40" s="106">
-        <v>33</v>
-      </c>
-      <c r="AT40" s="106">
-        <v>34</v>
-      </c>
-      <c r="AU40" s="106">
-        <v>35</v>
-      </c>
-      <c r="AV40" s="106">
-        <v>36</v>
-      </c>
-      <c r="AW40" s="106">
-        <v>37</v>
-      </c>
-      <c r="AX40" s="106">
-        <v>38</v>
-      </c>
-      <c r="AY40" s="106">
-        <v>39</v>
-      </c>
-      <c r="AZ40" s="106">
-        <v>40</v>
-      </c>
-      <c r="BA40" s="106">
-        <v>41</v>
-      </c>
-      <c r="BB40" s="106">
-        <v>42</v>
-      </c>
-      <c r="BC40" s="106">
-        <v>43</v>
-      </c>
-      <c r="BD40" s="106">
-        <v>44</v>
-      </c>
-      <c r="BE40" s="106">
-        <v>45</v>
-      </c>
-      <c r="BF40" s="106">
-        <v>46</v>
-      </c>
-      <c r="BG40" s="106">
-        <v>47</v>
-      </c>
-      <c r="BH40" s="106">
-        <v>48</v>
-      </c>
-      <c r="BI40" s="106">
+      <c r="BK41" s="106"/>
+      <c r="BL41" s="106"/>
+      <c r="BM41" s="106"/>
+      <c r="BN41" s="106"/>
+      <c r="BO41" s="106"/>
+      <c r="BP41" s="106"/>
+      <c r="BQ41" s="106"/>
+      <c r="BR41" s="106"/>
+      <c r="BS41" s="106"/>
+      <c r="BT41" s="106"/>
+      <c r="BU41" s="106"/>
+      <c r="BV41" s="106"/>
+      <c r="BW41" s="106"/>
+      <c r="BX41" s="106"/>
+      <c r="BY41" s="106"/>
+      <c r="BZ41" s="106"/>
+      <c r="CA41" s="106"/>
+      <c r="CB41" s="106"/>
+      <c r="CC41" s="106"/>
+      <c r="CD41" s="106"/>
+      <c r="CE41" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="BJ40" s="106">
-        <v>50</v>
-      </c>
-      <c r="BK40" s="106"/>
-      <c r="BL40" s="106"/>
-      <c r="BM40" s="106"/>
-      <c r="BN40" s="106"/>
-      <c r="BO40" s="106"/>
-      <c r="BP40" s="106"/>
-      <c r="BQ40" s="106"/>
-      <c r="BR40" s="106"/>
-      <c r="BS40" s="106"/>
-      <c r="BT40" s="106"/>
-      <c r="BU40" s="106"/>
-      <c r="BV40" s="106"/>
-      <c r="BW40" s="106"/>
-      <c r="BX40" s="106"/>
-      <c r="BY40" s="106"/>
-      <c r="BZ40" s="106"/>
-      <c r="CA40" s="106"/>
-      <c r="CB40" s="106"/>
-      <c r="CC40" s="106"/>
-      <c r="CD40" s="106"/>
-      <c r="CE40" s="103" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:83" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H41" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="L41" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="M41" s="108">
-        <f>E40</f>
-        <v>499</v>
-      </c>
-      <c r="N41" s="109">
-        <f>E40</f>
-        <v>499</v>
-      </c>
-      <c r="O41" s="109">
-        <f>E40</f>
-        <v>499</v>
-      </c>
-      <c r="P41" s="108">
-        <f>E40</f>
-        <v>499</v>
-      </c>
-      <c r="Q41" s="109">
-        <f>P41-I40</f>
-        <v>491.43939393939394</v>
-      </c>
-      <c r="R41" s="109">
-        <f>Q41-I40</f>
-        <v>483.87878787878788</v>
-      </c>
-      <c r="S41" s="109">
-        <f>R41-I40</f>
-        <v>476.31818181818181</v>
-      </c>
-      <c r="T41" s="109">
-        <f>S41-I40</f>
-        <v>468.75757575757575</v>
-      </c>
-      <c r="U41" s="109">
-        <f>T41-I40</f>
-        <v>461.19696969696969</v>
-      </c>
-      <c r="V41" s="109">
-        <f>U41-I40</f>
-        <v>453.63636363636363</v>
-      </c>
-      <c r="W41" s="109">
-        <f>V41-I40</f>
-        <v>446.07575757575756</v>
-      </c>
-      <c r="X41" s="109">
-        <f>W41-I40</f>
-        <v>438.5151515151515</v>
-      </c>
-      <c r="Y41" s="109">
-        <f>X41-I40</f>
-        <v>430.95454545454544</v>
-      </c>
-      <c r="Z41" s="109">
-        <f>Y41-I40</f>
-        <v>423.39393939393938</v>
-      </c>
-      <c r="AA41" s="109">
-        <f>Z41-I40</f>
-        <v>415.83333333333331</v>
-      </c>
-      <c r="AB41" s="109">
-        <f>AA41-I40</f>
-        <v>408.27272727272725</v>
-      </c>
-      <c r="AC41" s="109">
-        <f>AB41-I40</f>
-        <v>400.71212121212119</v>
-      </c>
-      <c r="AD41" s="109">
-        <f>AC41-I40</f>
-        <v>393.15151515151513</v>
-      </c>
-      <c r="AE41" s="109">
-        <f>AD41-I40</f>
-        <v>385.59090909090907</v>
-      </c>
-      <c r="AF41" s="109">
-        <f>AE41-I40</f>
-        <v>378.030303030303</v>
-      </c>
-      <c r="AG41" s="109">
-        <f>AF41-I40</f>
-        <v>370.46969696969694</v>
-      </c>
-      <c r="AH41" s="109">
-        <f>AG41-I40</f>
-        <v>362.90909090909088</v>
-      </c>
-      <c r="AI41" s="109">
-        <f>AH41-I40</f>
-        <v>355.34848484848482</v>
-      </c>
-      <c r="AJ41" s="109">
-        <f>AI41-I40</f>
-        <v>347.78787878787875</v>
-      </c>
-      <c r="AK41" s="109">
-        <f>AJ41-I40</f>
-        <v>340.22727272727269</v>
-      </c>
-      <c r="AL41" s="109">
-        <f>AK41-I40</f>
-        <v>332.66666666666663</v>
-      </c>
-      <c r="AM41" s="109">
-        <f>AL41-I40</f>
-        <v>325.10606060606057</v>
-      </c>
-      <c r="AN41" s="109">
-        <f>AM41-I40</f>
-        <v>317.5454545454545</v>
-      </c>
-      <c r="AO41" s="109">
-        <f>AN41-I40</f>
-        <v>309.98484848484844</v>
-      </c>
-      <c r="AP41" s="109">
-        <f>AO41-I40</f>
-        <v>302.42424242424238</v>
-      </c>
-      <c r="AQ41" s="109">
-        <f>AP41-I40</f>
-        <v>294.86363636363632</v>
-      </c>
-      <c r="AR41" s="109">
-        <f>AQ41-I40</f>
-        <v>287.30303030303025</v>
-      </c>
-      <c r="AS41" s="109">
-        <f>AR41-I40</f>
-        <v>279.74242424242419</v>
-      </c>
-      <c r="AT41" s="109">
-        <f>AS41-I40</f>
-        <v>272.18181818181813</v>
-      </c>
-      <c r="AU41" s="109">
-        <f>AT41-I40</f>
-        <v>264.62121212121207</v>
-      </c>
-      <c r="AV41" s="109">
-        <f>AU41-I40</f>
-        <v>257.06060606060601</v>
-      </c>
-      <c r="AW41" s="109">
-        <f>AV41-I40</f>
-        <v>249.49999999999994</v>
-      </c>
-      <c r="AX41" s="109">
-        <f>AW41-I40</f>
-        <v>241.93939393939388</v>
-      </c>
-      <c r="AY41" s="109">
-        <f>AX41-I40</f>
-        <v>234.37878787878782</v>
-      </c>
-      <c r="AZ41" s="109">
-        <f>AY41-I40</f>
-        <v>226.81818181818176</v>
-      </c>
-      <c r="BA41" s="109">
-        <f>AZ41-I40</f>
-        <v>219.25757575757569</v>
-      </c>
-      <c r="BB41" s="109">
-        <f>BA41-I40</f>
-        <v>211.69696969696963</v>
-      </c>
-      <c r="BC41" s="109">
-        <f>BB41-I40</f>
-        <v>204.13636363636357</v>
-      </c>
-      <c r="BD41" s="109">
-        <f>BC41-I40</f>
-        <v>196.57575757575751</v>
-      </c>
-      <c r="BE41" s="109">
-        <f>BD41-I40</f>
-        <v>189.01515151515144</v>
-      </c>
-      <c r="BF41" s="109">
-        <f>BE41-I40</f>
-        <v>181.45454545454538</v>
-      </c>
-      <c r="BG41" s="109">
-        <f>BF41-I40</f>
-        <v>173.89393939393932</v>
-      </c>
-      <c r="BH41" s="109">
-        <f>BG41-I40</f>
-        <v>166.33333333333326</v>
-      </c>
-      <c r="BI41" s="109">
-        <f>BH41-I40</f>
-        <v>158.7727272727272</v>
-      </c>
-      <c r="BJ41" s="109">
-        <f>BI41-I40</f>
-        <v>151.21212121212113</v>
-      </c>
-      <c r="BK41" s="109"/>
-      <c r="BL41" s="109"/>
-      <c r="BM41" s="109"/>
-      <c r="BN41" s="109"/>
-      <c r="BO41" s="109"/>
-      <c r="BP41" s="109"/>
-      <c r="BQ41" s="109"/>
-      <c r="BR41" s="109"/>
-      <c r="BS41" s="109"/>
-      <c r="BT41" s="109"/>
-      <c r="BU41" s="109"/>
-      <c r="BV41" s="109"/>
-      <c r="BW41" s="109"/>
-      <c r="BX41" s="109"/>
-      <c r="BY41" s="109"/>
-      <c r="BZ41" s="109"/>
-      <c r="CA41" s="109"/>
-      <c r="CB41" s="109"/>
-      <c r="CC41" s="109"/>
-      <c r="CD41" s="109"/>
-      <c r="CE41" s="104"/>
     </row>
     <row r="42" spans="1:83" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H42" s="107" t="s">
+        <v>51</v>
+      </c>
       <c r="L42" s="105" t="s">
+        <v>52</v>
+      </c>
+      <c r="M42" s="108">
+        <f>E41</f>
+        <v>756</v>
+      </c>
+      <c r="N42" s="109">
+        <f>E41</f>
+        <v>756</v>
+      </c>
+      <c r="O42" s="109">
+        <f>E41</f>
+        <v>756</v>
+      </c>
+      <c r="P42" s="108">
+        <f>E41</f>
+        <v>756</v>
+      </c>
+      <c r="Q42" s="109">
+        <f>P42-I41</f>
+        <v>744.5454545454545</v>
+      </c>
+      <c r="R42" s="109">
+        <f>Q42-I41</f>
+        <v>733.09090909090901</v>
+      </c>
+      <c r="S42" s="109">
+        <f>R42-I41</f>
+        <v>721.63636363636351</v>
+      </c>
+      <c r="T42" s="109">
+        <f>S42-I41</f>
+        <v>710.18181818181802</v>
+      </c>
+      <c r="U42" s="109">
+        <f>T42-I41</f>
+        <v>698.72727272727252</v>
+      </c>
+      <c r="V42" s="109">
+        <f>U42-I41</f>
+        <v>687.27272727272702</v>
+      </c>
+      <c r="W42" s="109">
+        <f>V42-I41</f>
+        <v>675.81818181818153</v>
+      </c>
+      <c r="X42" s="109">
+        <f>W42-I41</f>
+        <v>664.36363636363603</v>
+      </c>
+      <c r="Y42" s="109">
+        <f>X42-I41</f>
+        <v>652.90909090909054</v>
+      </c>
+      <c r="Z42" s="109">
+        <f>Y42-I41</f>
+        <v>641.45454545454504</v>
+      </c>
+      <c r="AA42" s="109">
+        <f>Z42-I41</f>
+        <v>629.99999999999955</v>
+      </c>
+      <c r="AB42" s="109">
+        <f>AA42-I41</f>
+        <v>618.54545454545405</v>
+      </c>
+      <c r="AC42" s="109">
+        <f>AB42-I41</f>
+        <v>607.09090909090855</v>
+      </c>
+      <c r="AD42" s="109">
+        <f>AC42-I41</f>
+        <v>595.63636363636306</v>
+      </c>
+      <c r="AE42" s="109">
+        <f>AD42-I41</f>
+        <v>584.18181818181756</v>
+      </c>
+      <c r="AF42" s="109">
+        <f>AE42-I41</f>
+        <v>572.72727272727207</v>
+      </c>
+      <c r="AG42" s="109">
+        <f>AF42-I41</f>
+        <v>561.27272727272657</v>
+      </c>
+      <c r="AH42" s="109">
+        <f>AG42-I41</f>
+        <v>549.81818181818107</v>
+      </c>
+      <c r="AI42" s="109">
+        <f>AH42-I41</f>
+        <v>538.36363636363558</v>
+      </c>
+      <c r="AJ42" s="109">
+        <f>AI42-I41</f>
+        <v>526.90909090909008</v>
+      </c>
+      <c r="AK42" s="109">
+        <f>AJ42-I41</f>
+        <v>515.45454545454459</v>
+      </c>
+      <c r="AL42" s="109">
+        <f>AK42-I41</f>
+        <v>503.99999999999915</v>
+      </c>
+      <c r="AM42" s="109">
+        <f>AL42-I41</f>
+        <v>492.54545454545371</v>
+      </c>
+      <c r="AN42" s="109">
+        <f>AM42-I41</f>
+        <v>481.09090909090827</v>
+      </c>
+      <c r="AO42" s="109">
+        <f>AN42-I41</f>
+        <v>469.63636363636283</v>
+      </c>
+      <c r="AP42" s="109">
+        <f>AO42-I41</f>
+        <v>458.18181818181739</v>
+      </c>
+      <c r="AQ42" s="109">
+        <f>AP42-I41</f>
+        <v>446.72727272727195</v>
+      </c>
+      <c r="AR42" s="109">
+        <f>AQ42-I41</f>
+        <v>435.27272727272651</v>
+      </c>
+      <c r="AS42" s="109">
+        <f>AR42-I41</f>
+        <v>423.81818181818107</v>
+      </c>
+      <c r="AT42" s="109">
+        <f>AS42-I41</f>
+        <v>412.36363636363564</v>
+      </c>
+      <c r="AU42" s="109">
+        <f>AT42-I41</f>
+        <v>400.9090909090902</v>
+      </c>
+      <c r="AV42" s="109">
+        <f>AU42-I41</f>
+        <v>389.45454545454476</v>
+      </c>
+      <c r="AW42" s="109">
+        <f>AV42-I41</f>
+        <v>377.99999999999932</v>
+      </c>
+      <c r="AX42" s="109">
+        <f>AW42-I41</f>
+        <v>366.54545454545388</v>
+      </c>
+      <c r="AY42" s="109">
+        <f>AX42-I41</f>
+        <v>355.09090909090844</v>
+      </c>
+      <c r="AZ42" s="109">
+        <f>AY42-I41</f>
+        <v>343.636363636363</v>
+      </c>
+      <c r="BA42" s="109">
+        <f>AZ42-I41</f>
+        <v>332.18181818181756</v>
+      </c>
+      <c r="BB42" s="109">
+        <f>BA42-I41</f>
+        <v>320.72727272727212</v>
+      </c>
+      <c r="BC42" s="109">
+        <f>BB42-I41</f>
+        <v>309.27272727272668</v>
+      </c>
+      <c r="BD42" s="109">
+        <f>BC42-I41</f>
+        <v>297.81818181818124</v>
+      </c>
+      <c r="BE42" s="109">
+        <f>BD42-I41</f>
+        <v>286.36363636363581</v>
+      </c>
+      <c r="BF42" s="109">
+        <f>BE42-I41</f>
+        <v>274.90909090909037</v>
+      </c>
+      <c r="BG42" s="109">
+        <f>BF42-I41</f>
+        <v>263.45454545454493</v>
+      </c>
+      <c r="BH42" s="109">
+        <f>BG42-I41</f>
+        <v>251.99999999999946</v>
+      </c>
+      <c r="BI42" s="109">
+        <f>BH42-I41</f>
+        <v>240.54545454545399</v>
+      </c>
+      <c r="BJ42" s="109">
+        <f>BI42-I41</f>
+        <v>229.09090909090853</v>
+      </c>
+      <c r="BK42" s="109"/>
+      <c r="BL42" s="109"/>
+      <c r="BM42" s="109"/>
+      <c r="BN42" s="109"/>
+      <c r="BO42" s="109"/>
+      <c r="BP42" s="109"/>
+      <c r="BQ42" s="109"/>
+      <c r="BR42" s="109"/>
+      <c r="BS42" s="109"/>
+      <c r="BT42" s="109"/>
+      <c r="BU42" s="109"/>
+      <c r="BV42" s="109"/>
+      <c r="BW42" s="109"/>
+      <c r="BX42" s="109"/>
+      <c r="BY42" s="109"/>
+      <c r="BZ42" s="109"/>
+      <c r="CA42" s="109"/>
+      <c r="CB42" s="109"/>
+      <c r="CC42" s="109"/>
+      <c r="CD42" s="109"/>
+      <c r="CE42" s="104"/>
+    </row>
+    <row r="43" spans="1:83" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L43" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="108">
-        <f>E40</f>
-        <v>499</v>
-      </c>
-      <c r="N42" s="108">
-        <f t="shared" ref="N42:O42" si="9">M44</f>
-        <v>496</v>
-      </c>
-      <c r="O42" s="108">
+      <c r="M43" s="108">
+        <f>E41</f>
+        <v>756</v>
+      </c>
+      <c r="N43" s="108">
+        <f t="shared" ref="N43:O43" si="9">M45</f>
+        <v>753</v>
+      </c>
+      <c r="O43" s="108">
         <f t="shared" si="9"/>
-        <v>493</v>
-      </c>
-      <c r="P42" s="108">
-        <f>E40</f>
-        <v>499</v>
-      </c>
-      <c r="Q42" s="108">
-        <f t="shared" ref="Q42:BJ42" si="10">P44</f>
-        <v>494</v>
-      </c>
-      <c r="R42" s="108">
+        <v>750</v>
+      </c>
+      <c r="P43" s="108">
+        <f>E41</f>
+        <v>756</v>
+      </c>
+      <c r="Q43" s="108">
+        <f t="shared" ref="Q43:BJ43" si="10">P45</f>
+        <v>751</v>
+      </c>
+      <c r="R43" s="108">
         <f t="shared" si="10"/>
-        <v>489</v>
-      </c>
-      <c r="S42" s="108">
+        <v>746</v>
+      </c>
+      <c r="S43" s="108">
         <f t="shared" si="10"/>
-        <v>486</v>
-      </c>
-      <c r="T42" s="108">
+        <v>743</v>
+      </c>
+      <c r="T43" s="108">
         <f t="shared" si="10"/>
-        <v>483</v>
-      </c>
-      <c r="U42" s="108">
+        <v>740</v>
+      </c>
+      <c r="U43" s="108">
         <f t="shared" si="10"/>
-        <v>480</v>
-      </c>
-      <c r="V42" s="108">
+        <v>737</v>
+      </c>
+      <c r="V43" s="108">
         <f t="shared" si="10"/>
-        <v>474</v>
-      </c>
-      <c r="W42" s="108">
+        <v>731</v>
+      </c>
+      <c r="W43" s="108">
         <f t="shared" si="10"/>
-        <v>471</v>
-      </c>
-      <c r="X42" s="108">
+        <v>728</v>
+      </c>
+      <c r="X43" s="108">
         <f t="shared" si="10"/>
-        <v>467</v>
-      </c>
-      <c r="Y42" s="108">
+        <v>724</v>
+      </c>
+      <c r="Y43" s="108">
         <f t="shared" si="10"/>
-        <v>461</v>
-      </c>
-      <c r="Z42" s="108">
+        <v>718</v>
+      </c>
+      <c r="Z43" s="108">
         <f t="shared" si="10"/>
-        <v>454</v>
-      </c>
-      <c r="AA42" s="108">
+        <v>711</v>
+      </c>
+      <c r="AA43" s="108">
         <f t="shared" si="10"/>
-        <v>449</v>
-      </c>
-      <c r="AB42" s="108">
+        <v>706</v>
+      </c>
+      <c r="AB43" s="108">
         <f t="shared" si="10"/>
-        <v>444</v>
-      </c>
-      <c r="AC42" s="108">
+        <v>701</v>
+      </c>
+      <c r="AC43" s="108">
         <f t="shared" si="10"/>
-        <v>439</v>
-      </c>
-      <c r="AD42" s="108">
+        <v>696</v>
+      </c>
+      <c r="AD43" s="108">
         <f t="shared" si="10"/>
-        <v>434</v>
-      </c>
-      <c r="AE42" s="108">
+        <v>691</v>
+      </c>
+      <c r="AE43" s="108">
         <f t="shared" si="10"/>
-        <v>429</v>
-      </c>
-      <c r="AF42" s="108">
+        <v>686</v>
+      </c>
+      <c r="AF43" s="108">
         <f t="shared" si="10"/>
-        <v>426</v>
-      </c>
-      <c r="AG42" s="108">
+        <v>683</v>
+      </c>
+      <c r="AG43" s="108">
         <f t="shared" si="10"/>
-        <v>423</v>
-      </c>
-      <c r="AH42" s="108">
+        <v>680</v>
+      </c>
+      <c r="AH43" s="108">
         <f t="shared" si="10"/>
-        <v>420</v>
-      </c>
-      <c r="AI42" s="108">
+        <v>677</v>
+      </c>
+      <c r="AI43" s="108">
         <f t="shared" si="10"/>
-        <v>416</v>
-      </c>
-      <c r="AJ42" s="108">
+        <v>673</v>
+      </c>
+      <c r="AJ43" s="108">
         <f t="shared" si="10"/>
-        <v>413</v>
-      </c>
-      <c r="AK42" s="108">
+        <v>670</v>
+      </c>
+      <c r="AK43" s="108">
         <f t="shared" si="10"/>
-        <v>409</v>
-      </c>
-      <c r="AL42" s="108">
+        <v>666</v>
+      </c>
+      <c r="AL43" s="108">
         <f t="shared" si="10"/>
-        <v>405</v>
-      </c>
-      <c r="AM42" s="108">
+        <v>662</v>
+      </c>
+      <c r="AM43" s="108">
         <f t="shared" si="10"/>
-        <v>402</v>
-      </c>
-      <c r="AN42" s="108">
+        <v>659</v>
+      </c>
+      <c r="AN43" s="108">
         <f t="shared" si="10"/>
-        <v>399</v>
-      </c>
-      <c r="AO42" s="108">
+        <v>656</v>
+      </c>
+      <c r="AO43" s="108">
         <f t="shared" si="10"/>
-        <v>396</v>
-      </c>
-      <c r="AP42" s="108">
+        <v>653</v>
+      </c>
+      <c r="AP43" s="108">
         <f t="shared" si="10"/>
-        <v>393</v>
-      </c>
-      <c r="AQ42" s="108">
+        <v>650</v>
+      </c>
+      <c r="AQ43" s="108">
         <f t="shared" si="10"/>
-        <v>390</v>
-      </c>
-      <c r="AR42" s="108">
+        <v>647</v>
+      </c>
+      <c r="AR43" s="108">
         <f t="shared" si="10"/>
-        <v>386</v>
-      </c>
-      <c r="AS42" s="108">
+        <v>643</v>
+      </c>
+      <c r="AS43" s="108">
         <f t="shared" si="10"/>
-        <v>382</v>
-      </c>
-      <c r="AT42" s="108">
+        <v>639</v>
+      </c>
+      <c r="AT43" s="108">
         <f t="shared" si="10"/>
-        <v>378</v>
-      </c>
-      <c r="AU42" s="108">
+        <v>635</v>
+      </c>
+      <c r="AU43" s="108">
         <f t="shared" si="10"/>
-        <v>374</v>
-      </c>
-      <c r="AV42" s="108">
+        <v>631</v>
+      </c>
+      <c r="AV43" s="108">
         <f t="shared" si="10"/>
-        <v>366</v>
-      </c>
-      <c r="AW42" s="108">
+        <v>623</v>
+      </c>
+      <c r="AW43" s="108">
         <f t="shared" si="10"/>
-        <v>359</v>
-      </c>
-      <c r="AX42" s="108">
+        <v>616</v>
+      </c>
+      <c r="AX43" s="108">
         <f t="shared" si="10"/>
-        <v>355</v>
-      </c>
-      <c r="AY42" s="108">
+        <v>612</v>
+      </c>
+      <c r="AY43" s="108">
         <f t="shared" si="10"/>
-        <v>351</v>
-      </c>
-      <c r="AZ42" s="108">
+        <v>608</v>
+      </c>
+      <c r="AZ43" s="108">
         <f t="shared" si="10"/>
-        <v>347</v>
-      </c>
-      <c r="BA42" s="108">
+        <v>604</v>
+      </c>
+      <c r="BA43" s="108">
         <f t="shared" si="10"/>
-        <v>344</v>
-      </c>
-      <c r="BB42" s="108">
+        <v>601</v>
+      </c>
+      <c r="BB43" s="108">
         <f t="shared" si="10"/>
-        <v>344</v>
-      </c>
-      <c r="BC42" s="108">
+        <v>601</v>
+      </c>
+      <c r="BC43" s="108">
         <f t="shared" si="10"/>
-        <v>344</v>
-      </c>
-      <c r="BD42" s="108">
+        <v>601</v>
+      </c>
+      <c r="BD43" s="108">
         <f t="shared" si="10"/>
-        <v>344</v>
-      </c>
-      <c r="BE42" s="108">
+        <v>601</v>
+      </c>
+      <c r="BE43" s="108">
         <f t="shared" si="10"/>
-        <v>344</v>
-      </c>
-      <c r="BF42" s="108">
+        <v>601</v>
+      </c>
+      <c r="BF43" s="108">
         <f t="shared" si="10"/>
-        <v>344</v>
-      </c>
-      <c r="BG42" s="108">
+        <v>601</v>
+      </c>
+      <c r="BG43" s="108">
         <f t="shared" si="10"/>
-        <v>344</v>
-      </c>
-      <c r="BH42" s="108">
+        <v>601</v>
+      </c>
+      <c r="BH43" s="108">
         <f t="shared" si="10"/>
-        <v>344</v>
-      </c>
-      <c r="BI42" s="108">
+        <v>601</v>
+      </c>
+      <c r="BI43" s="108">
         <f t="shared" si="10"/>
-        <v>344</v>
-      </c>
-      <c r="BJ42" s="108">
+        <v>601</v>
+      </c>
+      <c r="BJ43" s="108">
         <f t="shared" si="10"/>
-        <v>344</v>
-      </c>
-      <c r="BK42" s="108"/>
-      <c r="BL42" s="108"/>
-      <c r="BM42" s="108"/>
-      <c r="BN42" s="108"/>
-      <c r="BO42" s="108"/>
-      <c r="BP42" s="108"/>
-      <c r="BQ42" s="108"/>
-      <c r="BR42" s="108"/>
-      <c r="BS42" s="108"/>
-      <c r="BT42" s="108"/>
-      <c r="BU42" s="108"/>
-      <c r="BV42" s="108"/>
-      <c r="BW42" s="108"/>
-      <c r="BX42" s="108"/>
-      <c r="BY42" s="108"/>
-      <c r="BZ42" s="108"/>
-      <c r="CA42" s="108"/>
-      <c r="CB42" s="108"/>
-      <c r="CC42" s="108"/>
-      <c r="CD42" s="108"/>
-      <c r="CE42" s="104">
-        <f>SUM(P42:CD42)</f>
-        <v>19083</v>
-      </c>
-    </row>
-    <row r="43" spans="1:83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K43" s="110" t="s">
-        <v>53</v>
-      </c>
-      <c r="L43" s="105" t="s">
-        <v>54</v>
-      </c>
-      <c r="M43" s="51">
-        <v>3</v>
-      </c>
-      <c r="N43" s="51">
-        <v>3</v>
-      </c>
-      <c r="O43" s="51">
-        <v>3</v>
-      </c>
-      <c r="P43" s="51">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="51">
-        <v>5</v>
-      </c>
-      <c r="R43" s="51">
-        <v>3</v>
-      </c>
-      <c r="S43" s="51">
-        <v>3</v>
-      </c>
-      <c r="T43" s="51">
-        <v>3</v>
-      </c>
-      <c r="U43" s="51">
-        <v>6</v>
-      </c>
-      <c r="V43" s="51">
-        <v>3</v>
-      </c>
-      <c r="W43" s="51">
-        <v>4</v>
-      </c>
-      <c r="X43" s="51">
-        <v>6</v>
-      </c>
-      <c r="Y43" s="51">
-        <v>7</v>
-      </c>
-      <c r="Z43" s="51">
-        <v>5</v>
-      </c>
-      <c r="AA43" s="51">
-        <v>5</v>
-      </c>
-      <c r="AB43" s="51">
-        <v>5</v>
-      </c>
-      <c r="AC43" s="51">
-        <v>5</v>
-      </c>
-      <c r="AD43" s="51">
-        <v>5</v>
-      </c>
-      <c r="AE43" s="51">
-        <v>3</v>
-      </c>
-      <c r="AF43" s="51">
-        <v>3</v>
-      </c>
-      <c r="AG43" s="51">
-        <v>3</v>
-      </c>
-      <c r="AH43" s="51">
-        <v>4</v>
-      </c>
-      <c r="AI43" s="51">
-        <v>3</v>
-      </c>
-      <c r="AJ43" s="51">
-        <v>4</v>
-      </c>
-      <c r="AK43" s="51">
-        <v>4</v>
-      </c>
-      <c r="AL43" s="51">
-        <v>3</v>
-      </c>
-      <c r="AM43" s="51">
-        <v>3</v>
-      </c>
-      <c r="AN43" s="51">
-        <v>3</v>
-      </c>
-      <c r="AO43" s="51">
-        <v>3</v>
-      </c>
-      <c r="AP43" s="51">
-        <v>3</v>
-      </c>
-      <c r="AQ43" s="51">
-        <v>4</v>
-      </c>
-      <c r="AR43" s="51">
-        <v>4</v>
-      </c>
-      <c r="AS43" s="51">
-        <v>4</v>
-      </c>
-      <c r="AT43" s="51">
-        <v>4</v>
-      </c>
-      <c r="AU43" s="51">
-        <v>8</v>
-      </c>
-      <c r="AV43" s="51">
-        <v>7</v>
-      </c>
-      <c r="AW43" s="51">
-        <v>4</v>
-      </c>
-      <c r="AX43" s="51">
-        <v>4</v>
-      </c>
-      <c r="AY43" s="51">
-        <v>4</v>
-      </c>
-      <c r="AZ43" s="51">
-        <v>3</v>
-      </c>
-      <c r="BA43" s="51"/>
-      <c r="BB43" s="51"/>
-      <c r="BC43" s="51"/>
-      <c r="BD43" s="51"/>
-      <c r="BE43" s="51"/>
-      <c r="BF43" s="51"/>
-      <c r="BG43" s="51"/>
-      <c r="BH43" s="51"/>
-      <c r="BI43" s="51"/>
-      <c r="BJ43" s="51"/>
-      <c r="BK43" s="51"/>
-      <c r="BL43" s="51"/>
-      <c r="BM43" s="51"/>
-      <c r="BN43" s="51"/>
-      <c r="BO43" s="51"/>
-      <c r="BP43" s="51"/>
-      <c r="BQ43" s="51"/>
-      <c r="BR43" s="51"/>
-      <c r="BS43" s="51"/>
-      <c r="BT43" s="51"/>
-      <c r="BU43" s="51"/>
-      <c r="BV43" s="51"/>
-      <c r="BW43" s="51"/>
-      <c r="BX43" s="51"/>
-      <c r="BY43" s="51"/>
-      <c r="BZ43" s="51"/>
-      <c r="CA43" s="51"/>
-      <c r="CB43" s="51"/>
-      <c r="CC43" s="51"/>
-      <c r="CD43" s="51"/>
+        <v>601</v>
+      </c>
+      <c r="BK43" s="108"/>
+      <c r="BL43" s="108"/>
+      <c r="BM43" s="108"/>
+      <c r="BN43" s="108"/>
+      <c r="BO43" s="108"/>
+      <c r="BP43" s="108"/>
+      <c r="BQ43" s="108"/>
+      <c r="BR43" s="108"/>
+      <c r="BS43" s="108"/>
+      <c r="BT43" s="108"/>
+      <c r="BU43" s="108"/>
+      <c r="BV43" s="108"/>
+      <c r="BW43" s="108"/>
+      <c r="BX43" s="108"/>
+      <c r="BY43" s="108"/>
+      <c r="BZ43" s="108"/>
+      <c r="CA43" s="108"/>
+      <c r="CB43" s="108"/>
+      <c r="CC43" s="108"/>
+      <c r="CD43" s="108"/>
       <c r="CE43" s="104">
-        <f>SUM(P43:BT43)</f>
-        <v>155</v>
+        <f>SUM(P43:CD43)</f>
+        <v>31162</v>
       </c>
     </row>
     <row r="44" spans="1:83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K44" s="110" t="s">
+        <v>53</v>
+      </c>
       <c r="L44" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="M44" s="51">
+        <v>3</v>
+      </c>
+      <c r="N44" s="51">
+        <v>3</v>
+      </c>
+      <c r="O44" s="51">
+        <v>3</v>
+      </c>
+      <c r="P44" s="51">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="51">
+        <v>5</v>
+      </c>
+      <c r="R44" s="51">
+        <v>3</v>
+      </c>
+      <c r="S44" s="51">
+        <v>3</v>
+      </c>
+      <c r="T44" s="51">
+        <v>3</v>
+      </c>
+      <c r="U44" s="51">
+        <v>6</v>
+      </c>
+      <c r="V44" s="51">
+        <v>3</v>
+      </c>
+      <c r="W44" s="51">
+        <v>4</v>
+      </c>
+      <c r="X44" s="51">
+        <v>6</v>
+      </c>
+      <c r="Y44" s="51">
+        <v>7</v>
+      </c>
+      <c r="Z44" s="51">
+        <v>5</v>
+      </c>
+      <c r="AA44" s="51">
+        <v>5</v>
+      </c>
+      <c r="AB44" s="51">
+        <v>5</v>
+      </c>
+      <c r="AC44" s="51">
+        <v>5</v>
+      </c>
+      <c r="AD44" s="51">
+        <v>5</v>
+      </c>
+      <c r="AE44" s="51">
+        <v>3</v>
+      </c>
+      <c r="AF44" s="51">
+        <v>3</v>
+      </c>
+      <c r="AG44" s="51">
+        <v>3</v>
+      </c>
+      <c r="AH44" s="51">
+        <v>4</v>
+      </c>
+      <c r="AI44" s="51">
+        <v>3</v>
+      </c>
+      <c r="AJ44" s="51">
+        <v>4</v>
+      </c>
+      <c r="AK44" s="51">
+        <v>4</v>
+      </c>
+      <c r="AL44" s="51">
+        <v>3</v>
+      </c>
+      <c r="AM44" s="51">
+        <v>3</v>
+      </c>
+      <c r="AN44" s="51">
+        <v>3</v>
+      </c>
+      <c r="AO44" s="51">
+        <v>3</v>
+      </c>
+      <c r="AP44" s="51">
+        <v>3</v>
+      </c>
+      <c r="AQ44" s="51">
+        <v>4</v>
+      </c>
+      <c r="AR44" s="51">
+        <v>4</v>
+      </c>
+      <c r="AS44" s="51">
+        <v>4</v>
+      </c>
+      <c r="AT44" s="51">
+        <v>4</v>
+      </c>
+      <c r="AU44" s="51">
+        <v>8</v>
+      </c>
+      <c r="AV44" s="51">
+        <v>7</v>
+      </c>
+      <c r="AW44" s="51">
+        <v>4</v>
+      </c>
+      <c r="AX44" s="51">
+        <v>4</v>
+      </c>
+      <c r="AY44" s="51">
+        <v>4</v>
+      </c>
+      <c r="AZ44" s="51">
+        <v>3</v>
+      </c>
+      <c r="BA44" s="51"/>
+      <c r="BB44" s="51"/>
+      <c r="BC44" s="51"/>
+      <c r="BD44" s="51"/>
+      <c r="BE44" s="51"/>
+      <c r="BF44" s="51"/>
+      <c r="BG44" s="51"/>
+      <c r="BH44" s="51"/>
+      <c r="BI44" s="51"/>
+      <c r="BJ44" s="51"/>
+      <c r="BK44" s="51"/>
+      <c r="BL44" s="51"/>
+      <c r="BM44" s="51"/>
+      <c r="BN44" s="51"/>
+      <c r="BO44" s="51"/>
+      <c r="BP44" s="51"/>
+      <c r="BQ44" s="51"/>
+      <c r="BR44" s="51"/>
+      <c r="BS44" s="51"/>
+      <c r="BT44" s="51"/>
+      <c r="BU44" s="51"/>
+      <c r="BV44" s="51"/>
+      <c r="BW44" s="51"/>
+      <c r="BX44" s="51"/>
+      <c r="BY44" s="51"/>
+      <c r="BZ44" s="51"/>
+      <c r="CA44" s="51"/>
+      <c r="CB44" s="51"/>
+      <c r="CC44" s="51"/>
+      <c r="CD44" s="51"/>
+      <c r="CE44" s="104">
+        <f>SUM(P44:BT44)</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L45" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="M44" s="108">
-        <f t="shared" ref="M44:BJ44" si="11">M42-M43</f>
-        <v>496</v>
-      </c>
-      <c r="N44" s="108">
+      <c r="M45" s="108">
+        <f t="shared" ref="M45:BJ45" si="11">M43-M44</f>
+        <v>753</v>
+      </c>
+      <c r="N45" s="108">
         <f t="shared" si="11"/>
-        <v>493</v>
-      </c>
-      <c r="O44" s="108">
+        <v>750</v>
+      </c>
+      <c r="O45" s="108">
         <f t="shared" si="11"/>
-        <v>490</v>
-      </c>
-      <c r="P44" s="108">
+        <v>747</v>
+      </c>
+      <c r="P45" s="108">
         <f t="shared" si="11"/>
-        <v>494</v>
-      </c>
-      <c r="Q44" s="108">
+        <v>751</v>
+      </c>
+      <c r="Q45" s="108">
         <f t="shared" si="11"/>
-        <v>489</v>
-      </c>
-      <c r="R44" s="108">
+        <v>746</v>
+      </c>
+      <c r="R45" s="108">
         <f t="shared" si="11"/>
-        <v>486</v>
-      </c>
-      <c r="S44" s="108">
+        <v>743</v>
+      </c>
+      <c r="S45" s="108">
         <f t="shared" si="11"/>
-        <v>483</v>
-      </c>
-      <c r="T44" s="108">
+        <v>740</v>
+      </c>
+      <c r="T45" s="108">
         <f t="shared" si="11"/>
-        <v>480</v>
-      </c>
-      <c r="U44" s="108">
+        <v>737</v>
+      </c>
+      <c r="U45" s="108">
         <f t="shared" si="11"/>
-        <v>474</v>
-      </c>
-      <c r="V44" s="108">
+        <v>731</v>
+      </c>
+      <c r="V45" s="108">
         <f t="shared" si="11"/>
-        <v>471</v>
-      </c>
-      <c r="W44" s="108">
+        <v>728</v>
+      </c>
+      <c r="W45" s="108">
         <f t="shared" si="11"/>
-        <v>467</v>
-      </c>
-      <c r="X44" s="108">
+        <v>724</v>
+      </c>
+      <c r="X45" s="108">
         <f t="shared" si="11"/>
-        <v>461</v>
-      </c>
-      <c r="Y44" s="108">
+        <v>718</v>
+      </c>
+      <c r="Y45" s="108">
         <f t="shared" si="11"/>
-        <v>454</v>
-      </c>
-      <c r="Z44" s="108">
+        <v>711</v>
+      </c>
+      <c r="Z45" s="108">
         <f t="shared" si="11"/>
-        <v>449</v>
-      </c>
-      <c r="AA44" s="108">
+        <v>706</v>
+      </c>
+      <c r="AA45" s="108">
         <f t="shared" si="11"/>
-        <v>444</v>
-      </c>
-      <c r="AB44" s="108">
+        <v>701</v>
+      </c>
+      <c r="AB45" s="108">
         <f t="shared" si="11"/>
-        <v>439</v>
-      </c>
-      <c r="AC44" s="108">
+        <v>696</v>
+      </c>
+      <c r="AC45" s="108">
         <f t="shared" si="11"/>
-        <v>434</v>
-      </c>
-      <c r="AD44" s="108">
+        <v>691</v>
+      </c>
+      <c r="AD45" s="108">
         <f t="shared" si="11"/>
-        <v>429</v>
-      </c>
-      <c r="AE44" s="108">
+        <v>686</v>
+      </c>
+      <c r="AE45" s="108">
         <f t="shared" si="11"/>
-        <v>426</v>
-      </c>
-      <c r="AF44" s="108">
+        <v>683</v>
+      </c>
+      <c r="AF45" s="108">
         <f t="shared" si="11"/>
-        <v>423</v>
-      </c>
-      <c r="AG44" s="108">
+        <v>680</v>
+      </c>
+      <c r="AG45" s="108">
         <f t="shared" si="11"/>
-        <v>420</v>
-      </c>
-      <c r="AH44" s="108">
+        <v>677</v>
+      </c>
+      <c r="AH45" s="108">
         <f t="shared" si="11"/>
-        <v>416</v>
-      </c>
-      <c r="AI44" s="108">
+        <v>673</v>
+      </c>
+      <c r="AI45" s="108">
         <f t="shared" si="11"/>
-        <v>413</v>
-      </c>
-      <c r="AJ44" s="108">
+        <v>670</v>
+      </c>
+      <c r="AJ45" s="108">
         <f t="shared" si="11"/>
-        <v>409</v>
-      </c>
-      <c r="AK44" s="108">
+        <v>666</v>
+      </c>
+      <c r="AK45" s="108">
         <f t="shared" si="11"/>
-        <v>405</v>
-      </c>
-      <c r="AL44" s="108">
+        <v>662</v>
+      </c>
+      <c r="AL45" s="108">
         <f t="shared" si="11"/>
-        <v>402</v>
-      </c>
-      <c r="AM44" s="108">
+        <v>659</v>
+      </c>
+      <c r="AM45" s="108">
         <f t="shared" si="11"/>
-        <v>399</v>
-      </c>
-      <c r="AN44" s="108">
+        <v>656</v>
+      </c>
+      <c r="AN45" s="108">
         <f t="shared" si="11"/>
-        <v>396</v>
-      </c>
-      <c r="AO44" s="108">
+        <v>653</v>
+      </c>
+      <c r="AO45" s="108">
         <f t="shared" si="11"/>
-        <v>393</v>
-      </c>
-      <c r="AP44" s="108">
+        <v>650</v>
+      </c>
+      <c r="AP45" s="108">
         <f t="shared" si="11"/>
-        <v>390</v>
-      </c>
-      <c r="AQ44" s="108">
+        <v>647</v>
+      </c>
+      <c r="AQ45" s="108">
         <f t="shared" si="11"/>
-        <v>386</v>
-      </c>
-      <c r="AR44" s="108">
+        <v>643</v>
+      </c>
+      <c r="AR45" s="108">
         <f t="shared" si="11"/>
-        <v>382</v>
-      </c>
-      <c r="AS44" s="108">
+        <v>639</v>
+      </c>
+      <c r="AS45" s="108">
         <f t="shared" si="11"/>
-        <v>378</v>
-      </c>
-      <c r="AT44" s="108">
+        <v>635</v>
+      </c>
+      <c r="AT45" s="108">
         <f t="shared" si="11"/>
-        <v>374</v>
-      </c>
-      <c r="AU44" s="108">
+        <v>631</v>
+      </c>
+      <c r="AU45" s="108">
         <f t="shared" si="11"/>
-        <v>366</v>
-      </c>
-      <c r="AV44" s="108">
+        <v>623</v>
+      </c>
+      <c r="AV45" s="108">
         <f t="shared" si="11"/>
-        <v>359</v>
-      </c>
-      <c r="AW44" s="108">
+        <v>616</v>
+      </c>
+      <c r="AW45" s="108">
         <f t="shared" si="11"/>
-        <v>355</v>
-      </c>
-      <c r="AX44" s="108">
+        <v>612</v>
+      </c>
+      <c r="AX45" s="108">
         <f t="shared" si="11"/>
-        <v>351</v>
-      </c>
-      <c r="AY44" s="108">
+        <v>608</v>
+      </c>
+      <c r="AY45" s="108">
         <f t="shared" si="11"/>
-        <v>347</v>
-      </c>
-      <c r="AZ44" s="108">
+        <v>604</v>
+      </c>
+      <c r="AZ45" s="108">
         <f t="shared" si="11"/>
-        <v>344</v>
-      </c>
-      <c r="BA44" s="108">
+        <v>601</v>
+      </c>
+      <c r="BA45" s="108">
         <f t="shared" si="11"/>
-        <v>344</v>
-      </c>
-      <c r="BB44" s="108">
+        <v>601</v>
+      </c>
+      <c r="BB45" s="108">
         <f t="shared" si="11"/>
-        <v>344</v>
-      </c>
-      <c r="BC44" s="108">
+        <v>601</v>
+      </c>
+      <c r="BC45" s="108">
         <f t="shared" si="11"/>
-        <v>344</v>
-      </c>
-      <c r="BD44" s="108">
+        <v>601</v>
+      </c>
+      <c r="BD45" s="108">
         <f t="shared" si="11"/>
-        <v>344</v>
-      </c>
-      <c r="BE44" s="108">
+        <v>601</v>
+      </c>
+      <c r="BE45" s="108">
         <f t="shared" si="11"/>
-        <v>344</v>
-      </c>
-      <c r="BF44" s="108">
+        <v>601</v>
+      </c>
+      <c r="BF45" s="108">
         <f t="shared" si="11"/>
-        <v>344</v>
-      </c>
-      <c r="BG44" s="108">
+        <v>601</v>
+      </c>
+      <c r="BG45" s="108">
         <f t="shared" si="11"/>
-        <v>344</v>
-      </c>
-      <c r="BH44" s="108">
+        <v>601</v>
+      </c>
+      <c r="BH45" s="108">
         <f t="shared" si="11"/>
-        <v>344</v>
-      </c>
-      <c r="BI44" s="108">
+        <v>601</v>
+      </c>
+      <c r="BI45" s="108">
         <f t="shared" si="11"/>
-        <v>344</v>
-      </c>
-      <c r="BJ44" s="108">
+        <v>601</v>
+      </c>
+      <c r="BJ45" s="108">
         <f t="shared" si="11"/>
-        <v>344</v>
-      </c>
-      <c r="BK44" s="108"/>
-      <c r="BL44" s="108"/>
-      <c r="BM44" s="108"/>
-      <c r="BN44" s="108"/>
-      <c r="BO44" s="108"/>
-      <c r="BP44" s="108"/>
-      <c r="BQ44" s="108"/>
-      <c r="BR44" s="108"/>
-      <c r="BS44" s="108"/>
-      <c r="BT44" s="108"/>
-      <c r="BU44" s="108"/>
-      <c r="BV44" s="108"/>
-      <c r="BW44" s="108"/>
-      <c r="BX44" s="108"/>
-      <c r="BY44" s="108"/>
-      <c r="BZ44" s="108"/>
-      <c r="CA44" s="108"/>
-      <c r="CB44" s="108"/>
-      <c r="CC44" s="108"/>
-      <c r="CD44" s="108"/>
-      <c r="CE44" s="104">
-        <f>SUM(P44:CD44)</f>
-        <v>18928</v>
+        <v>601</v>
+      </c>
+      <c r="BK45" s="108"/>
+      <c r="BL45" s="108"/>
+      <c r="BM45" s="108"/>
+      <c r="BN45" s="108"/>
+      <c r="BO45" s="108"/>
+      <c r="BP45" s="108"/>
+      <c r="BQ45" s="108"/>
+      <c r="BR45" s="108"/>
+      <c r="BS45" s="108"/>
+      <c r="BT45" s="108"/>
+      <c r="BU45" s="108"/>
+      <c r="BV45" s="108"/>
+      <c r="BW45" s="108"/>
+      <c r="BX45" s="108"/>
+      <c r="BY45" s="108"/>
+      <c r="BZ45" s="108"/>
+      <c r="CA45" s="108"/>
+      <c r="CB45" s="108"/>
+      <c r="CC45" s="108"/>
+      <c r="CD45" s="108"/>
+      <c r="CE45" s="104">
+        <f>SUM(P45:CD45)</f>
+        <v>31007</v>
       </c>
     </row>
-    <row r="45" spans="1:83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:83" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E48" s="170" t="s">
+    <row r="48" spans="1:83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="5:54" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="F48" s="171"/>
-      <c r="G48" s="171"/>
-      <c r="H48" s="171"/>
-      <c r="I48" s="171"/>
-      <c r="J48" s="171"/>
-      <c r="K48" s="171"/>
-      <c r="L48" s="171"/>
-      <c r="M48" s="171"/>
-      <c r="N48" s="171"/>
-      <c r="O48" s="171"/>
-      <c r="P48" s="171"/>
-      <c r="Q48" s="171"/>
-      <c r="R48" s="171"/>
-      <c r="S48" s="171"/>
-      <c r="T48" s="171"/>
-      <c r="U48" s="171"/>
-      <c r="V48" s="171"/>
-      <c r="W48" s="171"/>
-      <c r="X48" s="171"/>
-      <c r="Y48" s="171"/>
-      <c r="Z48" s="171"/>
-      <c r="AA48" s="171"/>
-      <c r="AB48" s="171"/>
-      <c r="AC48" s="171"/>
-      <c r="AD48" s="171"/>
-      <c r="AE48" s="171"/>
-      <c r="AF48" s="171"/>
-      <c r="AG48" s="171"/>
-      <c r="AH48" s="171"/>
-      <c r="AI48" s="171"/>
-      <c r="AJ48" s="171"/>
-      <c r="AK48" s="171"/>
-      <c r="AL48" s="171"/>
-      <c r="AM48" s="171"/>
-      <c r="AN48" s="171"/>
-      <c r="AO48" s="171"/>
-      <c r="AP48" s="171"/>
-      <c r="AQ48" s="171"/>
-      <c r="AR48" s="171"/>
-      <c r="AS48" s="171"/>
-      <c r="AT48" s="171"/>
-      <c r="AU48" s="171"/>
-      <c r="AV48" s="171"/>
-      <c r="AW48" s="171"/>
-      <c r="AX48" s="171"/>
-      <c r="AY48" s="171"/>
-      <c r="AZ48" s="171"/>
-      <c r="BA48" s="171"/>
-      <c r="BB48" s="172"/>
+      <c r="F49" s="152"/>
+      <c r="G49" s="152"/>
+      <c r="H49" s="152"/>
+      <c r="I49" s="152"/>
+      <c r="J49" s="152"/>
+      <c r="K49" s="152"/>
+      <c r="L49" s="152"/>
+      <c r="M49" s="152"/>
+      <c r="N49" s="152"/>
+      <c r="O49" s="152"/>
+      <c r="P49" s="152"/>
+      <c r="Q49" s="152"/>
+      <c r="R49" s="152"/>
+      <c r="S49" s="152"/>
+      <c r="T49" s="152"/>
+      <c r="U49" s="152"/>
+      <c r="V49" s="152"/>
+      <c r="W49" s="152"/>
+      <c r="X49" s="152"/>
+      <c r="Y49" s="152"/>
+      <c r="Z49" s="152"/>
+      <c r="AA49" s="152"/>
+      <c r="AB49" s="152"/>
+      <c r="AC49" s="152"/>
+      <c r="AD49" s="152"/>
+      <c r="AE49" s="152"/>
+      <c r="AF49" s="152"/>
+      <c r="AG49" s="152"/>
+      <c r="AH49" s="152"/>
+      <c r="AI49" s="152"/>
+      <c r="AJ49" s="152"/>
+      <c r="AK49" s="152"/>
+      <c r="AL49" s="152"/>
+      <c r="AM49" s="152"/>
+      <c r="AN49" s="152"/>
+      <c r="AO49" s="152"/>
+      <c r="AP49" s="152"/>
+      <c r="AQ49" s="152"/>
+      <c r="AR49" s="152"/>
+      <c r="AS49" s="152"/>
+      <c r="AT49" s="152"/>
+      <c r="AU49" s="152"/>
+      <c r="AV49" s="152"/>
+      <c r="AW49" s="152"/>
+      <c r="AX49" s="152"/>
+      <c r="AY49" s="152"/>
+      <c r="AZ49" s="152"/>
+      <c r="BA49" s="152"/>
+      <c r="BB49" s="153"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="5:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="5:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="5:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="5:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="5:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="5:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="5:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="5:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="5:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="5:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="5:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="5:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="5:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="5:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="5:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8247,9 +8501,9 @@
     <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="381.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="223.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="381.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="223.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9165,9 +9419,17 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E48:BB48"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="E49:BB49"/>
     <mergeCell ref="BF8:BJ8"/>
     <mergeCell ref="BK8:BO8"/>
     <mergeCell ref="BP8:BT8"/>
@@ -9183,13 +9445,6 @@
     <mergeCell ref="AQ8:AU8"/>
     <mergeCell ref="AV8:AZ8"/>
     <mergeCell ref="BA8:BE8"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -9205,8 +9460,8 @@
   </sheetPr>
   <dimension ref="B1:N1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9229,59 +9484,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="139" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
+      <c r="B1" s="135" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="137" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="138" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="143" t="s">
+      <c r="C3" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="143" t="s">
+      <c r="D3" s="139" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="143" t="s">
+      <c r="E3" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="143" t="s">
+      <c r="F3" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="144" t="s">
+      <c r="G3" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="144" t="s">
+      <c r="H3" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="145" t="s">
+      <c r="I3" s="141" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="145" t="s">
+      <c r="J3" s="141" t="s">
         <v>63</v>
       </c>
       <c r="L3" s="111" t="s">
@@ -9292,29 +9547,29 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="138">
+      <c r="C4" s="134">
         <v>1</v>
       </c>
-      <c r="D4" s="138" t="s">
+      <c r="D4" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="138" t="s">
+      <c r="E4" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="138" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="147"/>
-      <c r="H4" s="148">
-        <v>8</v>
-      </c>
-      <c r="I4" s="149" t="s">
+      <c r="F4" s="134" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="143"/>
+      <c r="H4" s="144">
+        <v>40</v>
+      </c>
+      <c r="I4" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="150"/>
+      <c r="J4" s="146"/>
       <c r="L4" s="118" t="s">
         <v>69</v>
       </c>
@@ -9323,29 +9578,29 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="146" t="s">
+      <c r="B5" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="138">
+      <c r="C5" s="134">
         <v>2</v>
       </c>
-      <c r="D5" s="138" t="s">
+      <c r="D5" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="138" t="s">
+      <c r="E5" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="138" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" s="147"/>
-      <c r="H5" s="148">
-        <v>24</v>
-      </c>
-      <c r="I5" s="149" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="150"/>
+      <c r="F5" s="134" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="143"/>
+      <c r="H5" s="144">
+        <v>80</v>
+      </c>
+      <c r="I5" s="145" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="146"/>
       <c r="L5" s="120" t="s">
         <v>72</v>
       </c>
@@ -9354,29 +9609,29 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="138">
+      <c r="C6" s="134">
         <v>3</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="134" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="134" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="138" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="147"/>
-      <c r="H6" s="148">
+      <c r="F6" s="134" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="143"/>
+      <c r="H6" s="144">
         <v>40</v>
       </c>
-      <c r="I6" s="149" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="150"/>
+      <c r="I6" s="145" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="146"/>
       <c r="L6" s="121" t="s">
         <v>68</v>
       </c>
@@ -9385,29 +9640,29 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="138">
+      <c r="C7" s="134">
         <v>4</v>
       </c>
-      <c r="D7" s="138" t="s">
+      <c r="D7" s="134" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="138" t="s">
+      <c r="E7" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="138" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="147"/>
-      <c r="H7" s="148">
-        <v>16</v>
-      </c>
-      <c r="I7" s="149" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="150"/>
+      <c r="F7" s="134" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="143"/>
+      <c r="H7" s="144">
+        <v>40</v>
+      </c>
+      <c r="I7" s="145" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="146"/>
       <c r="N7" s="119">
         <v>8</v>
       </c>

--- a/documentation/Scrum.xlsx
+++ b/documentation/Scrum.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gianm\Desktop\UrbanWatch\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE26135F-EE69-4BCD-AA87-66E2F2A6BD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EAE777-5760-444B-910C-7A5CB76F3E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="120">
   <si>
     <t>SPRINTS</t>
   </si>
@@ -288,12 +288,6 @@
     <t>Execution of the final features, comprehensive testing of both the features and the fully deployed system.</t>
   </si>
   <si>
-    <t>SCRUM PROJECT MANAGEMENT ONE SPORT CHART</t>
-  </si>
-  <si>
-    <t>ONE SPORT CHART AND BURNDOWN</t>
-  </si>
-  <si>
     <t>3.1</t>
   </si>
   <si>
@@ -388,6 +382,18 @@
   </si>
   <si>
     <t>We utilized React to create the Frontend pages</t>
+  </si>
+  <si>
+    <t>Report Microservice</t>
+  </si>
+  <si>
+    <t>Pascucci + Carrozzo</t>
+  </si>
+  <si>
+    <t>URBAN WATCH CHART AND BURNDOWN</t>
+  </si>
+  <si>
+    <t>SCRUM PROJECT MANAGEMENT URBAN WATCH CHART</t>
   </si>
 </sst>
 </file>
@@ -1939,9 +1945,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2146,6 +2149,36 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2189,36 +2222,9 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2576,43 +2582,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>5</c:v>
@@ -2621,7 +2627,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>5</c:v>
@@ -2630,70 +2636,34 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="32">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2918,154 +2888,154 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>756</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>756</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>756</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>756</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>744.5454545454545</c:v>
+                  <c:v>202.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>733.09090909090901</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>721.63636363636351</c:v>
+                  <c:v>187.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>710.18181818181802</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>698.72727272727252</c:v>
+                  <c:v>172.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>687.27272727272702</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>675.81818181818153</c:v>
+                  <c:v>157.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>664.36363636363603</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>652.90909090909054</c:v>
+                  <c:v>142.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>641.45454545454504</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>629.99999999999955</c:v>
+                  <c:v>127.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>618.54545454545405</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>607.09090909090855</c:v>
+                  <c:v>112.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>595.63636363636306</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>584.18181818181756</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>572.72727272727207</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>561.27272727272657</c:v>
+                  <c:v>82.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>549.81818181818107</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>538.36363636363558</c:v>
+                  <c:v>67.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>526.90909090909008</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>515.45454545454459</c:v>
+                  <c:v>52.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>503.99999999999915</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>492.54545454545371</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>481.09090909090827</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>469.63636363636283</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>458.18181818181739</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>446.72727272727195</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>435.27272727272651</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>423.81818181818107</c:v>
+                  <c:v>-7.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>412.36363636363564</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>400.9090909090902</c:v>
+                  <c:v>-22.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>389.45454545454476</c:v>
+                  <c:v>-30</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>377.99999999999932</c:v>
+                  <c:v>-37.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>366.54545454545388</c:v>
+                  <c:v>-45</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>355.09090909090844</c:v>
+                  <c:v>-52.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>343.636363636363</c:v>
+                  <c:v>-60</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>332.18181818181756</c:v>
+                  <c:v>-67.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>320.72727272727212</c:v>
+                  <c:v>-75</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>309.27272727272668</c:v>
+                  <c:v>-82.5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>297.81818181818124</c:v>
+                  <c:v>-90</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>286.36363636363581</c:v>
+                  <c:v>-97.5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>274.90909090909037</c:v>
+                  <c:v>-105</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>263.45454545454493</c:v>
+                  <c:v>-112.5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>251.99999999999946</c:v>
+                  <c:v>-120</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>240.54545454545399</c:v>
+                  <c:v>-127.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>229.09090909090853</c:v>
+                  <c:v>-135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3262,154 +3232,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>756</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>753</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>750</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>756</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>751</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>746</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>743</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>740</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>737</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>731</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>728</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>724</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>718</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>711</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>706</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>701</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>696</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>691</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>686</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>683</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>680</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>677</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>673</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>670</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>666</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>662</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>659</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>656</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>653</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>650</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>647</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>643</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>639</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>635</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>631</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>623</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>616</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>612</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>608</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>604</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3606,154 +3576,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>753</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>750</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>747</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>751</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>746</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>743</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>740</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>737</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>731</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>728</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>724</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>718</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>711</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>706</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>701</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>696</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>691</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>686</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>683</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>680</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>677</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>673</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>670</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>666</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>662</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>659</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>656</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>653</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>650</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>647</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>643</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>639</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>635</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>631</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>623</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>616</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>612</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>608</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>604</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4220,8 +4190,8 @@
   </sheetPr>
   <dimension ref="A1:CE999"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AO37" sqref="AO37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4248,7 +4218,7 @@
   <sheetData>
     <row r="1" spans="2:73" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4283,7 +4253,7 @@
     </row>
     <row r="2" spans="2:73" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -4306,7 +4276,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="170" t="s">
+      <c r="K3" s="150" t="s">
         <v>0</v>
       </c>
       <c r="L3" s="6" t="s">
@@ -4343,7 +4313,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="171"/>
+      <c r="K4" s="151"/>
       <c r="L4" s="11" t="s">
         <v>2</v>
       </c>
@@ -4378,7 +4348,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="171"/>
+      <c r="K5" s="151"/>
       <c r="L5" s="15" t="s">
         <v>3</v>
       </c>
@@ -4453,7 +4423,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="172"/>
+      <c r="K6" s="152"/>
       <c r="L6" s="19" t="s">
         <v>4</v>
       </c>
@@ -4584,138 +4554,138 @@
       <c r="BU7" s="2"/>
     </row>
     <row r="8" spans="2:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="173" t="s">
+      <c r="B8" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="175" t="s">
+      <c r="C8" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="177" t="s">
+      <c r="D8" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="179" t="s">
+      <c r="E8" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="180"/>
-      <c r="G8" s="181"/>
-      <c r="H8" s="182" t="s">
+      <c r="F8" s="160"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="184" t="s">
+      <c r="I8" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="159" t="s">
+      <c r="J8" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="161" t="s">
+      <c r="K8" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="162" t="s">
+      <c r="L8" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="164" t="s">
+      <c r="M8" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="155"/>
-      <c r="O8" s="155"/>
-      <c r="P8" s="155"/>
-      <c r="Q8" s="156"/>
-      <c r="R8" s="165" t="s">
+      <c r="N8" s="170"/>
+      <c r="O8" s="170"/>
+      <c r="P8" s="170"/>
+      <c r="Q8" s="171"/>
+      <c r="R8" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="S8" s="155"/>
-      <c r="T8" s="155"/>
-      <c r="U8" s="155"/>
-      <c r="V8" s="156"/>
-      <c r="W8" s="165" t="s">
+      <c r="S8" s="170"/>
+      <c r="T8" s="170"/>
+      <c r="U8" s="170"/>
+      <c r="V8" s="171"/>
+      <c r="W8" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="X8" s="155"/>
-      <c r="Y8" s="155"/>
-      <c r="Z8" s="155"/>
-      <c r="AA8" s="158"/>
-      <c r="AB8" s="166" t="s">
+      <c r="X8" s="170"/>
+      <c r="Y8" s="170"/>
+      <c r="Z8" s="170"/>
+      <c r="AA8" s="173"/>
+      <c r="AB8" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="AC8" s="155"/>
-      <c r="AD8" s="155"/>
-      <c r="AE8" s="155"/>
-      <c r="AF8" s="156"/>
-      <c r="AG8" s="167" t="s">
+      <c r="AC8" s="170"/>
+      <c r="AD8" s="170"/>
+      <c r="AE8" s="170"/>
+      <c r="AF8" s="171"/>
+      <c r="AG8" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="AH8" s="155"/>
-      <c r="AI8" s="155"/>
-      <c r="AJ8" s="155"/>
-      <c r="AK8" s="156"/>
-      <c r="AL8" s="167" t="s">
+      <c r="AH8" s="170"/>
+      <c r="AI8" s="170"/>
+      <c r="AJ8" s="170"/>
+      <c r="AK8" s="171"/>
+      <c r="AL8" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="AM8" s="155"/>
-      <c r="AN8" s="155"/>
-      <c r="AO8" s="155"/>
-      <c r="AP8" s="158"/>
-      <c r="AQ8" s="168" t="s">
+      <c r="AM8" s="170"/>
+      <c r="AN8" s="170"/>
+      <c r="AO8" s="170"/>
+      <c r="AP8" s="173"/>
+      <c r="AQ8" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="AR8" s="155"/>
-      <c r="AS8" s="155"/>
-      <c r="AT8" s="155"/>
-      <c r="AU8" s="156"/>
-      <c r="AV8" s="169" t="s">
+      <c r="AR8" s="170"/>
+      <c r="AS8" s="170"/>
+      <c r="AT8" s="170"/>
+      <c r="AU8" s="171"/>
+      <c r="AV8" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="AW8" s="155"/>
-      <c r="AX8" s="155"/>
-      <c r="AY8" s="155"/>
-      <c r="AZ8" s="156"/>
-      <c r="BA8" s="169" t="s">
+      <c r="AW8" s="170"/>
+      <c r="AX8" s="170"/>
+      <c r="AY8" s="170"/>
+      <c r="AZ8" s="171"/>
+      <c r="BA8" s="184" t="s">
         <v>22</v>
       </c>
-      <c r="BB8" s="155"/>
-      <c r="BC8" s="155"/>
-      <c r="BD8" s="155"/>
-      <c r="BE8" s="158"/>
-      <c r="BF8" s="154" t="s">
+      <c r="BB8" s="170"/>
+      <c r="BC8" s="170"/>
+      <c r="BD8" s="170"/>
+      <c r="BE8" s="173"/>
+      <c r="BF8" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="BG8" s="155"/>
-      <c r="BH8" s="155"/>
-      <c r="BI8" s="155"/>
-      <c r="BJ8" s="156"/>
-      <c r="BK8" s="157" t="s">
+      <c r="BG8" s="170"/>
+      <c r="BH8" s="170"/>
+      <c r="BI8" s="170"/>
+      <c r="BJ8" s="171"/>
+      <c r="BK8" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="BL8" s="155"/>
-      <c r="BM8" s="155"/>
-      <c r="BN8" s="155"/>
-      <c r="BO8" s="156"/>
-      <c r="BP8" s="157" t="s">
+      <c r="BL8" s="170"/>
+      <c r="BM8" s="170"/>
+      <c r="BN8" s="170"/>
+      <c r="BO8" s="171"/>
+      <c r="BP8" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="BQ8" s="155"/>
-      <c r="BR8" s="155"/>
-      <c r="BS8" s="155"/>
-      <c r="BT8" s="158"/>
+      <c r="BQ8" s="170"/>
+      <c r="BR8" s="170"/>
+      <c r="BS8" s="170"/>
+      <c r="BT8" s="173"/>
     </row>
     <row r="9" spans="2:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="174"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="147" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="149" t="s">
+      <c r="B9" s="154"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="146" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="148" t="s">
+      <c r="G9" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="183"/>
-      <c r="I9" s="185"/>
-      <c r="J9" s="160"/>
-      <c r="K9" s="160"/>
-      <c r="L9" s="163"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="175"/>
+      <c r="K9" s="175"/>
+      <c r="L9" s="178"/>
       <c r="M9" s="21" t="s">
         <v>29</v>
       </c>
@@ -4991,13 +4961,13 @@
     </row>
     <row r="11" spans="2:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C11" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="49" t="s">
         <v>106</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>108</v>
       </c>
       <c r="E11" s="50">
         <v>20</v>
@@ -5012,10 +4982,10 @@
       <c r="H11" s="53">
         <v>1</v>
       </c>
-      <c r="I11" s="130">
+      <c r="I11" s="129">
         <v>45530</v>
       </c>
-      <c r="J11" s="130">
+      <c r="J11" s="129">
         <v>45532</v>
       </c>
       <c r="K11" s="54">
@@ -5089,13 +5059,13 @@
     </row>
     <row r="12" spans="2:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C12" s="48" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E12" s="50">
         <v>10</v>
@@ -5110,10 +5080,10 @@
       <c r="H12" s="53">
         <v>1</v>
       </c>
-      <c r="I12" s="130">
+      <c r="I12" s="129">
         <v>45531</v>
       </c>
-      <c r="J12" s="130">
+      <c r="J12" s="129">
         <v>45533</v>
       </c>
       <c r="K12" s="54">
@@ -5186,13 +5156,13 @@
     </row>
     <row r="13" spans="2:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C13" s="48" t="s">
         <v>79</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E13" s="50">
         <v>10</v>
@@ -5207,10 +5177,10 @@
       <c r="H13" s="53">
         <v>1</v>
       </c>
-      <c r="I13" s="130">
+      <c r="I13" s="129">
         <v>45533</v>
       </c>
-      <c r="J13" s="130">
+      <c r="J13" s="129">
         <v>45534</v>
       </c>
       <c r="K13" s="54">
@@ -5283,13 +5253,13 @@
     </row>
     <row r="14" spans="2:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C14" s="48" t="s">
         <v>80</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E14" s="50">
         <v>15</v>
@@ -5304,10 +5274,10 @@
       <c r="H14" s="53">
         <v>1</v>
       </c>
-      <c r="I14" s="130">
+      <c r="I14" s="129">
         <v>45537</v>
       </c>
-      <c r="J14" s="130">
+      <c r="J14" s="129">
         <v>45539</v>
       </c>
       <c r="K14" s="54">
@@ -5381,13 +5351,13 @@
     </row>
     <row r="15" spans="2:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="47" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E15" s="50">
         <v>10</v>
@@ -5402,10 +5372,10 @@
       <c r="H15" s="53">
         <v>1</v>
       </c>
-      <c r="I15" s="130">
+      <c r="I15" s="129">
         <v>45539</v>
       </c>
-      <c r="J15" s="130">
+      <c r="J15" s="129">
         <v>45541</v>
       </c>
       <c r="K15" s="54">
@@ -5497,10 +5467,11 @@
         <v>0</v>
       </c>
       <c r="H16" s="67"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="68">
-        <v>9</v>
+      <c r="I16" s="131"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="185">
+        <f>SUM(K17:K22)</f>
+        <v>14</v>
       </c>
       <c r="L16" s="43">
         <f>F16/E16</f>
@@ -5575,7 +5546,7 @@
         <v>78</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E17" s="50">
         <v>15</v>
@@ -5590,10 +5561,10 @@
       <c r="H17" s="53">
         <v>2</v>
       </c>
-      <c r="I17" s="131">
+      <c r="I17" s="130">
         <v>45544</v>
       </c>
-      <c r="J17" s="131">
+      <c r="J17" s="130">
         <v>45546</v>
       </c>
       <c r="K17" s="54">
@@ -5614,9 +5585,9 @@
       <c r="T17" s="59"/>
       <c r="U17" s="59"/>
       <c r="V17" s="59"/>
-      <c r="W17" s="129"/>
-      <c r="X17" s="129"/>
-      <c r="Y17" s="129"/>
+      <c r="W17" s="128"/>
+      <c r="X17" s="128"/>
+      <c r="Y17" s="128"/>
       <c r="Z17" s="58"/>
       <c r="AA17" s="60"/>
       <c r="AB17" s="61"/>
@@ -5667,13 +5638,13 @@
     </row>
     <row r="18" spans="1:73" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E18" s="50">
         <v>10</v>
@@ -5688,10 +5659,10 @@
       <c r="H18" s="53">
         <v>2</v>
       </c>
-      <c r="I18" s="131">
+      <c r="I18" s="130">
         <v>45544</v>
       </c>
-      <c r="J18" s="131">
+      <c r="J18" s="130">
         <v>45545</v>
       </c>
       <c r="K18" s="54">
@@ -5712,8 +5683,8 @@
       <c r="T18" s="59"/>
       <c r="U18" s="59"/>
       <c r="V18" s="59"/>
-      <c r="W18" s="129"/>
-      <c r="X18" s="129"/>
+      <c r="W18" s="128"/>
+      <c r="X18" s="128"/>
       <c r="Z18" s="58"/>
       <c r="AA18" s="60"/>
       <c r="AB18" s="61"/>
@@ -5764,13 +5735,13 @@
     </row>
     <row r="19" spans="1:73" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="128" t="s">
-        <v>109</v>
+        <v>93</v>
+      </c>
+      <c r="D19" s="127" t="s">
+        <v>107</v>
       </c>
       <c r="E19" s="50">
         <v>15</v>
@@ -5785,10 +5756,10 @@
       <c r="H19" s="53">
         <v>2</v>
       </c>
-      <c r="I19" s="131">
+      <c r="I19" s="130">
         <v>45547</v>
       </c>
-      <c r="J19" s="131">
+      <c r="J19" s="130">
         <v>45551</v>
       </c>
       <c r="K19" s="54">
@@ -5810,9 +5781,9 @@
       <c r="V19" s="59"/>
       <c r="W19" s="58"/>
       <c r="Y19" s="58"/>
-      <c r="Z19" s="129"/>
-      <c r="AA19" s="129"/>
-      <c r="AB19" s="69"/>
+      <c r="Z19" s="128"/>
+      <c r="AA19" s="128"/>
+      <c r="AB19" s="68"/>
       <c r="AC19" s="58"/>
       <c r="AD19" s="58"/>
       <c r="AE19" s="58"/>
@@ -5863,10 +5834,10 @@
         <v>36</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E20" s="50">
         <v>20</v>
@@ -5881,10 +5852,10 @@
       <c r="H20" s="53">
         <v>2</v>
       </c>
-      <c r="I20" s="131">
+      <c r="I20" s="130">
         <v>45551</v>
       </c>
-      <c r="J20" s="131">
+      <c r="J20" s="130">
         <v>45554</v>
       </c>
       <c r="K20" s="54">
@@ -5910,10 +5881,10 @@
       <c r="Y20" s="58"/>
       <c r="Z20" s="58"/>
       <c r="AA20" s="60"/>
-      <c r="AB20" s="69"/>
-      <c r="AC20" s="69"/>
-      <c r="AD20" s="69"/>
-      <c r="AE20" s="69"/>
+      <c r="AB20" s="68"/>
+      <c r="AC20" s="68"/>
+      <c r="AD20" s="68"/>
+      <c r="AE20" s="68"/>
       <c r="AF20" s="58"/>
       <c r="AG20" s="62"/>
       <c r="AH20" s="62"/>
@@ -5958,13 +5929,13 @@
     </row>
     <row r="21" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="150" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" s="128" t="s">
-        <v>109</v>
+        <v>87</v>
+      </c>
+      <c r="C21" s="149" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="127" t="s">
+        <v>107</v>
       </c>
       <c r="E21" s="50">
         <v>10</v>
@@ -5979,10 +5950,10 @@
       <c r="H21" s="53">
         <v>2</v>
       </c>
-      <c r="I21" s="131">
+      <c r="I21" s="130">
         <v>45554</v>
       </c>
-      <c r="J21" s="131">
+      <c r="J21" s="130">
         <v>45555</v>
       </c>
       <c r="K21" s="54">
@@ -6010,8 +5981,8 @@
       <c r="AA21" s="60"/>
       <c r="AB21" s="58"/>
       <c r="AD21" s="58"/>
-      <c r="AE21" s="69"/>
-      <c r="AF21" s="69"/>
+      <c r="AE21" s="68"/>
+      <c r="AF21" s="68"/>
       <c r="AG21" s="62"/>
       <c r="AH21" s="62"/>
       <c r="AI21" s="62"/>
@@ -6055,13 +6026,13 @@
     </row>
     <row r="22" spans="1:73" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="47" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E22" s="50">
         <v>5</v>
@@ -6076,10 +6047,10 @@
       <c r="H22" s="53">
         <v>2</v>
       </c>
-      <c r="I22" s="131">
+      <c r="I22" s="130">
         <v>45555</v>
       </c>
-      <c r="J22" s="131">
+      <c r="J22" s="130">
         <v>45555</v>
       </c>
       <c r="K22" s="54">
@@ -6108,7 +6079,7 @@
       <c r="AC22" s="58"/>
       <c r="AD22" s="58"/>
       <c r="AE22" s="58"/>
-      <c r="AF22" s="69"/>
+      <c r="AF22" s="68"/>
       <c r="AG22" s="62"/>
       <c r="AH22" s="62"/>
       <c r="AI22" s="62"/>
@@ -6171,10 +6142,11 @@
         <v>0</v>
       </c>
       <c r="H23" s="67"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="133"/>
-      <c r="K23" s="68">
-        <v>17</v>
+      <c r="I23" s="131"/>
+      <c r="J23" s="132"/>
+      <c r="K23" s="185">
+        <f>SUM(K24:K28)</f>
+        <v>13</v>
       </c>
       <c r="L23" s="43">
         <f t="shared" si="0"/>
@@ -6243,13 +6215,13 @@
     </row>
     <row r="24" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E24" s="50">
         <v>5</v>
@@ -6264,10 +6236,10 @@
       <c r="H24" s="53">
         <v>3</v>
       </c>
-      <c r="I24" s="131">
+      <c r="I24" s="130">
         <v>45558</v>
       </c>
-      <c r="J24" s="131">
+      <c r="J24" s="130">
         <v>45558</v>
       </c>
       <c r="K24" s="54">
@@ -6298,7 +6270,7 @@
       <c r="AD24" s="58"/>
       <c r="AE24" s="58"/>
       <c r="AF24" s="58"/>
-      <c r="AG24" s="69"/>
+      <c r="AG24" s="68"/>
       <c r="AH24" s="62"/>
       <c r="AI24" s="62"/>
       <c r="AJ24" s="62"/>
@@ -6344,10 +6316,10 @@
         <v>82</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E25" s="50">
         <v>15</v>
@@ -6362,10 +6334,10 @@
       <c r="H25" s="53">
         <v>3</v>
       </c>
-      <c r="I25" s="131">
+      <c r="I25" s="130">
         <v>45558</v>
       </c>
-      <c r="J25" s="131">
+      <c r="J25" s="130">
         <v>45560</v>
       </c>
       <c r="K25" s="54">
@@ -6395,9 +6367,9 @@
       <c r="AC25" s="58"/>
       <c r="AD25" s="58"/>
       <c r="AF25" s="58"/>
-      <c r="AG25" s="69"/>
-      <c r="AH25" s="69"/>
-      <c r="AI25" s="69"/>
+      <c r="AG25" s="68"/>
+      <c r="AH25" s="68"/>
+      <c r="AI25" s="68"/>
       <c r="AJ25" s="62"/>
       <c r="AK25" s="62"/>
       <c r="AL25" s="58"/>
@@ -6441,10 +6413,10 @@
         <v>38</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D26" s="49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E26" s="50">
         <v>20</v>
@@ -6459,10 +6431,10 @@
       <c r="H26" s="53">
         <v>3</v>
       </c>
-      <c r="I26" s="131">
+      <c r="I26" s="130">
         <v>45559</v>
       </c>
-      <c r="J26" s="131">
+      <c r="J26" s="130">
         <v>45562</v>
       </c>
       <c r="K26" s="54">
@@ -6493,10 +6465,10 @@
       <c r="AE26" s="58"/>
       <c r="AF26" s="58"/>
       <c r="AG26" s="62"/>
-      <c r="AH26" s="69"/>
-      <c r="AI26" s="69"/>
-      <c r="AJ26" s="69"/>
-      <c r="AK26" s="69"/>
+      <c r="AH26" s="68"/>
+      <c r="AI26" s="68"/>
+      <c r="AJ26" s="68"/>
+      <c r="AK26" s="68"/>
       <c r="AL26" s="58"/>
       <c r="AM26" s="58"/>
       <c r="AN26" s="58"/>
@@ -6538,10 +6510,10 @@
         <v>39</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E27" s="50">
         <v>10</v>
@@ -6556,10 +6528,10 @@
       <c r="H27" s="53">
         <v>3</v>
       </c>
-      <c r="I27" s="131">
+      <c r="I27" s="130">
         <v>45558</v>
       </c>
-      <c r="J27" s="131">
+      <c r="J27" s="130">
         <v>45560</v>
       </c>
       <c r="K27" s="54">
@@ -6590,9 +6562,9 @@
       <c r="AD27" s="58"/>
       <c r="AE27" s="58"/>
       <c r="AF27" s="58"/>
-      <c r="AG27" s="69"/>
-      <c r="AH27" s="69"/>
-      <c r="AI27" s="69"/>
+      <c r="AG27" s="68"/>
+      <c r="AH27" s="68"/>
+      <c r="AI27" s="68"/>
       <c r="AJ27" s="62"/>
       <c r="AK27" s="62"/>
       <c r="AL27" s="58"/>
@@ -6636,10 +6608,10 @@
         <v>40</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D28" s="49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E28" s="50">
         <v>5</v>
@@ -6654,10 +6626,10 @@
       <c r="H28" s="53">
         <v>3</v>
       </c>
-      <c r="I28" s="131">
+      <c r="I28" s="130">
         <v>45561</v>
       </c>
-      <c r="J28" s="131">
+      <c r="J28" s="130">
         <v>45562</v>
       </c>
       <c r="K28" s="54">
@@ -6691,8 +6663,8 @@
       <c r="AG28" s="62"/>
       <c r="AH28" s="62"/>
       <c r="AI28" s="62"/>
-      <c r="AJ28" s="69"/>
-      <c r="AK28" s="69"/>
+      <c r="AJ28" s="68"/>
+      <c r="AK28" s="68"/>
       <c r="AL28" s="58"/>
       <c r="AM28" s="58"/>
       <c r="AN28" s="58"/>
@@ -6738,22 +6710,23 @@
       </c>
       <c r="D29" s="66"/>
       <c r="E29" s="36">
-        <f>SUM(E30:E33)</f>
-        <v>13</v>
+        <f>SUM(E30:E34)</f>
+        <v>15</v>
       </c>
       <c r="F29" s="37">
-        <f>SUM(F30:F33)</f>
-        <v>13</v>
+        <f>SUM(F30:F34)</f>
+        <v>15</v>
       </c>
       <c r="G29" s="38">
         <f>SUM(E29-F29)</f>
         <v>0</v>
       </c>
       <c r="H29" s="67"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="133"/>
-      <c r="K29" s="68">
-        <v>13</v>
+      <c r="I29" s="131"/>
+      <c r="J29" s="132"/>
+      <c r="K29" s="185">
+        <f>SUM(K30:K34)</f>
+        <v>5</v>
       </c>
       <c r="L29" s="43">
         <f t="shared" si="0"/>
@@ -6825,10 +6798,10 @@
         <v>42</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D30" s="49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E30" s="50">
         <v>1</v>
@@ -6843,10 +6816,10 @@
       <c r="H30" s="53">
         <v>4</v>
       </c>
-      <c r="I30" s="131">
+      <c r="I30" s="130">
         <v>45572</v>
       </c>
-      <c r="J30" s="131">
+      <c r="J30" s="130">
         <v>45572</v>
       </c>
       <c r="K30" s="54">
@@ -6887,16 +6860,16 @@
       <c r="AN30" s="58"/>
       <c r="AO30" s="58"/>
       <c r="AP30" s="60"/>
-      <c r="AQ30" s="71"/>
+      <c r="AQ30" s="70"/>
       <c r="AR30" s="58"/>
-      <c r="AS30" s="70"/>
-      <c r="AT30" s="70"/>
-      <c r="AU30" s="70"/>
+      <c r="AS30" s="69"/>
+      <c r="AT30" s="69"/>
+      <c r="AU30" s="69"/>
       <c r="AV30" s="63"/>
       <c r="AW30" s="63"/>
-      <c r="AX30" s="83"/>
-      <c r="AY30" s="83"/>
-      <c r="AZ30" s="83"/>
+      <c r="AX30" s="82"/>
+      <c r="AY30" s="82"/>
+      <c r="AZ30" s="82"/>
       <c r="BA30" s="58"/>
       <c r="BB30" s="58"/>
       <c r="BC30" s="58"/>
@@ -6918,445 +6891,445 @@
       <c r="BT30" s="60"/>
     </row>
     <row r="31" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="73"/>
-      <c r="B31" s="74" t="s">
+      <c r="A31" s="72"/>
+      <c r="B31" s="73" t="s">
         <v>43</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" s="76">
+        <v>101</v>
+      </c>
+      <c r="D31" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="75">
         <v>3</v>
       </c>
-      <c r="F31" s="76">
+      <c r="F31" s="75">
         <v>3</v>
       </c>
-      <c r="G31" s="77">
+      <c r="G31" s="76">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H31" s="53">
         <v>4</v>
       </c>
-      <c r="I31" s="131">
+      <c r="I31" s="130">
         <v>45573</v>
       </c>
-      <c r="J31" s="131">
+      <c r="J31" s="130">
         <v>45573</v>
       </c>
-      <c r="K31" s="78">
+      <c r="K31" s="77">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="L31" s="79">
+      <c r="L31" s="78">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="70"/>
-      <c r="P31" s="70"/>
-      <c r="Q31" s="70"/>
-      <c r="R31" s="80"/>
-      <c r="S31" s="80"/>
-      <c r="T31" s="80"/>
-      <c r="U31" s="80"/>
-      <c r="V31" s="80"/>
-      <c r="W31" s="70"/>
-      <c r="X31" s="70"/>
-      <c r="Y31" s="70"/>
-      <c r="Z31" s="70"/>
-      <c r="AA31" s="81"/>
-      <c r="AB31" s="70"/>
-      <c r="AC31" s="70"/>
-      <c r="AD31" s="70"/>
-      <c r="AE31" s="70"/>
-      <c r="AF31" s="70"/>
-      <c r="AG31" s="82"/>
-      <c r="AH31" s="82"/>
-      <c r="AI31" s="82"/>
-      <c r="AJ31" s="82"/>
-      <c r="AK31" s="82"/>
-      <c r="AL31" s="70"/>
-      <c r="AM31" s="70"/>
-      <c r="AN31" s="70"/>
-      <c r="AO31" s="70"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="79"/>
+      <c r="S31" s="79"/>
+      <c r="T31" s="79"/>
+      <c r="U31" s="79"/>
+      <c r="V31" s="79"/>
+      <c r="W31" s="69"/>
+      <c r="X31" s="69"/>
+      <c r="Y31" s="69"/>
+      <c r="Z31" s="69"/>
+      <c r="AA31" s="80"/>
+      <c r="AB31" s="69"/>
+      <c r="AC31" s="69"/>
+      <c r="AD31" s="69"/>
+      <c r="AE31" s="69"/>
+      <c r="AF31" s="69"/>
+      <c r="AG31" s="81"/>
+      <c r="AH31" s="81"/>
+      <c r="AI31" s="81"/>
+      <c r="AJ31" s="81"/>
+      <c r="AK31" s="81"/>
+      <c r="AL31" s="69"/>
+      <c r="AM31" s="69"/>
+      <c r="AN31" s="69"/>
+      <c r="AO31" s="69"/>
       <c r="AP31" s="60"/>
-      <c r="AQ31" s="70"/>
-      <c r="AR31" s="71"/>
-      <c r="AS31" s="70"/>
+      <c r="AQ31" s="69"/>
+      <c r="AR31" s="70"/>
+      <c r="AS31" s="69"/>
       <c r="AT31" s="58"/>
-      <c r="AU31" s="70"/>
-      <c r="AV31" s="83"/>
-      <c r="AW31" s="83"/>
-      <c r="AX31" s="83"/>
-      <c r="AY31" s="83"/>
-      <c r="AZ31" s="83"/>
-      <c r="BA31" s="70"/>
-      <c r="BB31" s="70"/>
-      <c r="BC31" s="70"/>
-      <c r="BD31" s="70"/>
-      <c r="BE31" s="81"/>
-      <c r="BF31" s="72"/>
-      <c r="BG31" s="70"/>
-      <c r="BH31" s="72"/>
-      <c r="BI31" s="72"/>
+      <c r="AU31" s="69"/>
+      <c r="AV31" s="82"/>
+      <c r="AW31" s="82"/>
+      <c r="AX31" s="82"/>
+      <c r="AY31" s="82"/>
+      <c r="AZ31" s="82"/>
+      <c r="BA31" s="69"/>
+      <c r="BB31" s="69"/>
+      <c r="BC31" s="69"/>
+      <c r="BD31" s="69"/>
+      <c r="BE31" s="80"/>
+      <c r="BF31" s="71"/>
+      <c r="BG31" s="69"/>
+      <c r="BH31" s="71"/>
+      <c r="BI31" s="71"/>
       <c r="BK31" s="64"/>
       <c r="BL31" s="64"/>
       <c r="BM31" s="64"/>
       <c r="BN31" s="64"/>
       <c r="BO31" s="64"/>
-      <c r="BP31" s="70"/>
-      <c r="BQ31" s="70"/>
-      <c r="BR31" s="70"/>
-      <c r="BS31" s="70"/>
-      <c r="BT31" s="81"/>
-      <c r="BU31" s="85"/>
+      <c r="BP31" s="69"/>
+      <c r="BQ31" s="69"/>
+      <c r="BR31" s="69"/>
+      <c r="BS31" s="69"/>
+      <c r="BT31" s="80"/>
+      <c r="BU31" s="84"/>
     </row>
     <row r="32" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="73"/>
-      <c r="B32" s="74" t="s">
+      <c r="A32" s="72"/>
+      <c r="B32" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="75" t="s">
-        <v>109</v>
-      </c>
-      <c r="E32" s="76">
+      <c r="C32" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="75">
         <v>4</v>
       </c>
-      <c r="F32" s="76">
+      <c r="F32" s="75">
         <v>4</v>
       </c>
-      <c r="G32" s="77">
+      <c r="G32" s="76">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H32" s="53">
         <v>4</v>
       </c>
-      <c r="I32" s="131">
+      <c r="I32" s="130">
         <v>45574</v>
       </c>
-      <c r="J32" s="131">
+      <c r="J32" s="130">
         <v>45574</v>
       </c>
-      <c r="K32" s="78">
+      <c r="K32" s="77">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="L32" s="79">
+      <c r="L32" s="78">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M32" s="70"/>
-      <c r="N32" s="70"/>
-      <c r="O32" s="70"/>
-      <c r="P32" s="70"/>
-      <c r="Q32" s="70"/>
-      <c r="R32" s="80"/>
-      <c r="S32" s="80"/>
-      <c r="T32" s="80"/>
-      <c r="U32" s="80"/>
-      <c r="V32" s="80"/>
-      <c r="W32" s="70"/>
-      <c r="X32" s="70"/>
-      <c r="Y32" s="70"/>
-      <c r="Z32" s="70"/>
-      <c r="AA32" s="81"/>
-      <c r="AB32" s="70"/>
-      <c r="AC32" s="70"/>
-      <c r="AD32" s="70"/>
-      <c r="AE32" s="70"/>
-      <c r="AF32" s="70"/>
-      <c r="AG32" s="82"/>
-      <c r="AH32" s="82"/>
-      <c r="AI32" s="82"/>
-      <c r="AJ32" s="82"/>
-      <c r="AK32" s="82"/>
-      <c r="AL32" s="70"/>
-      <c r="AM32" s="70"/>
-      <c r="AN32" s="70"/>
-      <c r="AO32" s="70"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="69"/>
+      <c r="Q32" s="69"/>
+      <c r="R32" s="79"/>
+      <c r="S32" s="79"/>
+      <c r="T32" s="79"/>
+      <c r="U32" s="79"/>
+      <c r="V32" s="79"/>
+      <c r="W32" s="69"/>
+      <c r="X32" s="69"/>
+      <c r="Y32" s="69"/>
+      <c r="Z32" s="69"/>
+      <c r="AA32" s="80"/>
+      <c r="AB32" s="69"/>
+      <c r="AC32" s="69"/>
+      <c r="AD32" s="69"/>
+      <c r="AE32" s="69"/>
+      <c r="AF32" s="69"/>
+      <c r="AG32" s="81"/>
+      <c r="AH32" s="81"/>
+      <c r="AI32" s="81"/>
+      <c r="AJ32" s="81"/>
+      <c r="AK32" s="81"/>
+      <c r="AL32" s="69"/>
+      <c r="AM32" s="69"/>
+      <c r="AN32" s="69"/>
+      <c r="AO32" s="69"/>
       <c r="AP32" s="60"/>
-      <c r="AQ32" s="70"/>
-      <c r="AR32" s="70"/>
-      <c r="AS32" s="71"/>
-      <c r="AT32" s="70"/>
-      <c r="AU32" s="70"/>
-      <c r="AV32" s="83"/>
-      <c r="AW32" s="83"/>
-      <c r="AX32" s="83"/>
-      <c r="AY32" s="83"/>
-      <c r="AZ32" s="83"/>
-      <c r="BA32" s="70"/>
-      <c r="BB32" s="70"/>
-      <c r="BC32" s="70"/>
-      <c r="BD32" s="70"/>
-      <c r="BE32" s="81"/>
-      <c r="BF32" s="72"/>
-      <c r="BG32" s="70"/>
-      <c r="BH32" s="70"/>
-      <c r="BI32" s="70"/>
-      <c r="BJ32" s="70"/>
-      <c r="BK32" s="84"/>
-      <c r="BL32" s="84"/>
-      <c r="BM32" s="84"/>
-      <c r="BN32" s="84"/>
-      <c r="BO32" s="84"/>
+      <c r="AQ32" s="69"/>
+      <c r="AR32" s="69"/>
+      <c r="AS32" s="70"/>
+      <c r="AT32" s="69"/>
+      <c r="AU32" s="69"/>
+      <c r="AV32" s="82"/>
+      <c r="AW32" s="82"/>
+      <c r="AX32" s="82"/>
+      <c r="AY32" s="82"/>
+      <c r="AZ32" s="82"/>
+      <c r="BA32" s="69"/>
+      <c r="BB32" s="69"/>
+      <c r="BC32" s="69"/>
+      <c r="BD32" s="69"/>
+      <c r="BE32" s="80"/>
+      <c r="BF32" s="71"/>
+      <c r="BG32" s="69"/>
+      <c r="BH32" s="69"/>
+      <c r="BI32" s="69"/>
+      <c r="BJ32" s="69"/>
+      <c r="BK32" s="83"/>
+      <c r="BL32" s="83"/>
+      <c r="BM32" s="83"/>
+      <c r="BN32" s="83"/>
+      <c r="BO32" s="83"/>
       <c r="BP32" s="58"/>
       <c r="BR32" s="58"/>
-      <c r="BS32" s="70"/>
-      <c r="BT32" s="81"/>
-      <c r="BU32" s="85"/>
+      <c r="BS32" s="69"/>
+      <c r="BT32" s="80"/>
+      <c r="BU32" s="84"/>
     </row>
     <row r="33" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="86" t="s">
+      <c r="B33" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="87" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" s="88" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" s="89">
+      <c r="C33" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="88">
         <v>5</v>
       </c>
-      <c r="F33" s="90">
+      <c r="F33" s="89">
         <v>5</v>
       </c>
-      <c r="G33" s="91">
+      <c r="G33" s="90">
         <f>E33-F33</f>
         <v>0</v>
       </c>
       <c r="H33" s="53">
         <v>4</v>
       </c>
-      <c r="I33" s="131">
+      <c r="I33" s="130">
         <v>45575</v>
       </c>
-      <c r="J33" s="131">
+      <c r="J33" s="130">
         <v>45575</v>
       </c>
-      <c r="K33" s="92">
+      <c r="K33" s="91">
         <f>J33-I33+1</f>
         <v>1</v>
       </c>
-      <c r="L33" s="93">
+      <c r="L33" s="92">
         <f>F33/E33</f>
         <v>1</v>
       </c>
-      <c r="M33" s="94"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="96"/>
-      <c r="V33" s="96"/>
-      <c r="W33" s="95"/>
-      <c r="X33" s="95"/>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="95"/>
-      <c r="AA33" s="97"/>
-      <c r="AB33" s="94"/>
-      <c r="AC33" s="95"/>
-      <c r="AD33" s="95"/>
-      <c r="AE33" s="95"/>
-      <c r="AF33" s="95"/>
-      <c r="AG33" s="98"/>
-      <c r="AH33" s="98"/>
-      <c r="AI33" s="98"/>
-      <c r="AJ33" s="98"/>
-      <c r="AK33" s="98"/>
-      <c r="AL33" s="95"/>
-      <c r="AM33" s="95"/>
-      <c r="AN33" s="95"/>
-      <c r="AO33" s="95"/>
-      <c r="AP33" s="97"/>
-      <c r="AQ33" s="95"/>
-      <c r="AR33" s="95"/>
-      <c r="AS33" s="71"/>
-      <c r="AT33" s="95"/>
-      <c r="AU33" s="95"/>
-      <c r="AV33" s="99"/>
-      <c r="AW33" s="99"/>
-      <c r="AX33" s="99"/>
-      <c r="AY33" s="99"/>
-      <c r="AZ33" s="99"/>
-      <c r="BA33" s="95"/>
-      <c r="BB33" s="95"/>
-      <c r="BC33" s="95"/>
-      <c r="BD33" s="95"/>
-      <c r="BE33" s="97"/>
-      <c r="BF33" s="94"/>
-      <c r="BG33" s="95"/>
-      <c r="BH33" s="95"/>
-      <c r="BI33" s="95"/>
-      <c r="BJ33" s="95"/>
-      <c r="BK33" s="100"/>
-      <c r="BL33" s="100"/>
-      <c r="BM33" s="100"/>
-      <c r="BN33" s="100"/>
-      <c r="BO33" s="100"/>
-      <c r="BP33" s="95"/>
-      <c r="BQ33" s="95"/>
-      <c r="BR33" s="95"/>
-      <c r="BS33" s="95"/>
-      <c r="BT33" s="81"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="95"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="95"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="94"/>
+      <c r="Z33" s="94"/>
+      <c r="AA33" s="96"/>
+      <c r="AB33" s="93"/>
+      <c r="AC33" s="94"/>
+      <c r="AD33" s="94"/>
+      <c r="AE33" s="94"/>
+      <c r="AF33" s="94"/>
+      <c r="AG33" s="97"/>
+      <c r="AH33" s="97"/>
+      <c r="AI33" s="97"/>
+      <c r="AJ33" s="97"/>
+      <c r="AK33" s="97"/>
+      <c r="AL33" s="94"/>
+      <c r="AM33" s="94"/>
+      <c r="AN33" s="94"/>
+      <c r="AO33" s="94"/>
+      <c r="AP33" s="96"/>
+      <c r="AQ33" s="94"/>
+      <c r="AR33" s="94"/>
+      <c r="AS33" s="70"/>
+      <c r="AT33" s="94"/>
+      <c r="AU33" s="94"/>
+      <c r="AV33" s="98"/>
+      <c r="AW33" s="98"/>
+      <c r="AX33" s="98"/>
+      <c r="AY33" s="98"/>
+      <c r="AZ33" s="98"/>
+      <c r="BA33" s="94"/>
+      <c r="BB33" s="94"/>
+      <c r="BC33" s="94"/>
+      <c r="BD33" s="94"/>
+      <c r="BE33" s="96"/>
+      <c r="BF33" s="93"/>
+      <c r="BG33" s="94"/>
+      <c r="BH33" s="94"/>
+      <c r="BI33" s="94"/>
+      <c r="BJ33" s="94"/>
+      <c r="BK33" s="99"/>
+      <c r="BL33" s="99"/>
+      <c r="BM33" s="99"/>
+      <c r="BN33" s="99"/>
+      <c r="BO33" s="99"/>
+      <c r="BP33" s="94"/>
+      <c r="BQ33" s="94"/>
+      <c r="BR33" s="94"/>
+      <c r="BS33" s="94"/>
+      <c r="BT33" s="80"/>
     </row>
     <row r="34" spans="1:83" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="86" t="s">
+      <c r="B34" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="87" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="88" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" s="89">
+      <c r="C34" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="88">
         <v>2</v>
       </c>
-      <c r="F34" s="90">
+      <c r="F34" s="89">
         <v>2</v>
       </c>
-      <c r="G34" s="91">
+      <c r="G34" s="90">
         <f>E34-F34</f>
         <v>0</v>
       </c>
       <c r="H34" s="53">
         <v>4</v>
       </c>
-      <c r="I34" s="131">
+      <c r="I34" s="130">
         <v>45575</v>
       </c>
-      <c r="J34" s="131">
+      <c r="J34" s="130">
         <v>45575</v>
       </c>
-      <c r="K34" s="92">
+      <c r="K34" s="91">
         <f>J34-I34+1</f>
         <v>1</v>
       </c>
-      <c r="L34" s="93">
+      <c r="L34" s="92">
         <f>F34/E34</f>
         <v>1</v>
       </c>
-      <c r="M34" s="94"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="95"/>
-      <c r="Q34" s="95"/>
-      <c r="R34" s="96"/>
-      <c r="S34" s="96"/>
-      <c r="T34" s="96"/>
-      <c r="U34" s="96"/>
-      <c r="V34" s="96"/>
-      <c r="W34" s="95"/>
-      <c r="X34" s="95"/>
-      <c r="Y34" s="95"/>
-      <c r="Z34" s="95"/>
-      <c r="AA34" s="97"/>
-      <c r="AB34" s="94"/>
-      <c r="AC34" s="95"/>
-      <c r="AD34" s="95"/>
-      <c r="AE34" s="95"/>
-      <c r="AF34" s="95"/>
-      <c r="AG34" s="98"/>
-      <c r="AH34" s="98"/>
-      <c r="AI34" s="98"/>
-      <c r="AJ34" s="98"/>
-      <c r="AK34" s="98"/>
-      <c r="AL34" s="95"/>
-      <c r="AM34" s="95"/>
-      <c r="AN34" s="95"/>
-      <c r="AO34" s="95"/>
-      <c r="AP34" s="97"/>
-      <c r="AQ34" s="95"/>
-      <c r="AR34" s="95"/>
-      <c r="AS34" s="71"/>
-      <c r="AT34" s="95"/>
-      <c r="AU34" s="95"/>
-      <c r="AV34" s="99"/>
-      <c r="AW34" s="99"/>
-      <c r="AX34" s="99"/>
-      <c r="AY34" s="99"/>
-      <c r="AZ34" s="99"/>
-      <c r="BA34" s="95"/>
-      <c r="BB34" s="95"/>
-      <c r="BC34" s="95"/>
-      <c r="BD34" s="95"/>
-      <c r="BE34" s="97"/>
-      <c r="BF34" s="94"/>
-      <c r="BG34" s="95"/>
-      <c r="BH34" s="95"/>
-      <c r="BI34" s="95"/>
-      <c r="BJ34" s="95"/>
-      <c r="BK34" s="100"/>
-      <c r="BL34" s="100"/>
-      <c r="BM34" s="100"/>
-      <c r="BN34" s="100"/>
-      <c r="BO34" s="100"/>
-      <c r="BP34" s="95"/>
-      <c r="BQ34" s="95"/>
-      <c r="BR34" s="95"/>
-      <c r="BS34" s="95"/>
-      <c r="BT34" s="95"/>
+      <c r="M34" s="93"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="95"/>
+      <c r="S34" s="95"/>
+      <c r="T34" s="95"/>
+      <c r="U34" s="95"/>
+      <c r="V34" s="95"/>
+      <c r="W34" s="94"/>
+      <c r="X34" s="94"/>
+      <c r="Y34" s="94"/>
+      <c r="Z34" s="94"/>
+      <c r="AA34" s="96"/>
+      <c r="AB34" s="93"/>
+      <c r="AC34" s="94"/>
+      <c r="AD34" s="94"/>
+      <c r="AE34" s="94"/>
+      <c r="AF34" s="94"/>
+      <c r="AG34" s="97"/>
+      <c r="AH34" s="97"/>
+      <c r="AI34" s="97"/>
+      <c r="AJ34" s="97"/>
+      <c r="AK34" s="97"/>
+      <c r="AL34" s="94"/>
+      <c r="AM34" s="94"/>
+      <c r="AN34" s="94"/>
+      <c r="AO34" s="94"/>
+      <c r="AP34" s="96"/>
+      <c r="AQ34" s="94"/>
+      <c r="AR34" s="94"/>
+      <c r="AS34" s="70"/>
+      <c r="AT34" s="94"/>
+      <c r="AU34" s="94"/>
+      <c r="AV34" s="98"/>
+      <c r="AW34" s="98"/>
+      <c r="AX34" s="98"/>
+      <c r="AY34" s="98"/>
+      <c r="AZ34" s="98"/>
+      <c r="BA34" s="94"/>
+      <c r="BB34" s="94"/>
+      <c r="BC34" s="94"/>
+      <c r="BD34" s="94"/>
+      <c r="BE34" s="96"/>
+      <c r="BF34" s="93"/>
+      <c r="BG34" s="94"/>
+      <c r="BH34" s="94"/>
+      <c r="BI34" s="94"/>
+      <c r="BJ34" s="94"/>
+      <c r="BK34" s="99"/>
+      <c r="BL34" s="99"/>
+      <c r="BM34" s="99"/>
+      <c r="BN34" s="99"/>
+      <c r="BO34" s="99"/>
+      <c r="BP34" s="94"/>
+      <c r="BQ34" s="94"/>
+      <c r="BR34" s="94"/>
+      <c r="BS34" s="94"/>
+      <c r="BT34" s="94"/>
     </row>
     <row r="36" spans="1:83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="73"/>
-      <c r="BU36" s="85"/>
-      <c r="BV36" s="85"/>
-      <c r="BW36" s="85"/>
-      <c r="BX36" s="85"/>
-      <c r="BY36" s="85"/>
-      <c r="BZ36" s="85"/>
-      <c r="CA36" s="85"/>
-      <c r="CB36" s="85"/>
-      <c r="CC36" s="85"/>
-      <c r="CD36" s="85"/>
-      <c r="CE36" s="85"/>
+      <c r="A36" s="72"/>
+      <c r="BU36" s="84"/>
+      <c r="BV36" s="84"/>
+      <c r="BW36" s="84"/>
+      <c r="BX36" s="84"/>
+      <c r="BY36" s="84"/>
+      <c r="BZ36" s="84"/>
+      <c r="CA36" s="84"/>
+      <c r="CB36" s="84"/>
+      <c r="CC36" s="84"/>
+      <c r="CD36" s="84"/>
+      <c r="CE36" s="84"/>
     </row>
     <row r="37" spans="1:83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="73"/>
-      <c r="BU37" s="85"/>
-      <c r="BV37" s="85"/>
-      <c r="BW37" s="85"/>
-      <c r="BX37" s="85"/>
-      <c r="BY37" s="85"/>
-      <c r="BZ37" s="85"/>
-      <c r="CA37" s="85"/>
-      <c r="CB37" s="85"/>
-      <c r="CC37" s="85"/>
-      <c r="CD37" s="85"/>
-      <c r="CE37" s="85"/>
+      <c r="A37" s="72"/>
+      <c r="BU37" s="84"/>
+      <c r="BV37" s="84"/>
+      <c r="BW37" s="84"/>
+      <c r="BX37" s="84"/>
+      <c r="BY37" s="84"/>
+      <c r="BZ37" s="84"/>
+      <c r="CA37" s="84"/>
+      <c r="CB37" s="84"/>
+      <c r="CC37" s="84"/>
+      <c r="CD37" s="84"/>
+      <c r="CE37" s="84"/>
     </row>
     <row r="38" spans="1:83" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="101"/>
-      <c r="D38" s="101"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
     </row>
     <row r="39" spans="1:83" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="102" t="s">
+      <c r="E39" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="102" t="s">
+      <c r="F39" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="102" t="s">
+      <c r="G39" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="H39" s="102" t="s">
+      <c r="H39" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="I39" s="102" t="s">
+      <c r="I39" s="101" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7365,708 +7338,708 @@
       <c r="C41" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="103" t="s">
+      <c r="D41" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="104">
-        <f>SUM(E11:E15,E18:E22,E13:E28,E30:E33,E13:E37)</f>
-        <v>756</v>
-      </c>
-      <c r="F41" s="104">
-        <f>SUM(F11:F15,F18:F22,F13:F28,F30:F33,F13:F37)</f>
-        <v>756</v>
-      </c>
-      <c r="G41" s="104">
-        <f>SUM(G11:G15,G18:G22,G13:G28,G30:G33)</f>
+      <c r="E41" s="103">
+        <f>SUM(E10+E16+E23+E29)</f>
+        <v>210</v>
+      </c>
+      <c r="F41" s="103">
+        <f>SUM(F10+F16+F23+F29)</f>
+        <v>210</v>
+      </c>
+      <c r="G41" s="103">
+        <f>SUM(G10+G16+G23+G29)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="104">
-        <v>66</v>
-      </c>
-      <c r="I41" s="104">
+      <c r="H41" s="103">
+        <v>28</v>
+      </c>
+      <c r="I41" s="103">
         <f>E41/H41</f>
-        <v>11.454545454545455</v>
-      </c>
-      <c r="L41" s="105" t="s">
+        <v>7.5</v>
+      </c>
+      <c r="L41" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="M41" s="106">
+      <c r="M41" s="105">
         <v>1</v>
       </c>
-      <c r="N41" s="106">
+      <c r="N41" s="105">
         <v>2</v>
       </c>
-      <c r="O41" s="106">
+      <c r="O41" s="105">
         <v>3</v>
       </c>
-      <c r="P41" s="106">
+      <c r="P41" s="105">
         <v>4</v>
       </c>
-      <c r="Q41" s="106">
+      <c r="Q41" s="105">
         <v>5</v>
       </c>
-      <c r="R41" s="106">
+      <c r="R41" s="105">
         <v>6</v>
       </c>
-      <c r="S41" s="106">
+      <c r="S41" s="105">
         <v>7</v>
       </c>
-      <c r="T41" s="106">
+      <c r="T41" s="105">
         <v>8</v>
       </c>
-      <c r="U41" s="106">
+      <c r="U41" s="105">
         <v>9</v>
       </c>
-      <c r="V41" s="106">
+      <c r="V41" s="105">
         <v>10</v>
       </c>
-      <c r="W41" s="106">
+      <c r="W41" s="105">
         <v>11</v>
       </c>
-      <c r="X41" s="106">
+      <c r="X41" s="105">
         <v>12</v>
       </c>
-      <c r="Y41" s="106">
+      <c r="Y41" s="105">
         <v>13</v>
       </c>
-      <c r="Z41" s="106">
+      <c r="Z41" s="105">
         <v>14</v>
       </c>
-      <c r="AA41" s="106">
+      <c r="AA41" s="105">
         <v>15</v>
       </c>
-      <c r="AB41" s="106">
+      <c r="AB41" s="105">
         <v>16</v>
       </c>
-      <c r="AC41" s="106">
+      <c r="AC41" s="105">
         <v>17</v>
       </c>
-      <c r="AD41" s="106">
+      <c r="AD41" s="105">
         <v>18</v>
       </c>
-      <c r="AE41" s="106">
+      <c r="AE41" s="105">
         <v>19</v>
       </c>
-      <c r="AF41" s="106">
+      <c r="AF41" s="105">
         <v>20</v>
       </c>
-      <c r="AG41" s="106">
+      <c r="AG41" s="105">
         <v>21</v>
       </c>
-      <c r="AH41" s="106">
+      <c r="AH41" s="105">
         <v>22</v>
       </c>
-      <c r="AI41" s="106">
+      <c r="AI41" s="105">
         <v>23</v>
       </c>
-      <c r="AJ41" s="106">
+      <c r="AJ41" s="105">
         <v>24</v>
       </c>
-      <c r="AK41" s="106">
+      <c r="AK41" s="105">
         <v>25</v>
       </c>
-      <c r="AL41" s="106">
+      <c r="AL41" s="105">
         <v>26</v>
       </c>
-      <c r="AM41" s="106">
+      <c r="AM41" s="105">
         <v>27</v>
       </c>
-      <c r="AN41" s="106">
+      <c r="AN41" s="105">
         <v>28</v>
       </c>
-      <c r="AO41" s="106">
+      <c r="AO41" s="105">
         <v>29</v>
       </c>
-      <c r="AP41" s="106">
+      <c r="AP41" s="105">
         <v>30</v>
       </c>
-      <c r="AQ41" s="106">
+      <c r="AQ41" s="105">
         <v>31</v>
       </c>
-      <c r="AR41" s="106">
+      <c r="AR41" s="105">
         <v>32</v>
       </c>
-      <c r="AS41" s="106">
+      <c r="AS41" s="105">
         <v>33</v>
       </c>
-      <c r="AT41" s="106">
+      <c r="AT41" s="105">
         <v>34</v>
       </c>
-      <c r="AU41" s="106">
+      <c r="AU41" s="105">
         <v>35</v>
       </c>
-      <c r="AV41" s="106">
+      <c r="AV41" s="105">
         <v>36</v>
       </c>
-      <c r="AW41" s="106">
+      <c r="AW41" s="105">
         <v>37</v>
       </c>
-      <c r="AX41" s="106">
+      <c r="AX41" s="105">
         <v>38</v>
       </c>
-      <c r="AY41" s="106">
+      <c r="AY41" s="105">
         <v>39</v>
       </c>
-      <c r="AZ41" s="106">
+      <c r="AZ41" s="105">
         <v>40</v>
       </c>
-      <c r="BA41" s="106">
+      <c r="BA41" s="105">
         <v>41</v>
       </c>
-      <c r="BB41" s="106">
+      <c r="BB41" s="105">
         <v>42</v>
       </c>
-      <c r="BC41" s="106">
+      <c r="BC41" s="105">
         <v>43</v>
       </c>
-      <c r="BD41" s="106">
+      <c r="BD41" s="105">
         <v>44</v>
       </c>
-      <c r="BE41" s="106">
+      <c r="BE41" s="105">
         <v>45</v>
       </c>
-      <c r="BF41" s="106">
+      <c r="BF41" s="105">
         <v>46</v>
       </c>
-      <c r="BG41" s="106">
+      <c r="BG41" s="105">
         <v>47</v>
       </c>
-      <c r="BH41" s="106">
+      <c r="BH41" s="105">
         <v>48</v>
       </c>
-      <c r="BI41" s="106">
+      <c r="BI41" s="105">
         <v>49</v>
       </c>
-      <c r="BJ41" s="106">
+      <c r="BJ41" s="105">
         <v>50</v>
       </c>
-      <c r="BK41" s="106"/>
-      <c r="BL41" s="106"/>
-      <c r="BM41" s="106"/>
-      <c r="BN41" s="106"/>
-      <c r="BO41" s="106"/>
-      <c r="BP41" s="106"/>
-      <c r="BQ41" s="106"/>
-      <c r="BR41" s="106"/>
-      <c r="BS41" s="106"/>
-      <c r="BT41" s="106"/>
-      <c r="BU41" s="106"/>
-      <c r="BV41" s="106"/>
-      <c r="BW41" s="106"/>
-      <c r="BX41" s="106"/>
-      <c r="BY41" s="106"/>
-      <c r="BZ41" s="106"/>
-      <c r="CA41" s="106"/>
-      <c r="CB41" s="106"/>
-      <c r="CC41" s="106"/>
-      <c r="CD41" s="106"/>
-      <c r="CE41" s="103" t="s">
+      <c r="BK41" s="105"/>
+      <c r="BL41" s="105"/>
+      <c r="BM41" s="105"/>
+      <c r="BN41" s="105"/>
+      <c r="BO41" s="105"/>
+      <c r="BP41" s="105"/>
+      <c r="BQ41" s="105"/>
+      <c r="BR41" s="105"/>
+      <c r="BS41" s="105"/>
+      <c r="BT41" s="105"/>
+      <c r="BU41" s="105"/>
+      <c r="BV41" s="105"/>
+      <c r="BW41" s="105"/>
+      <c r="BX41" s="105"/>
+      <c r="BY41" s="105"/>
+      <c r="BZ41" s="105"/>
+      <c r="CA41" s="105"/>
+      <c r="CB41" s="105"/>
+      <c r="CC41" s="105"/>
+      <c r="CD41" s="105"/>
+      <c r="CE41" s="102" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:83" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H42" s="107" t="s">
+      <c r="H42" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="L42" s="105" t="s">
+      <c r="L42" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="M42" s="108">
+      <c r="M42" s="107">
         <f>E41</f>
-        <v>756</v>
-      </c>
-      <c r="N42" s="109">
+        <v>210</v>
+      </c>
+      <c r="N42" s="108">
         <f>E41</f>
-        <v>756</v>
-      </c>
-      <c r="O42" s="109">
+        <v>210</v>
+      </c>
+      <c r="O42" s="108">
         <f>E41</f>
-        <v>756</v>
-      </c>
-      <c r="P42" s="108">
+        <v>210</v>
+      </c>
+      <c r="P42" s="107">
         <f>E41</f>
-        <v>756</v>
-      </c>
-      <c r="Q42" s="109">
+        <v>210</v>
+      </c>
+      <c r="Q42" s="108">
         <f>P42-I41</f>
-        <v>744.5454545454545</v>
-      </c>
-      <c r="R42" s="109">
+        <v>202.5</v>
+      </c>
+      <c r="R42" s="108">
         <f>Q42-I41</f>
-        <v>733.09090909090901</v>
-      </c>
-      <c r="S42" s="109">
+        <v>195</v>
+      </c>
+      <c r="S42" s="108">
         <f>R42-I41</f>
-        <v>721.63636363636351</v>
-      </c>
-      <c r="T42" s="109">
+        <v>187.5</v>
+      </c>
+      <c r="T42" s="108">
         <f>S42-I41</f>
-        <v>710.18181818181802</v>
-      </c>
-      <c r="U42" s="109">
+        <v>180</v>
+      </c>
+      <c r="U42" s="108">
         <f>T42-I41</f>
-        <v>698.72727272727252</v>
-      </c>
-      <c r="V42" s="109">
+        <v>172.5</v>
+      </c>
+      <c r="V42" s="108">
         <f>U42-I41</f>
-        <v>687.27272727272702</v>
-      </c>
-      <c r="W42" s="109">
+        <v>165</v>
+      </c>
+      <c r="W42" s="108">
         <f>V42-I41</f>
-        <v>675.81818181818153</v>
-      </c>
-      <c r="X42" s="109">
+        <v>157.5</v>
+      </c>
+      <c r="X42" s="108">
         <f>W42-I41</f>
-        <v>664.36363636363603</v>
-      </c>
-      <c r="Y42" s="109">
+        <v>150</v>
+      </c>
+      <c r="Y42" s="108">
         <f>X42-I41</f>
-        <v>652.90909090909054</v>
-      </c>
-      <c r="Z42" s="109">
+        <v>142.5</v>
+      </c>
+      <c r="Z42" s="108">
         <f>Y42-I41</f>
-        <v>641.45454545454504</v>
-      </c>
-      <c r="AA42" s="109">
+        <v>135</v>
+      </c>
+      <c r="AA42" s="108">
         <f>Z42-I41</f>
-        <v>629.99999999999955</v>
-      </c>
-      <c r="AB42" s="109">
+        <v>127.5</v>
+      </c>
+      <c r="AB42" s="108">
         <f>AA42-I41</f>
-        <v>618.54545454545405</v>
-      </c>
-      <c r="AC42" s="109">
+        <v>120</v>
+      </c>
+      <c r="AC42" s="108">
         <f>AB42-I41</f>
-        <v>607.09090909090855</v>
-      </c>
-      <c r="AD42" s="109">
+        <v>112.5</v>
+      </c>
+      <c r="AD42" s="108">
         <f>AC42-I41</f>
-        <v>595.63636363636306</v>
-      </c>
-      <c r="AE42" s="109">
+        <v>105</v>
+      </c>
+      <c r="AE42" s="108">
         <f>AD42-I41</f>
-        <v>584.18181818181756</v>
-      </c>
-      <c r="AF42" s="109">
+        <v>97.5</v>
+      </c>
+      <c r="AF42" s="108">
         <f>AE42-I41</f>
-        <v>572.72727272727207</v>
-      </c>
-      <c r="AG42" s="109">
+        <v>90</v>
+      </c>
+      <c r="AG42" s="108">
         <f>AF42-I41</f>
-        <v>561.27272727272657</v>
-      </c>
-      <c r="AH42" s="109">
+        <v>82.5</v>
+      </c>
+      <c r="AH42" s="108">
         <f>AG42-I41</f>
-        <v>549.81818181818107</v>
-      </c>
-      <c r="AI42" s="109">
+        <v>75</v>
+      </c>
+      <c r="AI42" s="108">
         <f>AH42-I41</f>
-        <v>538.36363636363558</v>
-      </c>
-      <c r="AJ42" s="109">
+        <v>67.5</v>
+      </c>
+      <c r="AJ42" s="108">
         <f>AI42-I41</f>
-        <v>526.90909090909008</v>
-      </c>
-      <c r="AK42" s="109">
+        <v>60</v>
+      </c>
+      <c r="AK42" s="108">
         <f>AJ42-I41</f>
-        <v>515.45454545454459</v>
-      </c>
-      <c r="AL42" s="109">
+        <v>52.5</v>
+      </c>
+      <c r="AL42" s="108">
         <f>AK42-I41</f>
-        <v>503.99999999999915</v>
-      </c>
-      <c r="AM42" s="109">
+        <v>45</v>
+      </c>
+      <c r="AM42" s="108">
         <f>AL42-I41</f>
-        <v>492.54545454545371</v>
-      </c>
-      <c r="AN42" s="109">
+        <v>37.5</v>
+      </c>
+      <c r="AN42" s="108">
         <f>AM42-I41</f>
-        <v>481.09090909090827</v>
-      </c>
-      <c r="AO42" s="109">
+        <v>30</v>
+      </c>
+      <c r="AO42" s="108">
         <f>AN42-I41</f>
-        <v>469.63636363636283</v>
-      </c>
-      <c r="AP42" s="109">
+        <v>22.5</v>
+      </c>
+      <c r="AP42" s="108">
         <f>AO42-I41</f>
-        <v>458.18181818181739</v>
-      </c>
-      <c r="AQ42" s="109">
+        <v>15</v>
+      </c>
+      <c r="AQ42" s="108">
         <f>AP42-I41</f>
-        <v>446.72727272727195</v>
-      </c>
-      <c r="AR42" s="109">
+        <v>7.5</v>
+      </c>
+      <c r="AR42" s="108">
         <f>AQ42-I41</f>
-        <v>435.27272727272651</v>
-      </c>
-      <c r="AS42" s="109">
+        <v>0</v>
+      </c>
+      <c r="AS42" s="108">
         <f>AR42-I41</f>
-        <v>423.81818181818107</v>
-      </c>
-      <c r="AT42" s="109">
+        <v>-7.5</v>
+      </c>
+      <c r="AT42" s="108">
         <f>AS42-I41</f>
-        <v>412.36363636363564</v>
-      </c>
-      <c r="AU42" s="109">
+        <v>-15</v>
+      </c>
+      <c r="AU42" s="108">
         <f>AT42-I41</f>
-        <v>400.9090909090902</v>
-      </c>
-      <c r="AV42" s="109">
+        <v>-22.5</v>
+      </c>
+      <c r="AV42" s="108">
         <f>AU42-I41</f>
-        <v>389.45454545454476</v>
-      </c>
-      <c r="AW42" s="109">
+        <v>-30</v>
+      </c>
+      <c r="AW42" s="108">
         <f>AV42-I41</f>
-        <v>377.99999999999932</v>
-      </c>
-      <c r="AX42" s="109">
+        <v>-37.5</v>
+      </c>
+      <c r="AX42" s="108">
         <f>AW42-I41</f>
-        <v>366.54545454545388</v>
-      </c>
-      <c r="AY42" s="109">
+        <v>-45</v>
+      </c>
+      <c r="AY42" s="108">
         <f>AX42-I41</f>
-        <v>355.09090909090844</v>
-      </c>
-      <c r="AZ42" s="109">
+        <v>-52.5</v>
+      </c>
+      <c r="AZ42" s="108">
         <f>AY42-I41</f>
-        <v>343.636363636363</v>
-      </c>
-      <c r="BA42" s="109">
+        <v>-60</v>
+      </c>
+      <c r="BA42" s="108">
         <f>AZ42-I41</f>
-        <v>332.18181818181756</v>
-      </c>
-      <c r="BB42" s="109">
+        <v>-67.5</v>
+      </c>
+      <c r="BB42" s="108">
         <f>BA42-I41</f>
-        <v>320.72727272727212</v>
-      </c>
-      <c r="BC42" s="109">
+        <v>-75</v>
+      </c>
+      <c r="BC42" s="108">
         <f>BB42-I41</f>
-        <v>309.27272727272668</v>
-      </c>
-      <c r="BD42" s="109">
+        <v>-82.5</v>
+      </c>
+      <c r="BD42" s="108">
         <f>BC42-I41</f>
-        <v>297.81818181818124</v>
-      </c>
-      <c r="BE42" s="109">
+        <v>-90</v>
+      </c>
+      <c r="BE42" s="108">
         <f>BD42-I41</f>
-        <v>286.36363636363581</v>
-      </c>
-      <c r="BF42" s="109">
+        <v>-97.5</v>
+      </c>
+      <c r="BF42" s="108">
         <f>BE42-I41</f>
-        <v>274.90909090909037</v>
-      </c>
-      <c r="BG42" s="109">
+        <v>-105</v>
+      </c>
+      <c r="BG42" s="108">
         <f>BF42-I41</f>
-        <v>263.45454545454493</v>
-      </c>
-      <c r="BH42" s="109">
+        <v>-112.5</v>
+      </c>
+      <c r="BH42" s="108">
         <f>BG42-I41</f>
-        <v>251.99999999999946</v>
-      </c>
-      <c r="BI42" s="109">
+        <v>-120</v>
+      </c>
+      <c r="BI42" s="108">
         <f>BH42-I41</f>
-        <v>240.54545454545399</v>
-      </c>
-      <c r="BJ42" s="109">
+        <v>-127.5</v>
+      </c>
+      <c r="BJ42" s="108">
         <f>BI42-I41</f>
-        <v>229.09090909090853</v>
-      </c>
-      <c r="BK42" s="109"/>
-      <c r="BL42" s="109"/>
-      <c r="BM42" s="109"/>
-      <c r="BN42" s="109"/>
-      <c r="BO42" s="109"/>
-      <c r="BP42" s="109"/>
-      <c r="BQ42" s="109"/>
-      <c r="BR42" s="109"/>
-      <c r="BS42" s="109"/>
-      <c r="BT42" s="109"/>
-      <c r="BU42" s="109"/>
-      <c r="BV42" s="109"/>
-      <c r="BW42" s="109"/>
-      <c r="BX42" s="109"/>
-      <c r="BY42" s="109"/>
-      <c r="BZ42" s="109"/>
-      <c r="CA42" s="109"/>
-      <c r="CB42" s="109"/>
-      <c r="CC42" s="109"/>
-      <c r="CD42" s="109"/>
-      <c r="CE42" s="104"/>
+        <v>-135</v>
+      </c>
+      <c r="BK42" s="108"/>
+      <c r="BL42" s="108"/>
+      <c r="BM42" s="108"/>
+      <c r="BN42" s="108"/>
+      <c r="BO42" s="108"/>
+      <c r="BP42" s="108"/>
+      <c r="BQ42" s="108"/>
+      <c r="BR42" s="108"/>
+      <c r="BS42" s="108"/>
+      <c r="BT42" s="108"/>
+      <c r="BU42" s="108"/>
+      <c r="BV42" s="108"/>
+      <c r="BW42" s="108"/>
+      <c r="BX42" s="108"/>
+      <c r="BY42" s="108"/>
+      <c r="BZ42" s="108"/>
+      <c r="CA42" s="108"/>
+      <c r="CB42" s="108"/>
+      <c r="CC42" s="108"/>
+      <c r="CD42" s="108"/>
+      <c r="CE42" s="103"/>
     </row>
     <row r="43" spans="1:83" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L43" s="105" t="s">
+      <c r="L43" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="M43" s="108">
+      <c r="M43" s="107">
         <f>E41</f>
-        <v>756</v>
-      </c>
-      <c r="N43" s="108">
+        <v>210</v>
+      </c>
+      <c r="N43" s="107">
         <f t="shared" ref="N43:O43" si="9">M45</f>
-        <v>753</v>
-      </c>
-      <c r="O43" s="108">
+        <v>203</v>
+      </c>
+      <c r="O43" s="107">
         <f t="shared" si="9"/>
-        <v>750</v>
-      </c>
-      <c r="P43" s="108">
-        <f>E41</f>
-        <v>756</v>
-      </c>
-      <c r="Q43" s="108">
+        <v>193</v>
+      </c>
+      <c r="P43" s="107">
+        <f>O45</f>
+        <v>184</v>
+      </c>
+      <c r="Q43" s="107">
         <f t="shared" ref="Q43:BJ43" si="10">P45</f>
-        <v>751</v>
-      </c>
-      <c r="R43" s="108">
+        <v>175</v>
+      </c>
+      <c r="R43" s="107">
         <f t="shared" si="10"/>
-        <v>746</v>
-      </c>
-      <c r="S43" s="108">
+        <v>170</v>
+      </c>
+      <c r="S43" s="107">
         <f t="shared" si="10"/>
-        <v>743</v>
-      </c>
-      <c r="T43" s="108">
+        <v>165</v>
+      </c>
+      <c r="T43" s="107">
         <f t="shared" si="10"/>
-        <v>740</v>
-      </c>
-      <c r="U43" s="108">
+        <v>160</v>
+      </c>
+      <c r="U43" s="107">
         <f t="shared" si="10"/>
-        <v>737</v>
-      </c>
-      <c r="V43" s="108">
+        <v>154</v>
+      </c>
+      <c r="V43" s="107">
         <f t="shared" si="10"/>
-        <v>731</v>
-      </c>
-      <c r="W43" s="108">
+        <v>150</v>
+      </c>
+      <c r="W43" s="107">
         <f t="shared" si="10"/>
-        <v>728</v>
-      </c>
-      <c r="X43" s="108">
+        <v>145</v>
+      </c>
+      <c r="X43" s="107">
         <f t="shared" si="10"/>
-        <v>724</v>
-      </c>
-      <c r="Y43" s="108">
+        <v>135</v>
+      </c>
+      <c r="Y43" s="107">
         <f t="shared" si="10"/>
-        <v>718</v>
-      </c>
-      <c r="Z43" s="108">
+        <v>125</v>
+      </c>
+      <c r="Z43" s="107">
         <f t="shared" si="10"/>
-        <v>711</v>
-      </c>
-      <c r="AA43" s="108">
+        <v>120</v>
+      </c>
+      <c r="AA43" s="107">
         <f t="shared" si="10"/>
-        <v>706</v>
-      </c>
-      <c r="AB43" s="108">
+        <v>115</v>
+      </c>
+      <c r="AB43" s="107">
         <f t="shared" si="10"/>
-        <v>701</v>
-      </c>
-      <c r="AC43" s="108">
+        <v>110</v>
+      </c>
+      <c r="AC43" s="107">
         <f t="shared" si="10"/>
-        <v>696</v>
-      </c>
-      <c r="AD43" s="108">
+        <v>100</v>
+      </c>
+      <c r="AD43" s="107">
         <f t="shared" si="10"/>
-        <v>691</v>
-      </c>
-      <c r="AE43" s="108">
+        <v>95</v>
+      </c>
+      <c r="AE43" s="107">
         <f t="shared" si="10"/>
-        <v>686</v>
-      </c>
-      <c r="AF43" s="108">
+        <v>90</v>
+      </c>
+      <c r="AF43" s="107">
         <f t="shared" si="10"/>
-        <v>683</v>
-      </c>
-      <c r="AG43" s="108">
+        <v>80</v>
+      </c>
+      <c r="AG43" s="107">
         <f t="shared" si="10"/>
-        <v>680</v>
-      </c>
-      <c r="AH43" s="108">
+        <v>70</v>
+      </c>
+      <c r="AH43" s="107">
         <f t="shared" si="10"/>
-        <v>677</v>
-      </c>
-      <c r="AI43" s="108">
+        <v>56</v>
+      </c>
+      <c r="AI43" s="107">
         <f t="shared" si="10"/>
-        <v>673</v>
-      </c>
-      <c r="AJ43" s="108">
+        <v>43</v>
+      </c>
+      <c r="AJ43" s="107">
         <f t="shared" si="10"/>
-        <v>670</v>
-      </c>
-      <c r="AK43" s="108">
+        <v>30</v>
+      </c>
+      <c r="AK43" s="107">
         <f t="shared" si="10"/>
-        <v>666</v>
-      </c>
-      <c r="AL43" s="108">
+        <v>23</v>
+      </c>
+      <c r="AL43" s="107">
         <f t="shared" si="10"/>
-        <v>662</v>
-      </c>
-      <c r="AM43" s="108">
+        <v>15</v>
+      </c>
+      <c r="AM43" s="107">
         <f t="shared" si="10"/>
-        <v>659</v>
-      </c>
-      <c r="AN43" s="108">
+        <v>15</v>
+      </c>
+      <c r="AN43" s="107">
         <f t="shared" si="10"/>
-        <v>656</v>
-      </c>
-      <c r="AO43" s="108">
+        <v>15</v>
+      </c>
+      <c r="AO43" s="107">
         <f t="shared" si="10"/>
-        <v>653</v>
-      </c>
-      <c r="AP43" s="108">
+        <v>15</v>
+      </c>
+      <c r="AP43" s="107">
         <f t="shared" si="10"/>
-        <v>650</v>
-      </c>
-      <c r="AQ43" s="108">
+        <v>15</v>
+      </c>
+      <c r="AQ43" s="107">
         <f t="shared" si="10"/>
-        <v>647</v>
-      </c>
-      <c r="AR43" s="108">
+        <v>15</v>
+      </c>
+      <c r="AR43" s="107">
         <f t="shared" si="10"/>
-        <v>643</v>
-      </c>
-      <c r="AS43" s="108">
+        <v>14</v>
+      </c>
+      <c r="AS43" s="107">
         <f t="shared" si="10"/>
-        <v>639</v>
-      </c>
-      <c r="AT43" s="108">
+        <v>11</v>
+      </c>
+      <c r="AT43" s="107">
         <f t="shared" si="10"/>
-        <v>635</v>
-      </c>
-      <c r="AU43" s="108">
+        <v>0</v>
+      </c>
+      <c r="AU43" s="107">
         <f t="shared" si="10"/>
-        <v>631</v>
-      </c>
-      <c r="AV43" s="108">
+        <v>0</v>
+      </c>
+      <c r="AV43" s="107">
         <f t="shared" si="10"/>
-        <v>623</v>
-      </c>
-      <c r="AW43" s="108">
+        <v>0</v>
+      </c>
+      <c r="AW43" s="107">
         <f t="shared" si="10"/>
-        <v>616</v>
-      </c>
-      <c r="AX43" s="108">
+        <v>0</v>
+      </c>
+      <c r="AX43" s="107">
         <f t="shared" si="10"/>
-        <v>612</v>
-      </c>
-      <c r="AY43" s="108">
+        <v>0</v>
+      </c>
+      <c r="AY43" s="107">
         <f t="shared" si="10"/>
-        <v>608</v>
-      </c>
-      <c r="AZ43" s="108">
+        <v>0</v>
+      </c>
+      <c r="AZ43" s="107">
         <f t="shared" si="10"/>
-        <v>604</v>
-      </c>
-      <c r="BA43" s="108">
+        <v>0</v>
+      </c>
+      <c r="BA43" s="107">
         <f t="shared" si="10"/>
-        <v>601</v>
-      </c>
-      <c r="BB43" s="108">
+        <v>0</v>
+      </c>
+      <c r="BB43" s="107">
         <f t="shared" si="10"/>
-        <v>601</v>
-      </c>
-      <c r="BC43" s="108">
+        <v>0</v>
+      </c>
+      <c r="BC43" s="107">
         <f t="shared" si="10"/>
-        <v>601</v>
-      </c>
-      <c r="BD43" s="108">
+        <v>0</v>
+      </c>
+      <c r="BD43" s="107">
         <f t="shared" si="10"/>
-        <v>601</v>
-      </c>
-      <c r="BE43" s="108">
+        <v>0</v>
+      </c>
+      <c r="BE43" s="107">
         <f t="shared" si="10"/>
-        <v>601</v>
-      </c>
-      <c r="BF43" s="108">
+        <v>0</v>
+      </c>
+      <c r="BF43" s="107">
         <f t="shared" si="10"/>
-        <v>601</v>
-      </c>
-      <c r="BG43" s="108">
+        <v>0</v>
+      </c>
+      <c r="BG43" s="107">
         <f t="shared" si="10"/>
-        <v>601</v>
-      </c>
-      <c r="BH43" s="108">
+        <v>0</v>
+      </c>
+      <c r="BH43" s="107">
         <f t="shared" si="10"/>
-        <v>601</v>
-      </c>
-      <c r="BI43" s="108">
+        <v>0</v>
+      </c>
+      <c r="BI43" s="107">
         <f t="shared" si="10"/>
-        <v>601</v>
-      </c>
-      <c r="BJ43" s="108">
+        <v>0</v>
+      </c>
+      <c r="BJ43" s="107">
         <f t="shared" si="10"/>
-        <v>601</v>
-      </c>
-      <c r="BK43" s="108"/>
-      <c r="BL43" s="108"/>
-      <c r="BM43" s="108"/>
-      <c r="BN43" s="108"/>
-      <c r="BO43" s="108"/>
-      <c r="BP43" s="108"/>
-      <c r="BQ43" s="108"/>
-      <c r="BR43" s="108"/>
-      <c r="BS43" s="108"/>
-      <c r="BT43" s="108"/>
-      <c r="BU43" s="108"/>
-      <c r="BV43" s="108"/>
-      <c r="BW43" s="108"/>
-      <c r="BX43" s="108"/>
-      <c r="BY43" s="108"/>
-      <c r="BZ43" s="108"/>
-      <c r="CA43" s="108"/>
-      <c r="CB43" s="108"/>
-      <c r="CC43" s="108"/>
-      <c r="CD43" s="108"/>
-      <c r="CE43" s="104">
+        <v>0</v>
+      </c>
+      <c r="BK43" s="107"/>
+      <c r="BL43" s="107"/>
+      <c r="BM43" s="107"/>
+      <c r="BN43" s="107"/>
+      <c r="BO43" s="107"/>
+      <c r="BP43" s="107"/>
+      <c r="BQ43" s="107"/>
+      <c r="BR43" s="107"/>
+      <c r="BS43" s="107"/>
+      <c r="BT43" s="107"/>
+      <c r="BU43" s="107"/>
+      <c r="BV43" s="107"/>
+      <c r="BW43" s="107"/>
+      <c r="BX43" s="107"/>
+      <c r="BY43" s="107"/>
+      <c r="BZ43" s="107"/>
+      <c r="CA43" s="107"/>
+      <c r="CB43" s="107"/>
+      <c r="CC43" s="107"/>
+      <c r="CD43" s="107"/>
+      <c r="CE43" s="103">
         <f>SUM(P43:CD43)</f>
-        <v>31162</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="44" spans="1:83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K44" s="110" t="s">
+      <c r="K44" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="L44" s="105" t="s">
+      <c r="L44" s="104" t="s">
         <v>54</v>
       </c>
       <c r="M44" s="51">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N44" s="51">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O44" s="51">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P44" s="51">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q44" s="51">
         <v>5</v>
       </c>
       <c r="R44" s="51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S44" s="51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T44" s="51">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U44" s="51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V44" s="51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W44" s="51">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="X44" s="51">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y44" s="51">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Z44" s="51">
         <v>5</v>
@@ -8075,7 +8048,7 @@
         <v>5</v>
       </c>
       <c r="AB44" s="51">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC44" s="51">
         <v>5</v>
@@ -8084,71 +8057,47 @@
         <v>5</v>
       </c>
       <c r="AE44" s="51">
+        <v>10</v>
+      </c>
+      <c r="AF44" s="51">
+        <v>10</v>
+      </c>
+      <c r="AG44" s="51">
+        <v>14</v>
+      </c>
+      <c r="AH44" s="51">
+        <v>13</v>
+      </c>
+      <c r="AI44" s="51">
+        <v>13</v>
+      </c>
+      <c r="AJ44" s="51">
+        <v>7</v>
+      </c>
+      <c r="AK44" s="51">
+        <v>8</v>
+      </c>
+      <c r="AL44" s="51"/>
+      <c r="AM44" s="51"/>
+      <c r="AN44" s="51"/>
+      <c r="AO44" s="51"/>
+      <c r="AP44" s="51"/>
+      <c r="AQ44" s="51">
+        <v>1</v>
+      </c>
+      <c r="AR44" s="51">
         <v>3</v>
       </c>
-      <c r="AF44" s="51">
-        <v>3</v>
-      </c>
-      <c r="AG44" s="51">
-        <v>3</v>
-      </c>
-      <c r="AH44" s="51">
-        <v>4</v>
-      </c>
-      <c r="AI44" s="51">
-        <v>3</v>
-      </c>
-      <c r="AJ44" s="51">
-        <v>4</v>
-      </c>
-      <c r="AK44" s="51">
-        <v>4</v>
-      </c>
-      <c r="AL44" s="51">
-        <v>3</v>
-      </c>
-      <c r="AM44" s="51">
-        <v>3</v>
-      </c>
-      <c r="AN44" s="51">
-        <v>3</v>
-      </c>
-      <c r="AO44" s="51">
-        <v>3</v>
-      </c>
-      <c r="AP44" s="51">
-        <v>3</v>
-      </c>
-      <c r="AQ44" s="51">
-        <v>4</v>
-      </c>
-      <c r="AR44" s="51">
-        <v>4</v>
-      </c>
       <c r="AS44" s="51">
-        <v>4</v>
-      </c>
-      <c r="AT44" s="51">
-        <v>4</v>
-      </c>
-      <c r="AU44" s="51">
-        <v>8</v>
-      </c>
-      <c r="AV44" s="51">
-        <v>7</v>
-      </c>
-      <c r="AW44" s="51">
-        <v>4</v>
-      </c>
-      <c r="AX44" s="51">
-        <v>4</v>
-      </c>
-      <c r="AY44" s="51">
-        <v>4</v>
-      </c>
-      <c r="AZ44" s="51">
-        <v>3</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="AT44" s="51"/>
+      <c r="AU44" s="51"/>
+      <c r="AV44" s="51"/>
+      <c r="AW44" s="51"/>
+      <c r="AX44" s="51"/>
+      <c r="AY44" s="51"/>
+      <c r="AZ44" s="51"/>
       <c r="BA44" s="51"/>
       <c r="BB44" s="51"/>
       <c r="BC44" s="51"/>
@@ -8179,296 +8128,296 @@
       <c r="CB44" s="51"/>
       <c r="CC44" s="51"/>
       <c r="CD44" s="51"/>
-      <c r="CE44" s="104">
+      <c r="CE44" s="103">
         <f>SUM(P44:BT44)</f>
-        <v>155</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L45" s="105" t="s">
+      <c r="L45" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="M45" s="108">
+      <c r="M45" s="107">
         <f t="shared" ref="M45:BJ45" si="11">M43-M44</f>
-        <v>753</v>
-      </c>
-      <c r="N45" s="108">
+        <v>203</v>
+      </c>
+      <c r="N45" s="107">
         <f t="shared" si="11"/>
-        <v>750</v>
-      </c>
-      <c r="O45" s="108">
+        <v>193</v>
+      </c>
+      <c r="O45" s="107">
         <f t="shared" si="11"/>
-        <v>747</v>
-      </c>
-      <c r="P45" s="108">
+        <v>184</v>
+      </c>
+      <c r="P45" s="107">
         <f t="shared" si="11"/>
-        <v>751</v>
-      </c>
-      <c r="Q45" s="108">
+        <v>175</v>
+      </c>
+      <c r="Q45" s="107">
         <f t="shared" si="11"/>
-        <v>746</v>
-      </c>
-      <c r="R45" s="108">
+        <v>170</v>
+      </c>
+      <c r="R45" s="107">
         <f t="shared" si="11"/>
-        <v>743</v>
-      </c>
-      <c r="S45" s="108">
+        <v>165</v>
+      </c>
+      <c r="S45" s="107">
         <f t="shared" si="11"/>
-        <v>740</v>
-      </c>
-      <c r="T45" s="108">
+        <v>160</v>
+      </c>
+      <c r="T45" s="107">
         <f t="shared" si="11"/>
-        <v>737</v>
-      </c>
-      <c r="U45" s="108">
+        <v>154</v>
+      </c>
+      <c r="U45" s="107">
         <f t="shared" si="11"/>
-        <v>731</v>
-      </c>
-      <c r="V45" s="108">
+        <v>150</v>
+      </c>
+      <c r="V45" s="107">
         <f t="shared" si="11"/>
-        <v>728</v>
-      </c>
-      <c r="W45" s="108">
+        <v>145</v>
+      </c>
+      <c r="W45" s="107">
         <f t="shared" si="11"/>
-        <v>724</v>
-      </c>
-      <c r="X45" s="108">
+        <v>135</v>
+      </c>
+      <c r="X45" s="107">
         <f t="shared" si="11"/>
-        <v>718</v>
-      </c>
-      <c r="Y45" s="108">
+        <v>125</v>
+      </c>
+      <c r="Y45" s="107">
         <f t="shared" si="11"/>
-        <v>711</v>
-      </c>
-      <c r="Z45" s="108">
+        <v>120</v>
+      </c>
+      <c r="Z45" s="107">
         <f t="shared" si="11"/>
-        <v>706</v>
-      </c>
-      <c r="AA45" s="108">
+        <v>115</v>
+      </c>
+      <c r="AA45" s="107">
         <f t="shared" si="11"/>
-        <v>701</v>
-      </c>
-      <c r="AB45" s="108">
+        <v>110</v>
+      </c>
+      <c r="AB45" s="107">
         <f t="shared" si="11"/>
-        <v>696</v>
-      </c>
-      <c r="AC45" s="108">
+        <v>100</v>
+      </c>
+      <c r="AC45" s="107">
         <f t="shared" si="11"/>
-        <v>691</v>
-      </c>
-      <c r="AD45" s="108">
+        <v>95</v>
+      </c>
+      <c r="AD45" s="107">
         <f t="shared" si="11"/>
-        <v>686</v>
-      </c>
-      <c r="AE45" s="108">
+        <v>90</v>
+      </c>
+      <c r="AE45" s="107">
         <f t="shared" si="11"/>
-        <v>683</v>
-      </c>
-      <c r="AF45" s="108">
+        <v>80</v>
+      </c>
+      <c r="AF45" s="107">
         <f t="shared" si="11"/>
-        <v>680</v>
-      </c>
-      <c r="AG45" s="108">
+        <v>70</v>
+      </c>
+      <c r="AG45" s="107">
         <f t="shared" si="11"/>
-        <v>677</v>
-      </c>
-      <c r="AH45" s="108">
+        <v>56</v>
+      </c>
+      <c r="AH45" s="107">
         <f t="shared" si="11"/>
-        <v>673</v>
-      </c>
-      <c r="AI45" s="108">
+        <v>43</v>
+      </c>
+      <c r="AI45" s="107">
         <f t="shared" si="11"/>
-        <v>670</v>
-      </c>
-      <c r="AJ45" s="108">
+        <v>30</v>
+      </c>
+      <c r="AJ45" s="107">
         <f t="shared" si="11"/>
-        <v>666</v>
-      </c>
-      <c r="AK45" s="108">
+        <v>23</v>
+      </c>
+      <c r="AK45" s="107">
         <f t="shared" si="11"/>
-        <v>662</v>
-      </c>
-      <c r="AL45" s="108">
+        <v>15</v>
+      </c>
+      <c r="AL45" s="107">
         <f t="shared" si="11"/>
-        <v>659</v>
-      </c>
-      <c r="AM45" s="108">
+        <v>15</v>
+      </c>
+      <c r="AM45" s="107">
         <f t="shared" si="11"/>
-        <v>656</v>
-      </c>
-      <c r="AN45" s="108">
+        <v>15</v>
+      </c>
+      <c r="AN45" s="107">
         <f t="shared" si="11"/>
-        <v>653</v>
-      </c>
-      <c r="AO45" s="108">
+        <v>15</v>
+      </c>
+      <c r="AO45" s="107">
         <f t="shared" si="11"/>
-        <v>650</v>
-      </c>
-      <c r="AP45" s="108">
+        <v>15</v>
+      </c>
+      <c r="AP45" s="107">
         <f t="shared" si="11"/>
-        <v>647</v>
-      </c>
-      <c r="AQ45" s="108">
+        <v>15</v>
+      </c>
+      <c r="AQ45" s="107">
         <f t="shared" si="11"/>
-        <v>643</v>
-      </c>
-      <c r="AR45" s="108">
+        <v>14</v>
+      </c>
+      <c r="AR45" s="107">
         <f t="shared" si="11"/>
-        <v>639</v>
-      </c>
-      <c r="AS45" s="108">
+        <v>11</v>
+      </c>
+      <c r="AS45" s="107">
         <f t="shared" si="11"/>
-        <v>635</v>
-      </c>
-      <c r="AT45" s="108">
+        <v>0</v>
+      </c>
+      <c r="AT45" s="107">
         <f t="shared" si="11"/>
-        <v>631</v>
-      </c>
-      <c r="AU45" s="108">
+        <v>0</v>
+      </c>
+      <c r="AU45" s="107">
         <f t="shared" si="11"/>
-        <v>623</v>
-      </c>
-      <c r="AV45" s="108">
+        <v>0</v>
+      </c>
+      <c r="AV45" s="107">
         <f t="shared" si="11"/>
-        <v>616</v>
-      </c>
-      <c r="AW45" s="108">
+        <v>0</v>
+      </c>
+      <c r="AW45" s="107">
         <f t="shared" si="11"/>
-        <v>612</v>
-      </c>
-      <c r="AX45" s="108">
+        <v>0</v>
+      </c>
+      <c r="AX45" s="107">
         <f t="shared" si="11"/>
-        <v>608</v>
-      </c>
-      <c r="AY45" s="108">
+        <v>0</v>
+      </c>
+      <c r="AY45" s="107">
         <f t="shared" si="11"/>
-        <v>604</v>
-      </c>
-      <c r="AZ45" s="108">
+        <v>0</v>
+      </c>
+      <c r="AZ45" s="107">
         <f t="shared" si="11"/>
-        <v>601</v>
-      </c>
-      <c r="BA45" s="108">
+        <v>0</v>
+      </c>
+      <c r="BA45" s="107">
         <f t="shared" si="11"/>
-        <v>601</v>
-      </c>
-      <c r="BB45" s="108">
+        <v>0</v>
+      </c>
+      <c r="BB45" s="107">
         <f t="shared" si="11"/>
-        <v>601</v>
-      </c>
-      <c r="BC45" s="108">
+        <v>0</v>
+      </c>
+      <c r="BC45" s="107">
         <f t="shared" si="11"/>
-        <v>601</v>
-      </c>
-      <c r="BD45" s="108">
+        <v>0</v>
+      </c>
+      <c r="BD45" s="107">
         <f t="shared" si="11"/>
-        <v>601</v>
-      </c>
-      <c r="BE45" s="108">
+        <v>0</v>
+      </c>
+      <c r="BE45" s="107">
         <f t="shared" si="11"/>
-        <v>601</v>
-      </c>
-      <c r="BF45" s="108">
+        <v>0</v>
+      </c>
+      <c r="BF45" s="107">
         <f t="shared" si="11"/>
-        <v>601</v>
-      </c>
-      <c r="BG45" s="108">
+        <v>0</v>
+      </c>
+      <c r="BG45" s="107">
         <f t="shared" si="11"/>
-        <v>601</v>
-      </c>
-      <c r="BH45" s="108">
+        <v>0</v>
+      </c>
+      <c r="BH45" s="107">
         <f t="shared" si="11"/>
-        <v>601</v>
-      </c>
-      <c r="BI45" s="108">
+        <v>0</v>
+      </c>
+      <c r="BI45" s="107">
         <f t="shared" si="11"/>
-        <v>601</v>
-      </c>
-      <c r="BJ45" s="108">
+        <v>0</v>
+      </c>
+      <c r="BJ45" s="107">
         <f t="shared" si="11"/>
-        <v>601</v>
-      </c>
-      <c r="BK45" s="108"/>
-      <c r="BL45" s="108"/>
-      <c r="BM45" s="108"/>
-      <c r="BN45" s="108"/>
-      <c r="BO45" s="108"/>
-      <c r="BP45" s="108"/>
-      <c r="BQ45" s="108"/>
-      <c r="BR45" s="108"/>
-      <c r="BS45" s="108"/>
-      <c r="BT45" s="108"/>
-      <c r="BU45" s="108"/>
-      <c r="BV45" s="108"/>
-      <c r="BW45" s="108"/>
-      <c r="BX45" s="108"/>
-      <c r="BY45" s="108"/>
-      <c r="BZ45" s="108"/>
-      <c r="CA45" s="108"/>
-      <c r="CB45" s="108"/>
-      <c r="CC45" s="108"/>
-      <c r="CD45" s="108"/>
-      <c r="CE45" s="104">
+        <v>0</v>
+      </c>
+      <c r="BK45" s="107"/>
+      <c r="BL45" s="107"/>
+      <c r="BM45" s="107"/>
+      <c r="BN45" s="107"/>
+      <c r="BO45" s="107"/>
+      <c r="BP45" s="107"/>
+      <c r="BQ45" s="107"/>
+      <c r="BR45" s="107"/>
+      <c r="BS45" s="107"/>
+      <c r="BT45" s="107"/>
+      <c r="BU45" s="107"/>
+      <c r="BV45" s="107"/>
+      <c r="BW45" s="107"/>
+      <c r="BX45" s="107"/>
+      <c r="BY45" s="107"/>
+      <c r="BZ45" s="107"/>
+      <c r="CA45" s="107"/>
+      <c r="CB45" s="107"/>
+      <c r="CC45" s="107"/>
+      <c r="CD45" s="107"/>
+      <c r="CE45" s="103">
         <f>SUM(P45:CD45)</f>
-        <v>31007</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="46" spans="1:83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="5:54" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E49" s="151" t="s">
+      <c r="E49" s="166" t="s">
         <v>56</v>
       </c>
-      <c r="F49" s="152"/>
-      <c r="G49" s="152"/>
-      <c r="H49" s="152"/>
-      <c r="I49" s="152"/>
-      <c r="J49" s="152"/>
-      <c r="K49" s="152"/>
-      <c r="L49" s="152"/>
-      <c r="M49" s="152"/>
-      <c r="N49" s="152"/>
-      <c r="O49" s="152"/>
-      <c r="P49" s="152"/>
-      <c r="Q49" s="152"/>
-      <c r="R49" s="152"/>
-      <c r="S49" s="152"/>
-      <c r="T49" s="152"/>
-      <c r="U49" s="152"/>
-      <c r="V49" s="152"/>
-      <c r="W49" s="152"/>
-      <c r="X49" s="152"/>
-      <c r="Y49" s="152"/>
-      <c r="Z49" s="152"/>
-      <c r="AA49" s="152"/>
-      <c r="AB49" s="152"/>
-      <c r="AC49" s="152"/>
-      <c r="AD49" s="152"/>
-      <c r="AE49" s="152"/>
-      <c r="AF49" s="152"/>
-      <c r="AG49" s="152"/>
-      <c r="AH49" s="152"/>
-      <c r="AI49" s="152"/>
-      <c r="AJ49" s="152"/>
-      <c r="AK49" s="152"/>
-      <c r="AL49" s="152"/>
-      <c r="AM49" s="152"/>
-      <c r="AN49" s="152"/>
-      <c r="AO49" s="152"/>
-      <c r="AP49" s="152"/>
-      <c r="AQ49" s="152"/>
-      <c r="AR49" s="152"/>
-      <c r="AS49" s="152"/>
-      <c r="AT49" s="152"/>
-      <c r="AU49" s="152"/>
-      <c r="AV49" s="152"/>
-      <c r="AW49" s="152"/>
-      <c r="AX49" s="152"/>
-      <c r="AY49" s="152"/>
-      <c r="AZ49" s="152"/>
-      <c r="BA49" s="152"/>
-      <c r="BB49" s="153"/>
+      <c r="F49" s="167"/>
+      <c r="G49" s="167"/>
+      <c r="H49" s="167"/>
+      <c r="I49" s="167"/>
+      <c r="J49" s="167"/>
+      <c r="K49" s="167"/>
+      <c r="L49" s="167"/>
+      <c r="M49" s="167"/>
+      <c r="N49" s="167"/>
+      <c r="O49" s="167"/>
+      <c r="P49" s="167"/>
+      <c r="Q49" s="167"/>
+      <c r="R49" s="167"/>
+      <c r="S49" s="167"/>
+      <c r="T49" s="167"/>
+      <c r="U49" s="167"/>
+      <c r="V49" s="167"/>
+      <c r="W49" s="167"/>
+      <c r="X49" s="167"/>
+      <c r="Y49" s="167"/>
+      <c r="Z49" s="167"/>
+      <c r="AA49" s="167"/>
+      <c r="AB49" s="167"/>
+      <c r="AC49" s="167"/>
+      <c r="AD49" s="167"/>
+      <c r="AE49" s="167"/>
+      <c r="AF49" s="167"/>
+      <c r="AG49" s="167"/>
+      <c r="AH49" s="167"/>
+      <c r="AI49" s="167"/>
+      <c r="AJ49" s="167"/>
+      <c r="AK49" s="167"/>
+      <c r="AL49" s="167"/>
+      <c r="AM49" s="167"/>
+      <c r="AN49" s="167"/>
+      <c r="AO49" s="167"/>
+      <c r="AP49" s="167"/>
+      <c r="AQ49" s="167"/>
+      <c r="AR49" s="167"/>
+      <c r="AS49" s="167"/>
+      <c r="AT49" s="167"/>
+      <c r="AU49" s="167"/>
+      <c r="AV49" s="167"/>
+      <c r="AW49" s="167"/>
+      <c r="AX49" s="167"/>
+      <c r="AY49" s="167"/>
+      <c r="AZ49" s="167"/>
+      <c r="BA49" s="167"/>
+      <c r="BB49" s="168"/>
     </row>
     <row r="50" spans="5:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="5:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9422,13 +9371,6 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
     <mergeCell ref="E49:BB49"/>
     <mergeCell ref="BF8:BJ8"/>
     <mergeCell ref="BK8:BO8"/>
@@ -9445,6 +9387,13 @@
     <mergeCell ref="AQ8:AU8"/>
     <mergeCell ref="AV8:AZ8"/>
     <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -9461,7 +9410,7 @@
   <dimension ref="B1:N1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9484,563 +9433,563 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="135" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
+      <c r="B1" s="134" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="139" t="s">
+      <c r="D3" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="139" t="s">
+      <c r="E3" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="139" t="s">
+      <c r="F3" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="140" t="s">
+      <c r="G3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="140" t="s">
+      <c r="H3" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="141" t="s">
+      <c r="I3" s="140" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="141" t="s">
+      <c r="J3" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="111" t="s">
+      <c r="L3" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="111" t="s">
+      <c r="N3" s="110" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="134">
+      <c r="C4" s="133">
         <v>1</v>
       </c>
-      <c r="D4" s="134" t="s">
+      <c r="D4" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="134" t="s">
+      <c r="E4" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="134" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="143"/>
-      <c r="H4" s="144">
+      <c r="F4" s="133" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="142"/>
+      <c r="H4" s="143">
         <v>40</v>
       </c>
-      <c r="I4" s="145" t="s">
+      <c r="I4" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="146"/>
-      <c r="L4" s="118" t="s">
+      <c r="J4" s="145"/>
+      <c r="L4" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="119">
+      <c r="N4" s="118">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="142" t="s">
+      <c r="B5" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="134">
+      <c r="C5" s="133">
         <v>2</v>
       </c>
-      <c r="D5" s="134" t="s">
+      <c r="D5" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="133" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="134" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="143"/>
-      <c r="H5" s="144">
+      <c r="F5" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="142"/>
+      <c r="H5" s="143">
         <v>80</v>
       </c>
-      <c r="I5" s="145" t="s">
+      <c r="I5" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="146"/>
-      <c r="L5" s="120" t="s">
+      <c r="J5" s="145"/>
+      <c r="L5" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="N5" s="119">
+      <c r="N5" s="118">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="134">
+      <c r="C6" s="133">
         <v>3</v>
       </c>
-      <c r="D6" s="134" t="s">
+      <c r="D6" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="134" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="143"/>
-      <c r="H6" s="144">
+      <c r="F6" s="133" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="142"/>
+      <c r="H6" s="143">
         <v>40</v>
       </c>
-      <c r="I6" s="145" t="s">
+      <c r="I6" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="146"/>
-      <c r="L6" s="121" t="s">
+      <c r="J6" s="145"/>
+      <c r="L6" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="119">
+      <c r="N6" s="118">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="141" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="134">
+      <c r="C7" s="133">
         <v>4</v>
       </c>
-      <c r="D7" s="134" t="s">
+      <c r="D7" s="133" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="134" t="s">
+      <c r="E7" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="134" t="s">
+      <c r="F7" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="143"/>
-      <c r="H7" s="144">
+      <c r="G7" s="142"/>
+      <c r="H7" s="143">
         <v>40</v>
       </c>
-      <c r="I7" s="145" t="s">
+      <c r="I7" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="146"/>
-      <c r="N7" s="119">
+      <c r="J7" s="145"/>
+      <c r="N7" s="118">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="112"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="117"/>
-      <c r="N8" s="119">
+      <c r="B8" s="111"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="116"/>
+      <c r="N8" s="118">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="112"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="117"/>
-      <c r="N9" s="119">
+      <c r="B9" s="111"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="116"/>
+      <c r="N9" s="118">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="112"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="117"/>
-      <c r="N10" s="119">
+      <c r="B10" s="111"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="116"/>
+      <c r="N10" s="118">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="112"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="117"/>
-      <c r="N11" s="122">
+      <c r="B11" s="111"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="116"/>
+      <c r="N11" s="121">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="112"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="117"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="116"/>
     </row>
     <row r="13" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="112"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="117"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="116"/>
     </row>
     <row r="14" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="112"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="117"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="116"/>
     </row>
     <row r="15" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="112"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="117"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="116"/>
     </row>
     <row r="16" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="112"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="117"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="116"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="112"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="117"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="116"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="112"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="117"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="116"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="112"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="117"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="116"/>
     </row>
     <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="112"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="116"/>
     </row>
     <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="112"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="116"/>
     </row>
     <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="112"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="117"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="116"/>
     </row>
     <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="112"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="117"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="116"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="112"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="117"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="116"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="112"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="117"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="116"/>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="112"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="117"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="116"/>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="112"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="117"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="116"/>
     </row>
     <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="112"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="117"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="116"/>
     </row>
     <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="112"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="117"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="116"/>
     </row>
     <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="112"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="117"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="116"/>
     </row>
     <row r="31" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="112"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="117"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="116"/>
     </row>
     <row r="32" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="112"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="117"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="116"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="112"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="117"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="116"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="112"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="117"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="116"/>
     </row>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="112"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="117"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="115"/>
+      <c r="J35" s="116"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="112"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="117"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="115"/>
+      <c r="J36" s="116"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="112"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="117"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="115"/>
+      <c r="J37" s="116"/>
     </row>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="112"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="113"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="117"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="116"/>
     </row>
     <row r="39" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="112"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="116"/>
-      <c r="J39" s="117"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="116"/>
     </row>
     <row r="40" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="123"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="124"/>
-      <c r="E40" s="124"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="125"/>
-      <c r="H40" s="125"/>
-      <c r="I40" s="126"/>
-      <c r="J40" s="127"/>
+      <c r="B40" s="122"/>
+      <c r="C40" s="123"/>
+      <c r="D40" s="123"/>
+      <c r="E40" s="123"/>
+      <c r="F40" s="123"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="124"/>
+      <c r="I40" s="125"/>
+      <c r="J40" s="126"/>
     </row>
     <row r="41" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
